--- a/beta/filtered_excel_df.xlsx
+++ b/beta/filtered_excel_df.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS4"/>
+  <dimension ref="A1:AU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,160 +503,170 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>fixed_resistance_gradient</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>fixed_support_gradient</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>ema_short</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ema_long</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>lsma</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>macd_line</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>macd_signal</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>lsma_stddev</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>lsma_slope</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>prev_lsma_slope_1</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>prev_lsma_slope_2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>lsma_upper_band</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>lsma_lower_band</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>is_buy2</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>is_sell2</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>tp</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>sl</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>be_condition</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>sl_updated</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>time_updated</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>time_to_trail</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>time_tp_hit</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>time_sl_hit</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>max_completion</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>max_floating_profit</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>profit</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>account_balance</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>win_streak</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>losing_streak</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
@@ -691,389 +701,115 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2324.03399976471</v>
+        <v>2324.033999764706</v>
       </c>
       <c r="K2" t="n">
-        <v>2331.991548581787</v>
+        <v>2331.991548581783</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.422101068648088e-05</v>
+        <v>-2.422101068625785e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>-6.878636050455884e-05</v>
+        <v>-6.878636050433582e-05</v>
       </c>
       <c r="N2" t="n">
+        <v>-5.833000163793168e-06</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.000133469848039399</v>
+      </c>
+      <c r="P2" t="n">
         <v>2328.849640934117</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>2329.218268782417</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>2327.427598899206</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>-0.1464035619051174</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>-0.0732592765996142</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>2.024222649150319</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>-0.3529927760591818</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>0.04253181974308973</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>0.1617991056073151</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>2330.160299475559</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>2323.194898322854</v>
       </c>
-      <c r="Y2" t="b">
+      <c r="AA2" t="b">
         <v>0</v>
       </c>
-      <c r="Z2" t="b">
+      <c r="AB2" t="b">
         <v>1</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AC2" t="n">
         <v>2323.11</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AD2" t="n">
         <v>2330.31</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AE2" t="n">
         <v>2326.11</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AF2" t="n">
         <v>2325.91</v>
       </c>
-      <c r="AE2" t="b">
+      <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" s="3" t="n">
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" s="3" t="n">
         <v>45462.76041666666</v>
       </c>
-      <c r="AH2" s="3" t="n">
-        <v>45464.83591435185</v>
-      </c>
-      <c r="AI2" s="3" t="n">
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" s="3" t="n">
         <v>45462.68318287037</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AL2" t="n">
         <v>48.75000000000682</v>
       </c>
-      <c r="AK2" t="n">
-        <v>70.72</v>
-      </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AM2" t="n">
+        <v>70.64</v>
+      </c>
+      <c r="AN2" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AM2" t="b">
+      <c r="AO2" t="b">
         <v>0</v>
       </c>
-      <c r="AN2" t="n">
-        <v>-116.09</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>183.91</v>
-      </c>
       <c r="AP2" t="n">
+        <v>-115.95</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>184.05</v>
+      </c>
+      <c r="AR2" t="n">
         <v>0</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AS2" t="n">
         <v>1</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AT2" t="n">
         <v>25</v>
       </c>
-      <c r="AS2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45463.30208333334</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>45463.30208333334</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2335.1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2338.37</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2334.64</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2338.23</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1379</v>
-      </c>
-      <c r="H3" t="n">
-        <v>27</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2334.64</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2344.083577992111</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0001147248211544992</v>
-      </c>
-      <c r="M3" t="n">
-        <v>6.452841483711299e-05</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2334.424046355289</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2332.871803299914</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2336.212999656002</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.8152447830875644</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.68037644434393</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.070380432455432</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.6667492260071413</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.1877227382187812</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.001224630199430976</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2341.858013239817</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2332.067986072188</v>
-      </c>
-      <c r="Y3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2342.23</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2339.23</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>2339.23</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2339.43</v>
-      </c>
-      <c r="AE3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="3" t="n">
-        <v>45463.33333333334</v>
-      </c>
-      <c r="AG3" s="3" t="n">
-        <v>45463.33333333334</v>
-      </c>
-      <c r="AH3" s="3" t="n">
-        <v>45463.35421296296</v>
-      </c>
-      <c r="AI3" s="3" t="n">
-        <v>45463.45138888889</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>160.3</v>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="AM3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>145.07</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>328.98</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45463.98958333334</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>45463.98958333334</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2358.95</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2360.06</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2358.7</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2359.76</v>
-      </c>
-      <c r="G4" t="n">
-        <v>320</v>
-      </c>
-      <c r="H4" t="n">
-        <v>32</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2357.89648758816</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2360.329328111843</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.946742167959954e-05</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.0001555770177803226</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2358.484907219652</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2355.858187263113</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2359.706845545236</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.893309941982807</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.089351573424988</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.563279149850003</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.1481045751634156</v>
-      </c>
-      <c r="U4" t="n">
-        <v>-0.02631922944510734</v>
-      </c>
-      <c r="V4" t="n">
-        <v>-0.04768489852131097</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2364.667272397534</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2356.246418692939</v>
-      </c>
-      <c r="Y4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2363.76</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>2360.76</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>2360.76</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2360.96</v>
-      </c>
-      <c r="AE4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="3" t="n">
-        <v>45464.13541666666</v>
-      </c>
-      <c r="AG4" s="3" t="n">
-        <v>45464.13541666666</v>
-      </c>
-      <c r="AH4" s="3" t="n">
-        <v>45464.14650462963</v>
-      </c>
-      <c r="AI4" s="3" t="n">
-        <v>45464.17711805556</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>153.05</v>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="AM4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>145.07</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>474.05</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AS4" t="n">
+      <c r="AU2" t="n">
         <v>6</v>
       </c>
     </row>

--- a/beta/filtered_excel_df.xlsx
+++ b/beta/filtered_excel_df.xlsx
@@ -58,12 +58,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -432,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU2"/>
+  <dimension ref="A1:AS28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,334 +480,3888 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>support_trendline</t>
+          <t>hourly_time</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>resistance_trendline</t>
+          <t>time2</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>support_gradient</t>
+          <t>fixed_support_gradient</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>resistance_gradient</t>
+          <t>fixed_resistance_gradient</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>fixed_resistance_gradient</t>
+          <t>ema_short</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>fixed_support_gradient</t>
+          <t>ema_long</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>ema_short</t>
+          <t>lsma</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>ema_long</t>
+          <t>macd_line</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>lsma</t>
+          <t>macd_signal</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>macd_line</t>
+          <t>lsma_stddev</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>macd_signal</t>
+          <t>lsma_slope</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>lsma_stddev</t>
+          <t>prev_lsma_slope_1</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>lsma_slope</t>
+          <t>prev_lsma_slope_2</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>prev_lsma_slope_1</t>
+          <t>lsma_upper_band</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>prev_lsma_slope_2</t>
+          <t>lsma_lower_band</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>lsma_upper_band</t>
+          <t>is_buy2</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>lsma_lower_band</t>
+          <t>is_sell2</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>is_buy2</t>
+          <t>tp</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>is_sell2</t>
+          <t>sl</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>tp</t>
+          <t>be</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>sl</t>
+          <t>be_condition</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>sl_updated</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>be_condition</t>
+          <t>time_updated</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>sl_updated</t>
+          <t>time_to_trail</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>time_updated</t>
+          <t>time_tp_hit</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>time_to_trail</t>
+          <t>time_sl_hit</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>time_tp_hit</t>
+          <t>max_completion</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>time_sl_hit</t>
+          <t>max_floating_profit</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>max_completion</t>
+          <t>type</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>max_floating_profit</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>profit</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>account_balance</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>profit</t>
+          <t>win_streak</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>account_balance</t>
+          <t>losing_streak</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>win_streak</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>losing_streak</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45462.63541666666</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>45462.63541666666</v>
+      <c r="A2" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45362.67708333334</v>
       </c>
       <c r="C2" t="n">
-        <v>2329.65</v>
+        <v>2178.9</v>
       </c>
       <c r="D2" t="n">
-        <v>2330.64</v>
+        <v>2181.39</v>
       </c>
       <c r="E2" t="n">
-        <v>2326.62</v>
+        <v>2178.44</v>
       </c>
       <c r="F2" t="n">
-        <v>2327.11</v>
+        <v>2181.29</v>
       </c>
       <c r="G2" t="n">
-        <v>1613</v>
+        <v>3300</v>
       </c>
       <c r="H2" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>45362.66666666666</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>45362.66666666666</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.000399184278701938</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.001054795042723517</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2179.550918873799</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2179.238014139743</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2179.919435844514</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.03962439573751908</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.1139496816875868</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.655676397527455</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6354076367420021</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.07543171654424441</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.5205091159250514</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2183.654598981176</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2177.684272707852</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2186.29</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2180.29</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>2182.29</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2182.49</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" s="2" t="n">
+        <v>45362.71875</v>
+      </c>
+      <c r="AH2" s="2" t="n">
+        <v>45371.89258101852</v>
+      </c>
+      <c r="AI2" s="2" t="n">
+        <v>45362.68814814815</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>5.600000000004002</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-36.39</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>263.61</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45363.3125</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2177.81</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2178.58</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2174.12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2174.45</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1085</v>
+      </c>
+      <c r="H3" t="n">
+        <v>29</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>45363.29166666666</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>45363.29166666666</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.000597967655648471</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.0005672760321357359</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2178.011144953767</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2179.195207011829</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2176.785531475748</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.5560554712355952</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.3974367309001127</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.272589345510956</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.7237839697281743</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.2119951840395515</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.04927072583586778</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2179.853527092188</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2172.217535859308</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2169.45</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2175.45</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>2173.45</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2173.25</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" s="2" t="n">
+        <v>45363.5625</v>
+      </c>
+      <c r="AH3" s="2" t="n">
+        <v>45363.59565972222</v>
+      </c>
+      <c r="AI3" s="2" t="n">
+        <v>45363.32366898148</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.799999999993816</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-36.39</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>227.22</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45364.03125</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2157.25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2160.63</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2157.12</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2158.69</v>
+      </c>
+      <c r="G4" t="n">
+        <v>743</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.001106662120979196</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0007532398719942829</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2157.844448709329</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2159.063259272381</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2158.425902992774</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-1.189839073901567</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-1.544735868802682</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.535834083588352</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.7762779497743395</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.5135259717953886</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.185424836596667</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2164.699279005618</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2153.652526979929</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2163.69</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2157.69</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2159.69</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2159.89</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" s="2" t="n">
+        <v>45364.19791666666</v>
+      </c>
+      <c r="AH4" s="2" t="n">
+        <v>45364.5424537037</v>
+      </c>
+      <c r="AI4" s="2" t="n">
+        <v>45364.04210648148</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.999999999998181</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-36.39</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>190.83</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45364.64583333334</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2164.52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2171.53</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2163.27</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2168.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4998</v>
+      </c>
+      <c r="H5" t="n">
+        <v>29</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>45364.625</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>45364.625</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0005203373638614883</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.001228905586994588</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2163.768936853874</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2162.250025913626</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2165.427358101135</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.7336371517021689</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.541019120503663</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.593270329141281</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.8477468180249161</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1965909872724296</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.0141520467823284</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2170.428273045476</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2161.926443156794</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2173.06</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2167.06</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2169.06</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2169.26</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" s="2" t="n">
+        <v>45364.71875</v>
+      </c>
+      <c r="AH5" s="2" t="n">
+        <v>45364.72574074074</v>
+      </c>
+      <c r="AI5" s="2" t="n">
+        <v>45364.65652777778</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>4.600000000000364</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-36.39</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>154.4400000000001</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45364.76041666666</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2170.81</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2173.55</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2170.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2173.33</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3193</v>
+      </c>
+      <c r="H6" t="n">
+        <v>29</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>45364.75</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>45364.75</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.001394329683767633</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0006761108880481843</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2169.754487055628</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2166.843825160974</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2172.34528379773</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.503484032580673</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.223573912065724</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.867314615252584</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.8695184038538173</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.4486033711746131</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.6958445132422639</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2179.066158528321</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2167.124409067139</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2178.33</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2172.33</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2174.33</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2174.53</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" s="2" t="n">
+        <v>45364.80208333334</v>
+      </c>
+      <c r="AH6" s="2" t="n">
+        <v>45364.80256944444</v>
+      </c>
+      <c r="AI6" s="2" t="n">
+        <v>45364.77300925926</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-36.39</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>118.0500000000001</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45364.78125</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2172.16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2174.61</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2172.04</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2173.54</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2273</v>
+      </c>
+      <c r="H7" t="n">
+        <v>29</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>45364.75</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>45364.75</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.001394329683767633</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0006761108880481843</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2170.648715584207</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2167.703773286158</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2173.539686962504</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.572456530301679</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.341513824901308</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.004764870336343</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.6363261093929395</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.5580770553815455</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.8695184038538173</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2180.446119537458</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2168.13325438755</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2178.54</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2174.54</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2174.54</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2174.74</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="2" t="n">
+        <v>45364.80208333334</v>
+      </c>
+      <c r="AG7" s="2" t="n">
+        <v>45364.80208333334</v>
+      </c>
+      <c r="AH7" s="2" t="n">
+        <v>45364.80258101852</v>
+      </c>
+      <c r="AI7" s="2" t="n">
+        <v>45364.82685185185</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>195.34</v>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>181.88</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>299.9300000000001</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45364.8125</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2175.33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2177.39</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2174.67</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2177</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2085</v>
+      </c>
+      <c r="H8" t="n">
+        <v>29</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>45364.79166666666</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>45364.79166666666</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.001394291345044232</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.001217470872089156</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2173.037068931534</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2169.564825361795</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2176.023601651186</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.850226106972514</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.562102024578465</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.740523002090532</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.6274165806667042</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.5669246646043575</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.289573443410973</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2183.923307704008</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2169.623895598364</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2182</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2176</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>2178</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2178.2</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" s="2" t="n">
+        <v>45371.875</v>
+      </c>
+      <c r="AH8" s="2" t="n">
+        <v>45371.87228009259</v>
+      </c>
+      <c r="AI8" s="2" t="n">
+        <v>45364.82371527778</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-36.39</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>263.5400000000001</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45365.61458333334</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2169.22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2169.52</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2160.36</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2162.7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4394</v>
+      </c>
+      <c r="H9" t="n">
+        <v>29</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>45365.58333333334</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>45365.58333333334</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.001153828717447914</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.0002438739794428476</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2167.905561761347</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2168.892945924</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2167.467248022014</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.5097556045534475</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.3777660362856475</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.610575776965505</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-1.205469556246499</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.08322325421204368</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.4467217062283453</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2169.641525320917</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2163.792970723111</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2157.7</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2163.7</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>2161.7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2161.5</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" s="2" t="n">
+        <v>45365.67708333334</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>45365.68267361111</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>45365.6259375</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>21.19999999999891</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>38.56</v>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-36.39</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>227.1500000000001</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45365.70833333334</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2161.85</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2162.16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2159.17</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2159.78</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3085</v>
+      </c>
+      <c r="H10" t="n">
+        <v>29</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>45365.70833333334</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>45365.70833333334</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.001199689303854929</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.001255805195935551</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2163.000740747214</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2165.350477055933</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2160.296904024768</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-1.198613601622583</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.952152285447582</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.78338856053771</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.6648538011704659</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-0.4602614379086845</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.5903474372189521</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2165.404478581494</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2153.689329468042</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2154.78</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2158.78</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2158.78</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>2158.58</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="2" t="n">
+        <v>45365.72916666666</v>
+      </c>
+      <c r="AG10" s="2" t="n">
+        <v>45365.72916666666</v>
+      </c>
+      <c r="AH10" s="2" t="n">
+        <v>45365.73666666666</v>
+      </c>
+      <c r="AI10" s="2" t="n">
+        <v>45365.7618287037</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>185.88</v>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>181.88</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>409.0300000000001</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45366.3125</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2164</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2167.34</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2163.98</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2166.81</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1140</v>
+      </c>
+      <c r="H11" t="n">
+        <v>29</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>45366.29166666666</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>45366.29166666666</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0003949954257709322</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.000958920221697666</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2164.294006490636</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2163.532507103899</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2164.868489852082</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.3358451633762343</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.2177518163014617</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.439594503091036</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.6696491228094601</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.02392156862561023</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.01682490540042636</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2168.311942431255</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2162.925037272909</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2171.81</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2167.81</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2167.81</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2168.01</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="2" t="n">
+        <v>45366.33333333334</v>
+      </c>
+      <c r="AG11" s="2" t="n">
+        <v>45366.33333333334</v>
+      </c>
+      <c r="AH11" s="2" t="n">
+        <v>45366.49773148148</v>
+      </c>
+      <c r="AI11" s="2" t="n">
+        <v>45366.34292824074</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>90.94</v>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>36.38</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>445.4100000000001</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45369.52083333334</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2155.96</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2157.55</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2155.47</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2157.2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2262</v>
+      </c>
+      <c r="H12" t="n">
+        <v>29</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>45369.5</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>45369.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.001139284963517357</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0009417133801169167</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2154.206676024124</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2152.552678758213</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2156.717533539731</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.5320820179931616</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.1273600075956735</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.597948813789915</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.6141382868927394</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.4648744410046675</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.5182284141733362</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2163.074764438348</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2151.860302641115</v>
+      </c>
+      <c r="Y12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2162.2</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2158.2</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2158.2</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2158.4</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="2" t="n">
+        <v>45369.55208333334</v>
+      </c>
+      <c r="AG12" s="2" t="n">
+        <v>45369.55208333334</v>
+      </c>
+      <c r="AH12" s="2" t="n">
+        <v>45369.60101851852</v>
+      </c>
+      <c r="AI12" s="2" t="n">
+        <v>45369.62171296297</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>193.89</v>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>181.88</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>627.2900000000001</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45369.59375</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2160.14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2162.89</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2159.88</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2161.14</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2309</v>
+      </c>
+      <c r="H13" t="n">
+        <v>29</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>45369.58333333334</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>45369.58333333334</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0008512892945067906</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.001092146273290423</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2158.412295385462</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2155.732643784875</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2160.911565187479</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.217845181321536</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.8569516917565166</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4.449676280360805</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.5603130374943248</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.3470691434467881</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.6908737530125109</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2168.418628165966</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2154.904502208991</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2166.14</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2160.14</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2162.14</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2162.34</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" s="2" t="n">
+        <v>45370.17708333334</v>
+      </c>
+      <c r="AH13" s="2" t="n">
+        <v>45371.83478009259</v>
+      </c>
+      <c r="AI13" s="2" t="n">
+        <v>45369.60569444444</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>5.600000000004002</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-36.39</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>590.9000000000001</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45370.375</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2156.66</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2156.66</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2154.06</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2155.07</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1352</v>
+      </c>
+      <c r="H14" t="n">
+        <v>29</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>45370.375</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>45370.375</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.001086634186331689</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.0007611716757545043</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2157.348357334752</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2158.687266025903</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2155.743790849673</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.5333532321019447</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-0.270438583730069</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.283159944763063</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-0.597261781906127</v>
+      </c>
+      <c r="U14" t="n">
+        <v>-0.3418128654971042</v>
+      </c>
+      <c r="V14" t="n">
+        <v>-0.5285414516683886</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2158.826056775103</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2151.161524924243</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2150.07</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2156.07</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2154.07</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2153.87</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" s="2" t="n">
+        <v>45370.42708333334</v>
+      </c>
+      <c r="AH14" s="2" t="n">
+        <v>45370.42883101852</v>
+      </c>
+      <c r="AI14" s="2" t="n">
+        <v>45370.38916666667</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>6.199999999998909</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>-36.39</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>554.5100000000001</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45370.41666666666</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2155.73</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2155.87</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2151.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2152.28</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2487</v>
+      </c>
+      <c r="H15" t="n">
+        <v>29</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>45370.41666666666</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>45370.41666666666</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.00153980059926671</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.0006937476767646284</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2155.965457782924</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2157.610771979144</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2153.98000343997</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.7415751922153504</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.497969320316588</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.876646079498794</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.7765634674938156</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.1731510147919835</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.3665290677695339</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2157.863475647293</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2148.596531232647</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2147.28</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>2153.28</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>2151.28</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>2151.08</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" s="2" t="n">
+        <v>45370.4375</v>
+      </c>
+      <c r="AH15" s="2" t="n">
+        <v>45370.43157407407</v>
+      </c>
+      <c r="AI15" s="2" t="n">
+        <v>45370.45261574074</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>183.34</v>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>181.88</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>736.3900000000001</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45371.60416666666</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2154.17</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2154.22</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2149.69</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2149.72</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2252</v>
+      </c>
+      <c r="H16" t="n">
+        <v>29</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>45371.58333333334</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>45371.58333333334</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.0005503002103783181</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.0001404784680084976</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2153.540923641416</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2154.766409121408</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2152.617843137256</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-0.6157365723374824</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.4805921261525825</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.977742989702166</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-0.874337805299092</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.1776676986614802</v>
+      </c>
+      <c r="V16" t="n">
+        <v>-0.1299105607154161</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2155.287796173354</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2148.447890101158</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2144.72</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2150.72</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>2148.72</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2148.52</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" s="2" t="n">
+        <v>45371.6159837963</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>4.600000000000364</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>-36.39</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>700.0000000000001</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45371.70833333334</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2156.92</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2158.58</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2156.2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2158.17</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2539</v>
+      </c>
+      <c r="H17" t="n">
         <v>27</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2324.033999764706</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2331.991548581783</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-2.422101068625785e-05</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-6.878636050433582e-05</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-5.833000163793168e-06</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-0.000133469848039399</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2328.849640934117</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2329.218268782417</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2327.427598899206</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-0.1464035619051174</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-0.0732592765996142</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.024222649150319</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-0.3529927760591818</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.04253181974308973</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.1617991056073151</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2330.160299475559</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2323.194898322854</v>
-      </c>
-      <c r="AA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>2323.11</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2330.31</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2326.11</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2325.91</v>
-      </c>
-      <c r="AG2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" s="3" t="n">
-        <v>45462.76041666666</v>
-      </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" s="3" t="n">
-        <v>45462.68318287037</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>48.75000000000682</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>70.64</v>
-      </c>
-      <c r="AN2" t="inlineStr">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>45371.70833333334</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>45371.70833333334</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.000419246741358568</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.00148999966795095</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2156.854317482348</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2156.083389524171</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2158.108720330238</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.1723890829211996</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-0.1114124589886077</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.841356952815962</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.5301375988988184</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.273949088410518</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.5910663914646648</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2163.44455221654</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2154.272888443937</v>
+      </c>
+      <c r="Y17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2163.17</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>2157.17</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2159.17</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2159.37</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" s="2" t="n">
+        <v>45371.84375</v>
+      </c>
+      <c r="AH17" s="2" t="n">
+        <v>45371.83337962963</v>
+      </c>
+      <c r="AI17" s="2" t="n">
+        <v>45371.72510416667</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>5.999999999994543</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="AL17" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AO2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-115.95</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>184.05</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AU2" t="n">
+      <c r="AM17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>-36.39</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>663.6100000000001</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2186.81</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2193.42</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2186.55</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2193.13</v>
+      </c>
+      <c r="G18" t="n">
+        <v>923</v>
+      </c>
+      <c r="H18" t="n">
+        <v>30</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.004473834195925268</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.005932341886842789</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2181.852489332127</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2173.559601856504</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2191.710357757139</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4.120534321861669</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3.21284006344347</v>
+      </c>
+      <c r="S18" t="n">
+        <v>13.56565144031737</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.342383900929235</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.509958720329905</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.830584795320647</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2211.523987201567</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2173.39672831271</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2198.13</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2192.13</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2194.13</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2194.33</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" s="2" t="n">
+        <v>45372.02083333334</v>
+      </c>
+      <c r="AH18" s="2" t="n">
+        <v>45372.01122685185</v>
+      </c>
+      <c r="AI18" s="2" t="n">
+        <v>45372.66653935185</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>218.63</v>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>181.89</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>845.5000000000001</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45372.03125</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2196.2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2204.9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2193.49</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2200.77</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1512</v>
+      </c>
+      <c r="H19" t="n">
+        <v>27</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.004473834195925268</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.005932341886842789</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2189.524070687784</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2179.322508713503</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2199.791300309599</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5.145046950098276</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4.067296293819017</v>
+      </c>
+      <c r="S19" t="n">
+        <v>16.15003810109834</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.873636050913319</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.615428276572857</v>
+      </c>
+      <c r="V19" t="n">
+        <v>4.591878224973698</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2223.093851746081</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2177.988748873116</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2205.77</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>2199.77</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>2201.77</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2201.97</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" s="2" t="n">
+        <v>45372.05208333334</v>
+      </c>
+      <c r="AH19" s="2" t="n">
+        <v>45372.05913194444</v>
+      </c>
+      <c r="AI19" s="2" t="n">
+        <v>45372.04174768519</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.400000000003274</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>-36.39</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>809.1100000000001</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45373.58333333334</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2166.02</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2171.43</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2165.76</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2171.24</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2732</v>
+      </c>
+      <c r="H20" t="n">
+        <v>27</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>45373.58333333334</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>45373.58333333334</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0002901723528814205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0009262628477219989</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2167.678315822267</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2168.952464440827</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2167.411104231168</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-1.071253053432429</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-1.305155343059829</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.423931242183267</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.7688682490556857</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-0.3978672170637765</v>
+      </c>
+      <c r="V20" t="n">
+        <v>-0.2067251461967317</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2172.183411408115</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2164.138797054221</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2176.24</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2172.24</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2172.24</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2172.44</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="2" t="n">
+        <v>45373.60416666666</v>
+      </c>
+      <c r="AG20" s="2" t="n">
+        <v>45373.60416666666</v>
+      </c>
+      <c r="AH20" s="2" t="n">
+        <v>45373.65333333334</v>
+      </c>
+      <c r="AI20" s="2" t="n">
+        <v>45373.60434027778</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>33.80000000000109</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>61.48</v>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>36.38</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>845.4900000000001</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>952</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45376.33333333334</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2169.73</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2170.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2166.97</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2167.66</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1069</v>
+      </c>
+      <c r="H21" t="n">
+        <v>27</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>45376.33333333334</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>45376.33333333334</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.0008877168950930408</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.0007059098532235657</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2169.797285472342</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2169.799904899698</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2167.999477124183</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.238470010034689</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.4754671932717204</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.581710485258755</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-0.5305091159270887</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-0.455968352252512</v>
+      </c>
+      <c r="V21" t="n">
+        <v>-1.004829721363876</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2172.834786279283</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2161.664167969084</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2162.66</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>2166.66</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>2166.66</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2166.46</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="2" t="n">
+        <v>45376.36458333334</v>
+      </c>
+      <c r="AG21" s="2" t="n">
+        <v>45376.36458333334</v>
+      </c>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" s="2" t="n">
+        <v>45376.36719907408</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>39.60000000000036</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>36.38</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>881.8700000000001</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>976</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45376.58333333334</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2170.38</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2174.25</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2170.22</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2173.81</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2338</v>
+      </c>
+      <c r="H22" t="n">
+        <v>27</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>45376.58333333334</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>45376.58333333334</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0008214701583486104</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.001265798658683408</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2169.9620650639</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2169.031148534123</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2171.447702098384</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.3033435514125813</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.03168023935549343</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.373130351842313</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.040650154798641</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.3965772273832044</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.4895631234944631</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2176.151428073371</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2168.243976123397</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2178.81</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2172.81</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>2174.81</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2175.01</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" s="2" t="n">
+        <v>45376.60416666666</v>
+      </c>
+      <c r="AH22" s="2" t="n">
+        <v>45376.65402777777</v>
+      </c>
+      <c r="AI22" s="2" t="n">
+        <v>45376.59869212963</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>36.80000000000291</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>66.93000000000001</v>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>-36.39</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>845.4800000000001</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>982</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45376.64583333334</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2173.06</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2181.23</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2172.91</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2178.39</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3711</v>
+      </c>
+      <c r="H23" t="n">
+        <v>27</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>45376.625</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>45376.625</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.001228752930171414</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.001567228504251208</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2173.508104979225</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2171.422739554821</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2175.901479188166</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.9106027977995836</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.5608629815703279</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.929721236958203</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.8520880632931949</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.06908840729465737</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.4605607155131111</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2182.706602858059</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2170.596355518273</v>
+      </c>
+      <c r="Y23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2183.39</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2177.39</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>2179.39</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2179.59</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" s="2" t="n">
+        <v>45376.67708333334</v>
+      </c>
+      <c r="AH23" s="2" t="n">
+        <v>45377.46809027778</v>
+      </c>
+      <c r="AI23" s="2" t="n">
+        <v>45376.65854166666</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>6.999999999998181</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-36.39</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>809.0900000000001</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45377.69791666666</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2183.34</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2183.42</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2179.26</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2179.27</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2926</v>
+      </c>
+      <c r="H24" t="n">
+        <v>27</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>45377.66666666666</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>45377.66666666666</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.003111488906341525</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.002003768259452463</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2185.149187011293</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2185.437025311867</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2181.424255245956</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.7450538597881859</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.598810578377108</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6.237066618250804</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-1.846573787411671</v>
+      </c>
+      <c r="U24" t="n">
+        <v>-1.349583763332248</v>
+      </c>
+      <c r="V24" t="n">
+        <v>-1.801589267281997</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2189.844295180595</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2171.504215311318</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2174.27</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2180.27</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2178.27</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2178.07</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" s="2" t="n">
+        <v>45377.71875</v>
+      </c>
+      <c r="AH24" s="2" t="n">
+        <v>45377.73383101852</v>
+      </c>
+      <c r="AI24" s="2" t="n">
+        <v>45377.7084375</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>12.79999999999745</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>-36.39</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>772.7000000000002</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45378.20833333334</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2175.93</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2180.64</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2175.59</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2180.25</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1259</v>
+      </c>
+      <c r="H25" t="n">
+        <v>27</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>45378.20833333334</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>45378.20833333334</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0001955503140208622</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0002432801438158815</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2177.24324217079</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2177.607980355407</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2176.600309597522</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-0.2885449006635099</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-0.3393645372872504</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.530657593006389</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.6068696250440553</v>
+      </c>
+      <c r="U25" t="n">
+        <v>-0.2728104575171528</v>
+      </c>
+      <c r="V25" t="n">
+        <v>-0.4242483660163998</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2180.16669734808</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2174.533921846963</v>
+      </c>
+      <c r="Y25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2185.25</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>2179.25</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>2181.25</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2181.45</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" s="2" t="n">
+        <v>45378.48958333334</v>
+      </c>
+      <c r="AH25" s="2" t="n">
+        <v>45378.48844907407</v>
+      </c>
+      <c r="AI25" s="2" t="n">
+        <v>45378.21877314815</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>21.40000000000327</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>38.92</v>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>-36.39</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>736.3100000000002</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>1252</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45379.58333333334</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2210.35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2215.18</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2209.81</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2213.87</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2984</v>
+      </c>
+      <c r="H26" t="n">
+        <v>27</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>45379.58333333334</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>45379.58333333334</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.002015927914125976</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.001652791153801018</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2207.144156058939</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2202.461808825791</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2212.651627106983</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.236552157267397</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.598374590422824</v>
+      </c>
+      <c r="S26" t="n">
+        <v>7.394144034346723</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.69996216030313</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.384599243204775</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.46319229446317</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2224.133721553351</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2202.669532660615</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>2218.87</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>2212.87</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>2214.87</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2215.07</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" s="2" t="n">
+        <v>45379.625</v>
+      </c>
+      <c r="AH26" s="2" t="n">
+        <v>45379.7687962963</v>
+      </c>
+      <c r="AI26" s="2" t="n">
+        <v>45379.59614583333</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>60.39999999999963</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>109.86</v>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>-36.39</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>699.9200000000002</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>1255</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45379.61458333334</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2207.48</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2216.06</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2205.68</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2215.6</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4304</v>
+      </c>
+      <c r="H27" t="n">
+        <v>27</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>45379.58333333334</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>45379.58333333334</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.002015927914125976</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.001652791153801018</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2208.922709018866</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2204.32731610542</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2214.695235638114</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.370439035909385</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.940121685159165</v>
+      </c>
+      <c r="S27" t="n">
+        <v>8.134967588586823</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.274275885791212</v>
+      </c>
+      <c r="U27" t="n">
+        <v>-0.1410388716863054</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.9103715170263058</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2227.177441882706</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2203.713029393522</v>
+      </c>
+      <c r="Y27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>2220.6</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>2214.6</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>2216.6</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>2216.8</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" s="2" t="n">
+        <v>45379.77083333334</v>
+      </c>
+      <c r="AH27" s="2" t="n">
+        <v>45379.77282407408</v>
+      </c>
+      <c r="AI27" s="2" t="n">
+        <v>45379.62679398148</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>27.79999999999745</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>-36.39</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>663.5300000000002</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>6</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>1275</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45379.82291666666</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2220</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2222.09</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2219.92</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2221.92</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1388</v>
+      </c>
+      <c r="H28" t="n">
+        <v>27</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>45379.79166666666</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>45379.79166666666</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.001870223782825097</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.002056207944756729</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2217.79980775953</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2213.805782580038</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2221.706704506363</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.389416012796119</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.259183288213094</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4.942175701806797</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.009322325421635</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.9610079119365764</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.9514241486044739</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2229.878641703802</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2215.034767308924</v>
+      </c>
+      <c r="Y28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2226.92</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>2220.92</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>2222.92</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>2223.12</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" s="2" t="n">
+        <v>45379.94791666666</v>
+      </c>
+      <c r="AH28" s="2" t="n">
+        <v>45379.95092592593</v>
+      </c>
+      <c r="AI28" s="2" t="n">
+        <v>45379.84363425926</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>8.19999999999709</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>-36.39</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>627.1400000000002</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/beta/filtered_excel_df.xlsx
+++ b/beta/filtered_excel_df.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS17"/>
+  <dimension ref="A1:AT64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,160 +500,165 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>hour_lsma</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>ema_short</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ema_long</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>lsma</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>macd_line</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>macd_signal</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>lsma_stddev</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>lsma_slope</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>prev_lsma_slope_1</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>prev_lsma_slope_2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>lsma_upper_band</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>lsma_lower_band</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>is_buy2</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>is_sell2</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>tp</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>sl</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>be_condition</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>sl_updated</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>time_updated</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>time_to_trail</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>time_tp_hit</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>time_sl_hit</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>max_completion</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>max_floating_profit</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>profit</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>account_balance</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>win_streak</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>losing_streak</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
@@ -661,2209 +666,8811 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45363.3125</v>
+        <v>45362.5625</v>
       </c>
       <c r="C2" t="n">
-        <v>2177.81</v>
+        <v>71654.836</v>
       </c>
       <c r="D2" t="n">
-        <v>2178.58</v>
+        <v>72225.234</v>
       </c>
       <c r="E2" t="n">
-        <v>2174.12</v>
+        <v>71601.836</v>
       </c>
       <c r="F2" t="n">
-        <v>2174.45</v>
+        <v>72136.57000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>1085</v>
+        <v>2431</v>
       </c>
       <c r="H2" t="n">
-        <v>29</v>
+        <v>36421</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>45363.29166666666</v>
+        <v>45362.54166666666</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45363.29166666666</v>
+        <v>45362.54166666666</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.844061946332733e-05</v>
+        <v>0.008038933718092228</v>
       </c>
       <c r="M2" t="n">
-        <v>-4.833069697908157e-05</v>
+        <v>0.00679432265133257</v>
       </c>
       <c r="N2" t="n">
-        <v>2178.011144953767</v>
+        <v>71784.16689285706</v>
       </c>
       <c r="O2" t="n">
-        <v>2179.195207011829</v>
+        <v>71591.04395247661</v>
       </c>
       <c r="P2" t="n">
-        <v>2176.785531475748</v>
+        <v>70930.6247429083</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.5560554712355952</v>
+        <v>71931.50415617472</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.3974367309001127</v>
+        <v>399.6019669734378</v>
       </c>
       <c r="S2" t="n">
-        <v>2.272589345510956</v>
+        <v>393.1181027102212</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.7237839697281743</v>
+        <v>1245.793757636686</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.2119951840395515</v>
+        <v>61.24590402476315</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.04927072583586778</v>
+        <v>-120.4951805985766</v>
       </c>
       <c r="W2" t="n">
-        <v>2179.853527092188</v>
+        <v>-111.3846147230797</v>
       </c>
       <c r="X2" t="n">
-        <v>2172.217535859308</v>
-      </c>
-      <c r="Y2" t="b">
-        <v>0</v>
+        <v>73614.82572898424</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>70249.6825833652</v>
       </c>
       <c r="Z2" t="b">
         <v>1</v>
       </c>
-      <c r="AA2" t="n">
-        <v>2165.45</v>
+      <c r="AA2" t="b">
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>2173.45</v>
+        <v>72145.57000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>2173.45</v>
+        <v>72131.57000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>2173.25</v>
-      </c>
-      <c r="AE2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="2" t="n">
-        <v>45363.5625</v>
-      </c>
-      <c r="AG2" s="2" t="n">
-        <v>45363.5625</v>
-      </c>
+        <v>72137.57000000001</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>72137.77</v>
+      </c>
+      <c r="AF2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" s="2" t="n">
-        <v>45363.60418981482</v>
+        <v>45362.64583333334</v>
       </c>
       <c r="AI2" s="2" t="n">
-        <v>45363.56638888889</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>22.77777777777475</v>
+        <v>45362.57292824074</v>
+      </c>
+      <c r="AJ2" s="2" t="n">
+        <v>45362.57291666666</v>
       </c>
       <c r="AK2" t="n">
-        <v>74.75</v>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="AM2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>36.46</v>
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-25.14</v>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN2" t="b">
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>336.46</v>
+        <v>-183.52</v>
       </c>
       <c r="AP2" t="n">
-        <v>1</v>
+        <v>116.48</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
       </c>
       <c r="AR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="n">
         <v>11</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45363.61458333334</v>
+        <v>45363.0625</v>
       </c>
       <c r="C3" t="n">
-        <v>2179.49</v>
+        <v>72347.617</v>
       </c>
       <c r="D3" t="n">
-        <v>2181.64</v>
+        <v>72348.57799999999</v>
       </c>
       <c r="E3" t="n">
-        <v>2169.69</v>
+        <v>72141.234</v>
       </c>
       <c r="F3" t="n">
-        <v>2169.71</v>
+        <v>72208.336</v>
       </c>
       <c r="G3" t="n">
-        <v>5681</v>
+        <v>1535</v>
       </c>
       <c r="H3" t="n">
-        <v>29</v>
+        <v>36421</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>45363.58333333334</v>
+        <v>45363.04166666666</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45363.58333333334</v>
+        <v>45363.04166666666</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0002855783838674228</v>
+        <v>-0.0002274176612266698</v>
       </c>
       <c r="M3" t="n">
-        <v>-9.231643331082128e-05</v>
+        <v>-0.0001635779376670353</v>
       </c>
       <c r="N3" t="n">
-        <v>2173.784277761857</v>
+        <v>72273.96542857145</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.147587666575</v>
+        <v>72411.45370696741</v>
       </c>
       <c r="P3" t="n">
-        <v>2172.218482972135</v>
+        <v>72350.42594062845</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.7416171710374329</v>
+        <v>72456.74087203306</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.6304264319448672</v>
+        <v>67.42060051772569</v>
       </c>
       <c r="S3" t="n">
-        <v>2.626271120809283</v>
+        <v>88.12008668390854</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.9402992776063002</v>
+        <v>197.1735037428329</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9624527003784351</v>
+        <v>-24.18995975228609</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.9913794289659563</v>
+        <v>-14.01760577913956</v>
       </c>
       <c r="W3" t="n">
-        <v>2175.763948985228</v>
+        <v>13.73944100446533</v>
       </c>
       <c r="X3" t="n">
-        <v>2167.173016959043</v>
-      </c>
-      <c r="Y3" t="b">
-        <v>0</v>
+        <v>72722.92510208588</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>72189.05664198023</v>
       </c>
       <c r="Z3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2160.71</v>
+        <v>0</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>2174.71</v>
+        <v>72199.336</v>
       </c>
       <c r="AC3" t="n">
-        <v>2168.71</v>
+        <v>72213.336</v>
       </c>
       <c r="AD3" t="n">
-        <v>2168.51</v>
-      </c>
-      <c r="AE3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" s="2" t="n">
-        <v>45363.63541666666</v>
-      </c>
+        <v>72207.336</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>72207.136</v>
+      </c>
+      <c r="AF3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" s="2" t="n">
-        <v>45363.62868055556</v>
+        <v>45363.08333333334</v>
       </c>
       <c r="AI3" s="2" t="n">
-        <v>45364.79298611111</v>
-      </c>
-      <c r="AJ3" t="n">
+        <v>45363.07297453703</v>
+      </c>
+      <c r="AJ3" s="2" t="n">
+        <v>45363.07434027778</v>
+      </c>
+      <c r="AK3" t="n">
         <v>100</v>
       </c>
-      <c r="AK3" t="n">
-        <v>347.88</v>
-      </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AL3" t="n">
+        <v>643.87</v>
+      </c>
+      <c r="AM3" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AM3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>328.19</v>
+      <c r="AN3" t="b">
+        <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>664.65</v>
+        <v>330.29</v>
       </c>
       <c r="AP3" t="n">
-        <v>2</v>
+        <v>446.77</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
         <v>11</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AT3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>246</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45364.64583333334</v>
+        <v>45363.21875</v>
       </c>
       <c r="C4" t="n">
-        <v>2164.52</v>
+        <v>72168.289</v>
       </c>
       <c r="D4" t="n">
-        <v>2171.53</v>
+        <v>72169.734</v>
       </c>
       <c r="E4" t="n">
-        <v>2163.27</v>
+        <v>71543.734</v>
       </c>
       <c r="F4" t="n">
-        <v>2168.06</v>
+        <v>71719.039</v>
       </c>
       <c r="G4" t="n">
-        <v>4998</v>
+        <v>3022</v>
       </c>
       <c r="H4" t="n">
-        <v>29</v>
+        <v>36421</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>45364.625</v>
+        <v>45363.20833333334</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45364.625</v>
+        <v>45363.20833333334</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002471780468228781</v>
+        <v>-0.0009956867412534902</v>
       </c>
       <c r="M4" t="n">
-        <v>3.322284383413823e-05</v>
+        <v>-0.001046761553410866</v>
       </c>
       <c r="N4" t="n">
-        <v>2163.768936853874</v>
+        <v>72081.8327738095</v>
       </c>
       <c r="O4" t="n">
-        <v>2162.250025913626</v>
+        <v>72213.37272353107</v>
       </c>
       <c r="P4" t="n">
-        <v>2165.427358101135</v>
+        <v>72267.88806481153</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7336371517021689</v>
+        <v>72198.45520467831</v>
       </c>
       <c r="R4" t="n">
-        <v>0.541019120503663</v>
+        <v>-4.584894272411475</v>
       </c>
       <c r="S4" t="n">
-        <v>2.593270329141281</v>
+        <v>20.27808622315407</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8477468180249161</v>
+        <v>212.5292948147404</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1965909872724296</v>
+        <v>-91.38326384594257</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.0141520467823284</v>
+        <v>-1.72383488129708</v>
       </c>
       <c r="W4" t="n">
-        <v>2170.428273045476</v>
+        <v>15.63160956310458</v>
       </c>
       <c r="X4" t="n">
-        <v>2161.926443156794</v>
-      </c>
-      <c r="Y4" t="b">
-        <v>1</v>
+        <v>72485.36975267821</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>71910.04065667841</v>
       </c>
       <c r="Z4" t="b">
         <v>0</v>
       </c>
-      <c r="AA4" t="n">
-        <v>2177.06</v>
+      <c r="AA4" t="b">
+        <v>1</v>
       </c>
       <c r="AB4" t="n">
-        <v>2169.06</v>
+        <v>71710.039</v>
       </c>
       <c r="AC4" t="n">
-        <v>2169.06</v>
+        <v>71724.039</v>
       </c>
       <c r="AD4" t="n">
-        <v>2169.26</v>
-      </c>
-      <c r="AE4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>45364.71875</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>45364.71875</v>
-      </c>
+        <v>71718.039</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>71717.83900000001</v>
+      </c>
+      <c r="AF4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="inlineStr"/>
       <c r="AH4" s="2" t="n">
-        <v>45364.79900462963</v>
+        <v>45363.25</v>
       </c>
       <c r="AI4" s="2" t="n">
-        <v>45365.32802083333</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>100</v>
+        <v>45363.22922453703</v>
+      </c>
+      <c r="AJ4" s="2" t="n">
+        <v>45363.22918981482</v>
       </c>
       <c r="AK4" t="n">
-        <v>328.55</v>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="AM4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>328.18</v>
+        <v>48.78888888892511</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>161.09</v>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN4" t="b">
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>992.8299999999999</v>
+        <v>-183.52</v>
       </c>
       <c r="AP4" t="n">
-        <v>3</v>
+        <v>263.25</v>
       </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
       <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
         <v>11</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AT4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45364.76041666666</v>
+        <v>45363.33333333334</v>
       </c>
       <c r="C5" t="n">
-        <v>2170.81</v>
+        <v>72024.836</v>
       </c>
       <c r="D5" t="n">
-        <v>2173.55</v>
+        <v>72024.836</v>
       </c>
       <c r="E5" t="n">
-        <v>2170.72</v>
+        <v>71768.984</v>
       </c>
       <c r="F5" t="n">
-        <v>2173.33</v>
+        <v>71815.336</v>
       </c>
       <c r="G5" t="n">
-        <v>3193</v>
+        <v>2069</v>
       </c>
       <c r="H5" t="n">
-        <v>29</v>
+        <v>36421</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>45364.75</v>
+        <v>45363.33333333334</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45364.75</v>
+        <v>45363.33333333334</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002471747957207731</v>
+        <v>-0.0003323450872422694</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0001675247913997769</v>
+        <v>-0.0005504279356408189</v>
       </c>
       <c r="N5" t="n">
-        <v>2169.754487055628</v>
+        <v>72054.78864285714</v>
       </c>
       <c r="O5" t="n">
-        <v>2166.843825160974</v>
+        <v>71958.99668944898</v>
       </c>
       <c r="P5" t="n">
-        <v>2172.34528379773</v>
+        <v>72057.70998965364</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.503484032580673</v>
+        <v>71802.71415307881</v>
       </c>
       <c r="R5" t="n">
-        <v>1.223573912065724</v>
+        <v>-48.08493830374209</v>
       </c>
       <c r="S5" t="n">
-        <v>3.867314615252584</v>
+        <v>-39.77191511150898</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8695184038538173</v>
+        <v>246.8176195328912</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4486033711746131</v>
+        <v>-7.778708290381473</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6958445132422639</v>
+        <v>12.95090987277217</v>
       </c>
       <c r="W5" t="n">
-        <v>2179.066158528321</v>
+        <v>-3.914806673521525</v>
       </c>
       <c r="X5" t="n">
-        <v>2167.124409067139</v>
-      </c>
-      <c r="Y5" t="b">
-        <v>1</v>
+        <v>72135.91793944821</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>71468.01036670941</v>
       </c>
       <c r="Z5" t="b">
         <v>0</v>
       </c>
-      <c r="AA5" t="n">
-        <v>2182.33</v>
+      <c r="AA5" t="b">
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
-        <v>2174.33</v>
+        <v>71806.336</v>
       </c>
       <c r="AC5" t="n">
-        <v>2174.33</v>
+        <v>71820.336</v>
       </c>
       <c r="AD5" t="n">
-        <v>2174.53</v>
-      </c>
-      <c r="AE5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>45364.80208333334</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>45364.80208333334</v>
-      </c>
+        <v>71814.336</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>71814.136</v>
+      </c>
+      <c r="AF5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="inlineStr"/>
       <c r="AH5" s="2" t="n">
-        <v>45371.87380787037</v>
+        <v>45363.35416666666</v>
       </c>
       <c r="AI5" s="2" t="n">
-        <v>45364.82688657408</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>71.55555555555615</v>
+        <v>45363.34376157408</v>
+      </c>
+      <c r="AJ5" s="2" t="n">
+        <v>45363.34394675926</v>
       </c>
       <c r="AK5" t="n">
-        <v>234.84</v>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="AM5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>36.47</v>
+        <v>100</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>520.34</v>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN5" t="b">
+        <v>1</v>
       </c>
       <c r="AO5" t="n">
-        <v>1029.3</v>
+        <v>330.26</v>
       </c>
       <c r="AP5" t="n">
-        <v>4</v>
+        <v>593.51</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
         <v>11</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AT5" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>259</v>
+        <v>153</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45364.78125</v>
+        <v>45363.60416666666</v>
       </c>
       <c r="C6" t="n">
-        <v>2172.16</v>
+        <v>71681.336</v>
       </c>
       <c r="D6" t="n">
-        <v>2174.61</v>
+        <v>72378.93799999999</v>
       </c>
       <c r="E6" t="n">
-        <v>2172.04</v>
+        <v>71482.336</v>
       </c>
       <c r="F6" t="n">
-        <v>2173.54</v>
+        <v>72123.43799999999</v>
       </c>
       <c r="G6" t="n">
-        <v>2273</v>
+        <v>5121</v>
       </c>
       <c r="H6" t="n">
-        <v>29</v>
+        <v>36421</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>45364.75</v>
+        <v>45363.58333333334</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45364.75</v>
+        <v>45363.58333333334</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002471747957207731</v>
+        <v>0.0001904983781244064</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0001675247913997769</v>
+        <v>0.0001342941495081307</v>
       </c>
       <c r="N6" t="n">
-        <v>2170.648715584207</v>
+        <v>72057.38954761905</v>
       </c>
       <c r="O6" t="n">
-        <v>2167.703773286158</v>
+        <v>71988.21046888063</v>
       </c>
       <c r="P6" t="n">
-        <v>2173.539686962504</v>
+        <v>71987.08466740311</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.572456530301679</v>
+        <v>72057.91710973515</v>
       </c>
       <c r="R6" t="n">
-        <v>1.341513824901308</v>
+        <v>-7.28512137439975</v>
       </c>
       <c r="S6" t="n">
-        <v>4.004764870336343</v>
+        <v>-13.05311192225894</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6363261093929395</v>
+        <v>199.0207641672694</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5580770553815455</v>
+        <v>15.99217612667417</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8695184038538173</v>
+        <v>-31.50445098044293</v>
       </c>
       <c r="W6" t="n">
-        <v>2180.446119537458</v>
+        <v>22.09068352253234</v>
       </c>
       <c r="X6" t="n">
-        <v>2168.13325438755</v>
-      </c>
-      <c r="Y6" t="b">
-        <v>1</v>
+        <v>72328.09514136096</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>71789.23907810934</v>
       </c>
       <c r="Z6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>2182.54</v>
+        <v>1</v>
+      </c>
+      <c r="AA6" t="b">
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>2174.54</v>
+        <v>72132.43799999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>2174.54</v>
+        <v>72118.43799999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>2174.74</v>
-      </c>
-      <c r="AE6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="2" t="n">
-        <v>45364.80208333334</v>
-      </c>
-      <c r="AG6" s="2" t="n">
-        <v>45364.80208333334</v>
-      </c>
+        <v>72124.43799999999</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>72124.63799999999</v>
+      </c>
+      <c r="AF6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" s="2" t="n">
-        <v>45371.87385416667</v>
+        <v>45363.625</v>
       </c>
       <c r="AI6" s="2" t="n">
-        <v>45364.82685185185</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>69.22222222222243</v>
+        <v>45363.61458333334</v>
+      </c>
+      <c r="AJ6" s="2" t="n">
+        <v>45363.61659722222</v>
       </c>
       <c r="AK6" t="n">
-        <v>227.17</v>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="AM6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>36.46</v>
+        <v>100</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>744.78</v>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN6" t="b">
+        <v>1</v>
       </c>
       <c r="AO6" t="n">
-        <v>1065.76</v>
+        <v>330.28</v>
       </c>
       <c r="AP6" t="n">
-        <v>5</v>
+        <v>923.79</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
         <v>11</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AT6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>262</v>
+        <v>158</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45364.8125</v>
+        <v>45363.65625</v>
       </c>
       <c r="C7" t="n">
-        <v>2175.33</v>
+        <v>71866.039</v>
       </c>
       <c r="D7" t="n">
-        <v>2177.39</v>
+        <v>72367.234</v>
       </c>
       <c r="E7" t="n">
-        <v>2174.67</v>
+        <v>71731.836</v>
       </c>
       <c r="F7" t="n">
-        <v>2177</v>
+        <v>72358.336</v>
       </c>
       <c r="G7" t="n">
-        <v>2085</v>
+        <v>3112</v>
       </c>
       <c r="H7" t="n">
-        <v>29</v>
+        <v>36421</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>45364.79166666666</v>
+        <v>45363.625</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45364.79166666666</v>
+        <v>45363.625</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002463136437525773</v>
+        <v>0.0001856350611055643</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0002813429843820501</v>
+        <v>0.0001294410092591903</v>
       </c>
       <c r="N7" t="n">
-        <v>2173.037068931534</v>
+        <v>72152.36954761905</v>
       </c>
       <c r="O7" t="n">
-        <v>2169.564825361795</v>
+        <v>72118.71751577243</v>
       </c>
       <c r="P7" t="n">
-        <v>2176.023601651186</v>
+        <v>72062.10053273468</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.850226106972514</v>
+        <v>72182.10758651534</v>
       </c>
       <c r="R7" t="n">
-        <v>1.562102024578465</v>
+        <v>18.73355540055491</v>
       </c>
       <c r="S7" t="n">
-        <v>4.740523002090532</v>
+        <v>4.45295263838295</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6274165806667042</v>
+        <v>214.7489708760398</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5669246646043575</v>
+        <v>58.88381596151157</v>
       </c>
       <c r="V7" t="n">
-        <v>1.289573443410973</v>
+        <v>-42.90187306502776</v>
       </c>
       <c r="W7" t="n">
-        <v>2183.923307704008</v>
+        <v>36.3284186446399</v>
       </c>
       <c r="X7" t="n">
-        <v>2169.623895598364</v>
-      </c>
-      <c r="Y7" t="b">
-        <v>1</v>
+        <v>72473.518697198</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>71892.19647583268</v>
       </c>
       <c r="Z7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>2186</v>
+        <v>1</v>
+      </c>
+      <c r="AA7" t="b">
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>2172</v>
+        <v>72367.336</v>
       </c>
       <c r="AC7" t="n">
-        <v>2178</v>
+        <v>72353.336</v>
       </c>
       <c r="AD7" t="n">
-        <v>2178.2</v>
-      </c>
-      <c r="AE7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" s="2" t="n">
-        <v>45371.875</v>
-      </c>
+        <v>72359.336</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>72359.53599999999</v>
+      </c>
+      <c r="AF7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="inlineStr"/>
       <c r="AH7" s="2" t="n">
-        <v>45371.8918287037</v>
+        <v>45364.34375</v>
       </c>
       <c r="AI7" s="2" t="n">
-        <v>45364.91260416667</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
+        <v>45363.66866898148</v>
+      </c>
+      <c r="AJ7" s="2" t="n">
+        <v>45363.66670138889</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.36</v>
-      </c>
-      <c r="AL7" t="inlineStr">
+        <v>73.35555555554392</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>242.21</v>
+      </c>
+      <c r="AM7" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AM7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>-182.39</v>
+      <c r="AN7" t="b">
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>883.37</v>
+        <v>-183.53</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>740.26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
         <v>11</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AT7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>335</v>
+        <v>160</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45365.61458333334</v>
+        <v>45363.67708333334</v>
       </c>
       <c r="C8" t="n">
-        <v>2169.22</v>
+        <v>71800.141</v>
       </c>
       <c r="D8" t="n">
-        <v>2169.52</v>
+        <v>72229.586</v>
       </c>
       <c r="E8" t="n">
-        <v>2160.36</v>
+        <v>71640.586</v>
       </c>
       <c r="F8" t="n">
-        <v>2162.7</v>
+        <v>72117.734</v>
       </c>
       <c r="G8" t="n">
-        <v>4394</v>
+        <v>4050</v>
       </c>
       <c r="H8" t="n">
-        <v>29</v>
+        <v>36421</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>45365.58333333334</v>
+        <v>45363.66666666666</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45365.58333333334</v>
+        <v>45363.66666666666</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.974197733513931e-05</v>
+        <v>0.0001904070237670632</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0001929132695571636</v>
+        <v>0.001840819741124498</v>
       </c>
       <c r="N8" t="n">
-        <v>2167.905561761347</v>
+        <v>72052.83878571428</v>
       </c>
       <c r="O8" t="n">
-        <v>2168.892945924</v>
+        <v>72077.09470655897</v>
       </c>
       <c r="P8" t="n">
-        <v>2167.467248022014</v>
+        <v>72048.25448416898</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.5097556045534475</v>
+        <v>72145.75972445818</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.3777660362856475</v>
+        <v>10.86394425175968</v>
       </c>
       <c r="S8" t="n">
-        <v>1.610575776965505</v>
+        <v>6.555509261086043</v>
       </c>
       <c r="T8" t="n">
-        <v>-1.205469556246499</v>
+        <v>207.7001141062397</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.08322325421204368</v>
+        <v>10.34763914688665</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.4467217062283453</v>
+        <v>-46.69550120404165</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.641525320917</v>
+        <v>58.88381596151157</v>
       </c>
       <c r="X8" t="n">
-        <v>2163.792970723111</v>
-      </c>
-      <c r="Y8" t="b">
-        <v>0</v>
+        <v>72427.65487850161</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>71865.36457041476</v>
       </c>
       <c r="Z8" t="b">
         <v>1</v>
       </c>
-      <c r="AA8" t="n">
-        <v>2153.7</v>
+      <c r="AA8" t="b">
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>2161.7</v>
+        <v>72126.734</v>
       </c>
       <c r="AC8" t="n">
-        <v>2161.7</v>
+        <v>72112.734</v>
       </c>
       <c r="AD8" t="n">
-        <v>2161.5</v>
-      </c>
-      <c r="AE8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="2" t="n">
-        <v>45365.67708333334</v>
-      </c>
-      <c r="AG8" s="2" t="n">
-        <v>45365.67708333334</v>
-      </c>
+        <v>72118.734</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>72118.93399999999</v>
+      </c>
+      <c r="AF8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" s="2" t="n">
-        <v>45365.73700231482</v>
+        <v>45364.26041666666</v>
       </c>
       <c r="AI8" s="2" t="n">
-        <v>45365.68571759259</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>56.77777777777414</v>
+        <v>45363.6875</v>
+      </c>
+      <c r="AJ8" s="2" t="n">
+        <v>45363.68847222222</v>
       </c>
       <c r="AK8" t="n">
-        <v>186.33</v>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="AM8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>36.46</v>
+        <v>100</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>605.52</v>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN8" t="b">
+        <v>1</v>
       </c>
       <c r="AO8" t="n">
-        <v>919.83</v>
+        <v>330.29</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>1070.55</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
         <v>11</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AT8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>344</v>
+        <v>204</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45365.70833333334</v>
+        <v>45364.13541666666</v>
       </c>
       <c r="C9" t="n">
-        <v>2161.85</v>
+        <v>71432.04700000001</v>
       </c>
       <c r="D9" t="n">
-        <v>2162.16</v>
+        <v>71886.04700000001</v>
       </c>
       <c r="E9" t="n">
-        <v>2159.17</v>
+        <v>71420.664</v>
       </c>
       <c r="F9" t="n">
-        <v>2159.78</v>
+        <v>71851.336</v>
       </c>
       <c r="G9" t="n">
-        <v>3085</v>
+        <v>1856</v>
       </c>
       <c r="H9" t="n">
-        <v>29</v>
+        <v>36421</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>45365.70833333334</v>
+        <v>45364.125</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45365.70833333334</v>
+        <v>45364.125</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0003119351935739831</v>
+        <v>0.001266905232833095</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0002748608759413711</v>
+        <v>0.001084119857920774</v>
       </c>
       <c r="N9" t="n">
-        <v>2163.000740747214</v>
+        <v>71555.67996428566</v>
       </c>
       <c r="O9" t="n">
-        <v>2165.350477055933</v>
+        <v>71448.77249308066</v>
       </c>
       <c r="P9" t="n">
-        <v>2160.296904024768</v>
+        <v>71341.14299950883</v>
       </c>
       <c r="Q9" t="n">
-        <v>-1.198613601622583</v>
+        <v>71639.83321947024</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.952152285447582</v>
+        <v>28.08439291363175</v>
       </c>
       <c r="S9" t="n">
-        <v>3.78338856053771</v>
+        <v>-4.258306335590455</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.6648538011704659</v>
+        <v>260.1498159142506</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.4602614379086845</v>
+        <v>99.00486412110331</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.5903474372189521</v>
+        <v>29.77684382525331</v>
       </c>
       <c r="W9" t="n">
-        <v>2165.404478581494</v>
+        <v>27.4771093911113</v>
       </c>
       <c r="X9" t="n">
-        <v>2153.689329468042</v>
-      </c>
-      <c r="Y9" t="b">
-        <v>0</v>
+        <v>71992.53547095448</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>71288.630967986</v>
       </c>
       <c r="Z9" t="b">
         <v>1</v>
       </c>
-      <c r="AA9" t="n">
-        <v>2150.78</v>
+      <c r="AA9" t="b">
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>2158.78</v>
+        <v>71860.336</v>
       </c>
       <c r="AC9" t="n">
-        <v>2158.78</v>
+        <v>71846.336</v>
       </c>
       <c r="AD9" t="n">
-        <v>2158.58</v>
-      </c>
-      <c r="AE9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="2" t="n">
-        <v>45365.72916666666</v>
-      </c>
-      <c r="AG9" s="2" t="n">
-        <v>45365.72916666666</v>
-      </c>
+        <v>71852.336</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>71852.53599999999</v>
+      </c>
+      <c r="AF9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" s="2" t="n">
-        <v>45369.14032407408</v>
+        <v>45364.15625</v>
       </c>
       <c r="AI9" s="2" t="n">
-        <v>45365.7618287037</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>79.55555555555898</v>
+        <v>45364.14584490741</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>45364.14583333334</v>
       </c>
       <c r="AK9" t="n">
-        <v>261.08</v>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="AM9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>36.46</v>
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN9" t="b">
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>956.2900000000001</v>
+        <v>-183.53</v>
       </c>
       <c r="AP9" t="n">
-        <v>2</v>
+        <v>887.02</v>
       </c>
       <c r="AQ9" t="n">
         <v>0</v>
       </c>
       <c r="AR9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="n">
         <v>11</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AT9" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>592</v>
+        <v>217</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45370.41666666666</v>
+        <v>45364.27083333334</v>
       </c>
       <c r="C10" t="n">
-        <v>2155.73</v>
+        <v>72122.836</v>
       </c>
       <c r="D10" t="n">
-        <v>2155.87</v>
+        <v>72279.836</v>
       </c>
       <c r="E10" t="n">
-        <v>2151.8</v>
+        <v>72103.141</v>
       </c>
       <c r="F10" t="n">
-        <v>2152.28</v>
+        <v>72247.141</v>
       </c>
       <c r="G10" t="n">
-        <v>2487</v>
+        <v>2055</v>
       </c>
       <c r="H10" t="n">
-        <v>29</v>
+        <v>36421</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>45370.41666666666</v>
+        <v>45364.25</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45370.41666666666</v>
+        <v>45364.25</v>
       </c>
       <c r="L10" t="n">
-        <v>-6.113842851847405e-05</v>
+        <v>0.002997960748360456</v>
       </c>
       <c r="M10" t="n">
-        <v>-3.026350647158673e-05</v>
+        <v>0.002750283976511077</v>
       </c>
       <c r="N10" t="n">
-        <v>2155.965457782924</v>
+        <v>72181.46692857142</v>
       </c>
       <c r="O10" t="n">
-        <v>2157.610771979144</v>
+        <v>72031.99936061235</v>
       </c>
       <c r="P10" t="n">
-        <v>2153.98000343997</v>
+        <v>71809.54357970849</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.7415751922153504</v>
+        <v>72244.73187719299</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.497969320316588</v>
+        <v>114.840991455334</v>
       </c>
       <c r="S10" t="n">
-        <v>2.876646079498794</v>
+        <v>96.99270079475426</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.7765634674938156</v>
+        <v>342.3274490384599</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.1731510147919835</v>
+        <v>33.91497282424825</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.3665290677695339</v>
+        <v>20.66800378395419</v>
       </c>
       <c r="W10" t="n">
-        <v>2157.863475647293</v>
+        <v>31.69791262470244</v>
       </c>
       <c r="X10" t="n">
-        <v>2148.596531232647</v>
-      </c>
-      <c r="Y10" t="b">
-        <v>0</v>
+        <v>72708.37393339491</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>71782.58982099107</v>
       </c>
       <c r="Z10" t="b">
         <v>1</v>
       </c>
-      <c r="AA10" t="n">
-        <v>2143.28</v>
+      <c r="AA10" t="b">
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>2151.28</v>
+        <v>72256.141</v>
       </c>
       <c r="AC10" t="n">
-        <v>2151.28</v>
+        <v>72242.141</v>
       </c>
       <c r="AD10" t="n">
-        <v>2151.08</v>
-      </c>
-      <c r="AE10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="2" t="n">
-        <v>45370.4375</v>
-      </c>
-      <c r="AG10" s="2" t="n">
-        <v>45370.4375</v>
-      </c>
-      <c r="AH10" t="inlineStr"/>
+        <v>72248.141</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>72248.341</v>
+      </c>
+      <c r="AF10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" s="2" t="n">
+        <v>45364.29166666666</v>
+      </c>
       <c r="AI10" s="2" t="n">
-        <v>45370.44982638889</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>45.55555555555959</v>
+        <v>45364.2812962963</v>
+      </c>
+      <c r="AJ10" s="2" t="n">
+        <v>45364.28130787037</v>
       </c>
       <c r="AK10" t="n">
-        <v>149.5</v>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="AM10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>36.46</v>
+        <v>100</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>366.98</v>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN10" t="b">
+        <v>1</v>
       </c>
       <c r="AO10" t="n">
-        <v>992.7500000000001</v>
+        <v>330.28</v>
       </c>
       <c r="AP10" t="n">
-        <v>3</v>
+        <v>1217.3</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AS10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT10" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>736</v>
+        <v>224</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45372</v>
+        <v>45364.34375</v>
       </c>
       <c r="C11" t="n">
-        <v>2186.81</v>
+        <v>72357.141</v>
       </c>
       <c r="D11" t="n">
-        <v>2193.42</v>
+        <v>72574.234</v>
       </c>
       <c r="E11" t="n">
-        <v>2186.55</v>
+        <v>72309.461</v>
       </c>
       <c r="F11" t="n">
-        <v>2193.13</v>
+        <v>72465.234</v>
       </c>
       <c r="G11" t="n">
-        <v>923</v>
+        <v>2606</v>
       </c>
       <c r="H11" t="n">
-        <v>30</v>
+        <v>36421</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>45372</v>
+        <v>45364.33333333334</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45372</v>
+        <v>45364.33333333334</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003993487484196294</v>
+        <v>0.002181215965817795</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001255024448906484</v>
+        <v>0.001773667657217111</v>
       </c>
       <c r="N11" t="n">
-        <v>2181.852489332127</v>
+        <v>72451.29569047618</v>
       </c>
       <c r="O11" t="n">
-        <v>2173.559601856504</v>
+        <v>72208.13480739715</v>
       </c>
       <c r="P11" t="n">
-        <v>2191.710357757139</v>
+        <v>72002.00150429457</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.120534321861669</v>
+        <v>72314.61225868594</v>
       </c>
       <c r="R11" t="n">
-        <v>3.21284006344347</v>
+        <v>119.1977843953209</v>
       </c>
       <c r="S11" t="n">
-        <v>13.56565144031737</v>
+        <v>111.7748540776546</v>
       </c>
       <c r="T11" t="n">
-        <v>2.342383900929235</v>
+        <v>278.5832701961174</v>
       </c>
       <c r="U11" t="n">
-        <v>1.509958720329905</v>
+        <v>58.09500997593568</v>
       </c>
       <c r="V11" t="n">
-        <v>1.830584795320647</v>
+        <v>31.39330306152988</v>
       </c>
       <c r="W11" t="n">
-        <v>2211.523987201567</v>
+        <v>3.860451324435417</v>
       </c>
       <c r="X11" t="n">
-        <v>2173.39672831271</v>
-      </c>
-      <c r="Y11" t="b">
-        <v>1</v>
+        <v>72692.1996734507</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>71938.52484392119</v>
       </c>
       <c r="Z11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>2202.13</v>
+        <v>1</v>
+      </c>
+      <c r="AA11" t="b">
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>2188.13</v>
+        <v>72474.234</v>
       </c>
       <c r="AC11" t="n">
-        <v>2194.13</v>
+        <v>72460.234</v>
       </c>
       <c r="AD11" t="n">
-        <v>2194.33</v>
-      </c>
-      <c r="AE11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" s="2" t="n">
-        <v>45372.02083333334</v>
-      </c>
+        <v>72466.234</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>72466.43399999999</v>
+      </c>
+      <c r="AF11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" s="2" t="n">
-        <v>45372.01126157407</v>
+        <v>45364.36458333334</v>
       </c>
       <c r="AI11" s="2" t="n">
-        <v>45372.66804398148</v>
-      </c>
-      <c r="AJ11" t="n">
+        <v>45364.354375</v>
+      </c>
+      <c r="AJ11" s="2" t="n">
+        <v>45364.65140046296</v>
+      </c>
+      <c r="AK11" t="n">
         <v>100</v>
       </c>
-      <c r="AK11" t="n">
-        <v>441.56</v>
-      </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AL11" t="n">
+        <v>480.75</v>
+      </c>
+      <c r="AM11" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AM11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>328.16</v>
+      <c r="AN11" t="b">
+        <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>1320.91</v>
+        <v>330.28</v>
       </c>
       <c r="AP11" t="n">
-        <v>4</v>
+        <v>1547.58</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT11" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>739</v>
+        <v>252</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45372.03125</v>
+        <v>45364.63541666666</v>
       </c>
       <c r="C12" t="n">
-        <v>2196.2</v>
+        <v>72982.109</v>
       </c>
       <c r="D12" t="n">
-        <v>2204.9</v>
+        <v>73070.141</v>
       </c>
       <c r="E12" t="n">
-        <v>2193.49</v>
+        <v>72708.43799999999</v>
       </c>
       <c r="F12" t="n">
-        <v>2200.77</v>
+        <v>72771.93799999999</v>
       </c>
       <c r="G12" t="n">
-        <v>1512</v>
+        <v>2430</v>
       </c>
       <c r="H12" t="n">
-        <v>27</v>
+        <v>36421</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>45372</v>
+        <v>45364.625</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45372</v>
+        <v>45364.625</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003993487484196294</v>
+        <v>-0.001012143948360673</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001255024448906484</v>
+        <v>-0.0007253817795071529</v>
       </c>
       <c r="N12" t="n">
-        <v>2189.524070687784</v>
+        <v>72852.17151190479</v>
       </c>
       <c r="O12" t="n">
-        <v>2179.322508713503</v>
+        <v>73055.3879629289</v>
       </c>
       <c r="P12" t="n">
-        <v>2199.791300309599</v>
+        <v>73021.90219866637</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.145046950098276</v>
+        <v>72911.42328104573</v>
       </c>
       <c r="R12" t="n">
-        <v>4.067296293819017</v>
+        <v>79.41989637006191</v>
       </c>
       <c r="S12" t="n">
-        <v>16.15003810109834</v>
+        <v>129.7407640828439</v>
       </c>
       <c r="T12" t="n">
-        <v>1.873636050913319</v>
+        <v>266.4895421674209</v>
       </c>
       <c r="U12" t="n">
-        <v>1.615428276572857</v>
+        <v>-74.4659938080149</v>
       </c>
       <c r="V12" t="n">
-        <v>4.591878224973698</v>
+        <v>-29.59737805307668</v>
       </c>
       <c r="W12" t="n">
-        <v>2223.093851746081</v>
+        <v>-72.81506811143481</v>
       </c>
       <c r="X12" t="n">
-        <v>2177.988748873116</v>
-      </c>
-      <c r="Y12" t="b">
-        <v>1</v>
+        <v>73271.18416297175</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>72550.16239911971</v>
       </c>
       <c r="Z12" t="b">
         <v>0</v>
       </c>
-      <c r="AA12" t="n">
-        <v>2209.77</v>
+      <c r="AA12" t="b">
+        <v>1</v>
       </c>
       <c r="AB12" t="n">
-        <v>2201.77</v>
+        <v>72762.93799999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>2201.77</v>
+        <v>72776.93799999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>2201.97</v>
-      </c>
-      <c r="AE12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="2" t="n">
-        <v>45372.05208333334</v>
-      </c>
-      <c r="AG12" s="2" t="n">
-        <v>45372.05208333334</v>
-      </c>
+        <v>72770.93799999999</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>72770.738</v>
+      </c>
+      <c r="AF12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="inlineStr"/>
       <c r="AH12" s="2" t="n">
-        <v>45372.13314814815</v>
+        <v>45364.65625</v>
       </c>
       <c r="AI12" s="2" t="n">
-        <v>45372.05246527777</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>36.44444444444667</v>
+        <v>45364.64584490741</v>
+      </c>
+      <c r="AJ12" s="2" t="n">
+        <v>45364.64583333334</v>
       </c>
       <c r="AK12" t="n">
-        <v>119.6</v>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="AM12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>36.46</v>
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN12" t="b">
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>1357.37</v>
+        <v>-183.54</v>
       </c>
       <c r="AP12" t="n">
-        <v>5</v>
+        <v>1364.04</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AS12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT12" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>748</v>
+        <v>256</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45372.125</v>
+        <v>45364.67708333334</v>
       </c>
       <c r="C13" t="n">
-        <v>2198.8</v>
+        <v>72702.42200000001</v>
       </c>
       <c r="D13" t="n">
-        <v>2212.43</v>
+        <v>72866.29700000001</v>
       </c>
       <c r="E13" t="n">
-        <v>2197.85</v>
+        <v>72500.836</v>
       </c>
       <c r="F13" t="n">
-        <v>2208.88</v>
+        <v>72599.141</v>
       </c>
       <c r="G13" t="n">
-        <v>4248</v>
+        <v>3560</v>
       </c>
       <c r="H13" t="n">
-        <v>27</v>
+        <v>36421</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>45372.125</v>
+        <v>45364.66666666666</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45372.125</v>
+        <v>45364.66666666666</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0006526787140245389</v>
+        <v>-0.002380507489069379</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001434845468688435</v>
+        <v>-0.0009711365685100915</v>
       </c>
       <c r="N13" t="n">
-        <v>2199.03057307793</v>
+        <v>72612.31867857148</v>
       </c>
       <c r="O13" t="n">
-        <v>2190.566032902799</v>
+        <v>72807.29956245376</v>
       </c>
       <c r="P13" t="n">
-        <v>2205.473873409013</v>
+        <v>72894.31441168455</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.214075033454264</v>
+        <v>72585.23478500174</v>
       </c>
       <c r="R13" t="n">
-        <v>5.207173757448191</v>
+        <v>13.97868380395812</v>
       </c>
       <c r="S13" t="n">
-        <v>11.97688850803122</v>
+        <v>70.49923460048302</v>
       </c>
       <c r="T13" t="n">
-        <v>1.391406948745043</v>
+        <v>379.7973900047442</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1922566219482178</v>
+        <v>-58.96370209836459</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.141530787755528</v>
+        <v>-41.22290264886396</v>
       </c>
       <c r="W13" t="n">
-        <v>2223.142672894855</v>
+        <v>-147.6609322324221</v>
       </c>
       <c r="X13" t="n">
-        <v>2189.305073923171</v>
-      </c>
-      <c r="Y13" t="b">
-        <v>1</v>
+        <v>73097.96126150814</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>72071.00830849534</v>
       </c>
       <c r="Z13" t="b">
         <v>0</v>
       </c>
-      <c r="AA13" t="n">
-        <v>2217.88</v>
+      <c r="AA13" t="b">
+        <v>1</v>
       </c>
       <c r="AB13" t="n">
-        <v>2203.88</v>
+        <v>72590.141</v>
       </c>
       <c r="AC13" t="n">
-        <v>2209.88</v>
+        <v>72604.141</v>
       </c>
       <c r="AD13" t="n">
-        <v>2210.08</v>
-      </c>
-      <c r="AE13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" s="2" t="n">
-        <v>45372.52083333334</v>
-      </c>
+        <v>72598.141</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>72597.94100000001</v>
+      </c>
+      <c r="AF13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="inlineStr"/>
       <c r="AH13" s="2" t="n">
-        <v>45379.76840277778</v>
+        <v>45364.70833333334</v>
       </c>
       <c r="AI13" s="2" t="n">
-        <v>45372.13991898148</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>8.222222222219797</v>
+        <v>45364.68751157408</v>
+      </c>
+      <c r="AJ13" s="2" t="n">
+        <v>45364.68753472222</v>
       </c>
       <c r="AK13" t="n">
-        <v>26.98</v>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>fail</t>
-        </is>
-      </c>
-      <c r="AM13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>-182.39</v>
+        <v>100</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>409.18</v>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN13" t="b">
+        <v>1</v>
       </c>
       <c r="AO13" t="n">
-        <v>1174.98</v>
+        <v>330.28</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>1694.32</v>
       </c>
       <c r="AQ13" t="n">
         <v>1</v>
       </c>
       <c r="AR13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT13" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>982</v>
+        <v>263</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45376.64583333334</v>
+        <v>45364.75</v>
       </c>
       <c r="C14" t="n">
-        <v>2173.06</v>
+        <v>72648.742</v>
       </c>
       <c r="D14" t="n">
-        <v>2181.23</v>
+        <v>72700.336</v>
       </c>
       <c r="E14" t="n">
-        <v>2172.91</v>
+        <v>72392.031</v>
       </c>
       <c r="F14" t="n">
-        <v>2178.39</v>
+        <v>72432.914</v>
       </c>
       <c r="G14" t="n">
-        <v>3711</v>
+        <v>2273</v>
       </c>
       <c r="H14" t="n">
-        <v>27</v>
+        <v>36421</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>45376.625</v>
+        <v>45364.75</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45376.625</v>
+        <v>45364.75</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002231942214836708</v>
+        <v>-0.003321340798074197</v>
       </c>
       <c r="M14" t="n">
-        <v>2.369193503099137e-05</v>
+        <v>-0.001330585516743231</v>
       </c>
       <c r="N14" t="n">
-        <v>2173.508104979225</v>
+        <v>72618.51995238093</v>
       </c>
       <c r="O14" t="n">
-        <v>2171.422739554821</v>
+        <v>72668.42490676505</v>
       </c>
       <c r="P14" t="n">
-        <v>2175.901479188166</v>
+        <v>72775.30433003716</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9106027977995836</v>
+        <v>72493.56071757824</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5608629815703279</v>
+        <v>-26.21961108696996</v>
       </c>
       <c r="S14" t="n">
-        <v>3.929721236958203</v>
+        <v>2.234614241496663</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8520880632931949</v>
+        <v>357.0404569929481</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06908840729465737</v>
+        <v>-19.1058317853167</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4605607155131111</v>
+        <v>12.03546302022005</v>
       </c>
       <c r="W14" t="n">
-        <v>2182.706602858059</v>
+        <v>43.54602889576927</v>
       </c>
       <c r="X14" t="n">
-        <v>2170.596355518273</v>
-      </c>
-      <c r="Y14" t="b">
-        <v>1</v>
+        <v>72975.56533451872</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>72010.05610063775</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
       </c>
-      <c r="AA14" t="n">
-        <v>2187.39</v>
+      <c r="AA14" t="b">
+        <v>1</v>
       </c>
       <c r="AB14" t="n">
-        <v>2179.39</v>
+        <v>72423.914</v>
       </c>
       <c r="AC14" t="n">
-        <v>2179.39</v>
+        <v>72437.914</v>
       </c>
       <c r="AD14" t="n">
-        <v>2179.59</v>
-      </c>
-      <c r="AE14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="2" t="n">
-        <v>45376.67708333334</v>
-      </c>
-      <c r="AG14" s="2" t="n">
-        <v>45376.67708333334</v>
-      </c>
+        <v>72431.914</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>72431.71400000001</v>
+      </c>
+      <c r="AF14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="inlineStr"/>
       <c r="AH14" s="2" t="n">
-        <v>45377.48655092593</v>
+        <v>45365.65625</v>
       </c>
       <c r="AI14" s="2" t="n">
-        <v>45376.67715277777</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>16.66666666666666</v>
+        <v>45364.76042824074</v>
+      </c>
+      <c r="AJ14" s="2" t="n">
+        <v>45364.76050925926</v>
       </c>
       <c r="AK14" t="n">
-        <v>54.69</v>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="AM14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>36.46</v>
+        <v>100</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>589.75</v>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN14" t="b">
+        <v>1</v>
       </c>
       <c r="AO14" t="n">
-        <v>1211.44</v>
+        <v>330.29</v>
       </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>2024.61</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR14" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1252</v>
+        <v>278</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45379.58333333334</v>
+        <v>45364.90625</v>
       </c>
       <c r="C15" t="n">
-        <v>2210.35</v>
+        <v>72872.641</v>
       </c>
       <c r="D15" t="n">
-        <v>2215.18</v>
+        <v>73402.039</v>
       </c>
       <c r="E15" t="n">
-        <v>2209.81</v>
+        <v>72844.67200000001</v>
       </c>
       <c r="F15" t="n">
-        <v>2213.87</v>
+        <v>73376.836</v>
       </c>
       <c r="G15" t="n">
-        <v>2984</v>
+        <v>1120</v>
       </c>
       <c r="H15" t="n">
-        <v>27</v>
+        <v>36421</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>45379.58333333334</v>
+        <v>45364.875</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45379.58333333334</v>
+        <v>45364.875</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002119692140135759</v>
+        <v>0.002679493493727058</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0004701460114685356</v>
+        <v>0.0002795627330176853</v>
       </c>
       <c r="N15" t="n">
-        <v>2207.144156058939</v>
+        <v>73128.59741666669</v>
       </c>
       <c r="O15" t="n">
-        <v>2202.461808825791</v>
+        <v>73011.96292405199</v>
       </c>
       <c r="P15" t="n">
-        <v>2212.651627106983</v>
+        <v>72936.85666693411</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.236552157267397</v>
+        <v>73134.15780254552</v>
       </c>
       <c r="R15" t="n">
-        <v>1.598374590422824</v>
+        <v>33.75193494945415</v>
       </c>
       <c r="S15" t="n">
-        <v>7.394144034346723</v>
+        <v>19.6524150884469</v>
       </c>
       <c r="T15" t="n">
-        <v>1.69996216030313</v>
+        <v>262.1958350037236</v>
       </c>
       <c r="U15" t="n">
-        <v>1.384599243204775</v>
+        <v>75.74355865150574</v>
       </c>
       <c r="V15" t="n">
-        <v>1.46319229446317</v>
+        <v>-14.7708393533394</v>
       </c>
       <c r="W15" t="n">
-        <v>2224.133721553351</v>
+        <v>-45.63702098374779</v>
       </c>
       <c r="X15" t="n">
-        <v>2202.669532660615</v>
-      </c>
-      <c r="Y15" t="b">
-        <v>1</v>
+        <v>73489.62217980056</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>72780.19342529049</v>
       </c>
       <c r="Z15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>2222.87</v>
+        <v>1</v>
+      </c>
+      <c r="AA15" t="b">
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>2208.87</v>
+        <v>73385.836</v>
       </c>
       <c r="AC15" t="n">
-        <v>2214.87</v>
+        <v>73371.836</v>
       </c>
       <c r="AD15" t="n">
-        <v>2215.07</v>
-      </c>
-      <c r="AE15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" s="2" t="n">
-        <v>45379.625</v>
-      </c>
+        <v>73377.836</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>73378.03599999999</v>
+      </c>
+      <c r="AF15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="inlineStr"/>
       <c r="AH15" s="2" t="n">
-        <v>45379.77653935185</v>
+        <v>45364.92708333334</v>
       </c>
       <c r="AI15" s="2" t="n">
-        <v>45379.60555555556</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>33.55555555555536</v>
+        <v>45364.91667824074</v>
+      </c>
+      <c r="AJ15" s="2" t="n">
+        <v>45364.91681712963</v>
       </c>
       <c r="AK15" t="n">
-        <v>110.12</v>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>fail</t>
-        </is>
-      </c>
-      <c r="AM15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>-182.39</v>
+        <v>100</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>407.35</v>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN15" t="b">
+        <v>1</v>
       </c>
       <c r="AO15" t="n">
-        <v>1029.05</v>
+        <v>330.29</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>2354.9</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR15" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AS15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT15" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1255</v>
+        <v>325</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45379.61458333334</v>
+        <v>45365.39583333334</v>
       </c>
       <c r="C16" t="n">
-        <v>2207.48</v>
+        <v>73341.234</v>
       </c>
       <c r="D16" t="n">
-        <v>2216.06</v>
+        <v>73398.734</v>
       </c>
       <c r="E16" t="n">
-        <v>2205.68</v>
+        <v>73194.92999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>2215.6</v>
+        <v>73391.734</v>
       </c>
       <c r="G16" t="n">
-        <v>4304</v>
+        <v>1852</v>
       </c>
       <c r="H16" t="n">
-        <v>27</v>
+        <v>36421</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>45379.58333333334</v>
+        <v>45365.375</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45379.58333333334</v>
+        <v>45365.375</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002119692140135759</v>
+        <v>0.0008105082934814825</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0004701460114685356</v>
+        <v>0.001633942104836418</v>
       </c>
       <c r="N16" t="n">
-        <v>2208.922709018866</v>
+        <v>73342.16014285716</v>
       </c>
       <c r="O16" t="n">
-        <v>2204.32731610542</v>
+        <v>73358.47925198943</v>
       </c>
       <c r="P16" t="n">
-        <v>2214.695235638114</v>
+        <v>73254.78827154254</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.370439035909385</v>
+        <v>73409.44864912282</v>
       </c>
       <c r="R16" t="n">
-        <v>1.940121685159165</v>
+        <v>52.59713966588606</v>
       </c>
       <c r="S16" t="n">
-        <v>8.134967588586823</v>
+        <v>41.66289516578782</v>
       </c>
       <c r="T16" t="n">
-        <v>1.274275885791212</v>
+        <v>255.268202204037</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.1410388716863054</v>
+        <v>12.69499793603609</v>
       </c>
       <c r="V16" t="n">
-        <v>0.9103715170263058</v>
+        <v>-4.99776573786221</v>
       </c>
       <c r="W16" t="n">
-        <v>2227.177441882706</v>
+        <v>35.46099759200297</v>
       </c>
       <c r="X16" t="n">
-        <v>2203.713029393522</v>
-      </c>
-      <c r="Y16" t="b">
-        <v>1</v>
+        <v>73755.56072209826</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>73064.83657614737</v>
       </c>
       <c r="Z16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>2224.6</v>
+        <v>1</v>
+      </c>
+      <c r="AA16" t="b">
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>2210.6</v>
+        <v>73400.734</v>
       </c>
       <c r="AC16" t="n">
-        <v>2216.6</v>
+        <v>73386.734</v>
       </c>
       <c r="AD16" t="n">
-        <v>2216.8</v>
-      </c>
-      <c r="AE16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" s="2" t="n">
-        <v>45379.77083333334</v>
-      </c>
+        <v>73392.734</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>73392.93399999999</v>
+      </c>
+      <c r="AF16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="inlineStr"/>
       <c r="AH16" s="2" t="n">
-        <v>45379.77699074074</v>
+        <v>45365.4375</v>
       </c>
       <c r="AI16" s="2" t="n">
-        <v>45379.64001157408</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>15.44444444444303</v>
+        <v>45365.40625</v>
+      </c>
+      <c r="AJ16" s="2" t="n">
+        <v>45365.40631944445</v>
       </c>
       <c r="AK16" t="n">
-        <v>50.68</v>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>fail</t>
-        </is>
-      </c>
-      <c r="AM16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>-182.39</v>
+        <v>100</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>623.9</v>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN16" t="b">
+        <v>1</v>
       </c>
       <c r="AO16" t="n">
-        <v>846.6600000000002</v>
+        <v>330.3</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>2685.2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR16" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT16" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>1275</v>
+        <v>328</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45379.82291666666</v>
+        <v>45365.42708333334</v>
       </c>
       <c r="C17" t="n">
-        <v>2220</v>
+        <v>73349.641</v>
       </c>
       <c r="D17" t="n">
-        <v>2222.09</v>
+        <v>73565.539</v>
       </c>
       <c r="E17" t="n">
-        <v>2219.92</v>
+        <v>73338.141</v>
       </c>
       <c r="F17" t="n">
-        <v>2221.92</v>
+        <v>73557.05499999999</v>
       </c>
       <c r="G17" t="n">
-        <v>1388</v>
+        <v>1714</v>
       </c>
       <c r="H17" t="n">
-        <v>27</v>
+        <v>36421</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>45379.79166666666</v>
+        <v>45365.41666666666</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45379.79166666666</v>
+        <v>45365.41666666666</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003022745193476508</v>
+        <v>0.0008153682636239317</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0006469843403122901</v>
+        <v>0.0007659601008706343</v>
       </c>
       <c r="N17" t="n">
-        <v>2217.79980775953</v>
+        <v>73369.11582142863</v>
       </c>
       <c r="O17" t="n">
-        <v>2213.805782580038</v>
+        <v>73376.84424050883</v>
       </c>
       <c r="P17" t="n">
-        <v>2221.706704506363</v>
+        <v>73283.92982689895</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.389416012796119</v>
+        <v>73462.01020915028</v>
       </c>
       <c r="R17" t="n">
-        <v>2.259183288213094</v>
+        <v>51.06796126243717</v>
       </c>
       <c r="S17" t="n">
-        <v>4.942175701806797</v>
+        <v>45.18943293519526</v>
       </c>
       <c r="T17" t="n">
-        <v>1.009322325421635</v>
+        <v>226.9956294670767</v>
       </c>
       <c r="U17" t="n">
-        <v>0.9610079119365764</v>
+        <v>50.14993085651076</v>
       </c>
       <c r="V17" t="n">
-        <v>0.9514241486044739</v>
+        <v>8.53929239770514</v>
       </c>
       <c r="W17" t="n">
-        <v>2229.878641703802</v>
+        <v>-6.127663226754521</v>
       </c>
       <c r="X17" t="n">
-        <v>2215.034767308924</v>
-      </c>
-      <c r="Y17" t="b">
-        <v>1</v>
+        <v>73769.95430893083</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>73155.56610936973</v>
       </c>
       <c r="Z17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>2230.92</v>
+        <v>1</v>
+      </c>
+      <c r="AA17" t="b">
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2222.92</v>
+        <v>73566.05499999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>2222.92</v>
+        <v>73552.05499999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>2223.12</v>
-      </c>
-      <c r="AE17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="2" t="n">
-        <v>45379.94791666666</v>
-      </c>
-      <c r="AG17" s="2" t="n">
-        <v>45379.94791666666</v>
-      </c>
-      <c r="AH17" s="2" t="n">
-        <v>45379.95092592593</v>
-      </c>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="n">
+        <v>73558.05499999999</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>73558.25499999999</v>
+      </c>
+      <c r="AF17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" s="2" t="n">
+        <v>45365.4377662037</v>
+      </c>
+      <c r="AJ17" s="2" t="n">
+        <v>45365.43850694445</v>
+      </c>
+      <c r="AK17" t="n">
         <v>100</v>
       </c>
-      <c r="AK17" t="n">
-        <v>437.55</v>
-      </c>
-      <c r="AL17" t="inlineStr">
+      <c r="AL17" t="n">
+        <v>358.92</v>
+      </c>
+      <c r="AM17" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AM17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>328.17</v>
+      <c r="AN17" t="b">
+        <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>1174.83</v>
+        <v>330.3</v>
       </c>
       <c r="AP17" t="n">
-        <v>1</v>
+        <v>3015.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45365.6875</v>
+      </c>
+      <c r="C18" t="n">
+        <v>72247.539</v>
+      </c>
+      <c r="D18" t="n">
+        <v>72305.734</v>
+      </c>
+      <c r="E18" t="n">
+        <v>71717.93799999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>71851.336</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4020</v>
+      </c>
+      <c r="H18" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>45365.66666666666</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>45365.66666666666</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.003554620009989667</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.002063403753579453</v>
+      </c>
+      <c r="N18" t="n">
+        <v>72235.29384523809</v>
+      </c>
+      <c r="O18" t="n">
+        <v>72387.40850941339</v>
+      </c>
+      <c r="P18" t="n">
+        <v>72699.49847416164</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>72103.23767526663</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-141.8812904176739</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-94.73204631787621</v>
+      </c>
+      <c r="T18" t="n">
+        <v>494.2365851931842</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-122.4589755761554</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-44.74841348471818</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-108.6043309253</v>
+      </c>
+      <c r="X18" t="n">
+        <v>72770.45706527743</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>71434.51828525584</v>
+      </c>
+      <c r="Z18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>71842.336</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>71856.336</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>71850.336</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>71850.136</v>
+      </c>
+      <c r="AF18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" s="2" t="n">
+        <v>45365.70833333334</v>
+      </c>
+      <c r="AI18" s="2" t="n">
+        <v>45365.69792824074</v>
+      </c>
+      <c r="AJ18" s="2" t="n">
+        <v>45365.69815972223</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>702.24</v>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>330.29</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>3345.79</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45365.71875</v>
+      </c>
+      <c r="C19" t="n">
+        <v>71976.234</v>
+      </c>
+      <c r="D19" t="n">
+        <v>72036.039</v>
+      </c>
+      <c r="E19" t="n">
+        <v>70791.836</v>
+      </c>
+      <c r="F19" t="n">
+        <v>70883.336</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4329</v>
+      </c>
+      <c r="H19" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>45365.70833333334</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>45365.70833333334</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.005380992187651024</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.002115441061223669</v>
+      </c>
+      <c r="N19" t="n">
+        <v>71657.79120238098</v>
+      </c>
+      <c r="O19" t="n">
+        <v>72032.24708512938</v>
+      </c>
+      <c r="P19" t="n">
+        <v>72455.04501075932</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>71683.8756852425</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-196.02160139232</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-133.6132337115732</v>
+      </c>
+      <c r="T19" t="n">
+        <v>624.1481667154504</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-253.5065417956794</v>
+      </c>
+      <c r="V19" t="n">
+        <v>-57.84970760226133</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-108.0057406261913</v>
+      </c>
+      <c r="X19" t="n">
+        <v>72526.47571030835</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>70839.77566017665</v>
+      </c>
+      <c r="Z19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>70874.336</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>70888.336</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>70882.336</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>70882.136</v>
+      </c>
+      <c r="AF19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" s="2" t="n">
+        <v>45365.76041666666</v>
+      </c>
+      <c r="AI19" s="2" t="n">
+        <v>45365.72916666666</v>
+      </c>
+      <c r="AJ19" s="2" t="n">
+        <v>45365.72916666666</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>608.66</v>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>330.29</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3676.08</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45365.80208333334</v>
+      </c>
+      <c r="C20" t="n">
+        <v>71286.914</v>
+      </c>
+      <c r="D20" t="n">
+        <v>71334.336</v>
+      </c>
+      <c r="E20" t="n">
+        <v>70747.43799999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>70840.641</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2956</v>
+      </c>
+      <c r="H20" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>45365.79166666666</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>45365.79166666666</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.006993936271726488</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.004309941291974827</v>
+      </c>
+      <c r="N20" t="n">
+        <v>71167.16339285715</v>
+      </c>
+      <c r="O20" t="n">
+        <v>71228.23039867173</v>
+      </c>
+      <c r="P20" t="n">
+        <v>71749.76118520611</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>70692.21639215683</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-285.889456126024</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-256.5129569922717</v>
+      </c>
+      <c r="T20" t="n">
+        <v>853.4317682379658</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-32.73741554876324</v>
+      </c>
+      <c r="V20" t="n">
+        <v>15.48721018235665</v>
+      </c>
+      <c r="W20" t="n">
+        <v>20.34022119022848</v>
+      </c>
+      <c r="X20" t="n">
+        <v>71844.34927927809</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>69538.58350503557</v>
+      </c>
+      <c r="Z20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>70831.641</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>70845.641</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>70839.641</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>70839.44100000001</v>
+      </c>
+      <c r="AF20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" s="2" t="n">
+        <v>45365.84375</v>
+      </c>
+      <c r="AI20" s="2" t="n">
+        <v>45365.81251157408</v>
+      </c>
+      <c r="AJ20" s="2" t="n">
+        <v>45365.81283564815</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>333.78</v>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>330.29</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>4006.37</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45366.09375</v>
+      </c>
+      <c r="C21" t="n">
+        <v>71427.836</v>
+      </c>
+      <c r="D21" t="n">
+        <v>72179.734</v>
+      </c>
+      <c r="E21" t="n">
+        <v>71301.836</v>
+      </c>
+      <c r="F21" t="n">
+        <v>72137.93799999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2958</v>
+      </c>
+      <c r="H21" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>45366.08333333334</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>45366.08333333334</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.007536708040613266</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.001912787261627746</v>
+      </c>
+      <c r="N21" t="n">
+        <v>71519.36744047617</v>
+      </c>
+      <c r="O21" t="n">
+        <v>71463.97465295772</v>
+      </c>
+      <c r="P21" t="n">
+        <v>71257.56213292577</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>71840.74994908835</v>
+      </c>
+      <c r="R21" t="n">
+        <v>35.41400371796044</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-38.38896998483418</v>
+      </c>
+      <c r="T21" t="n">
+        <v>775.8602876712395</v>
+      </c>
+      <c r="U21" t="n">
+        <v>49.53459270719031</v>
+      </c>
+      <c r="V21" t="n">
+        <v>-86.90994152044004</v>
+      </c>
+      <c r="W21" t="n">
+        <v>-1.319253526002285</v>
+      </c>
+      <c r="X21" t="n">
+        <v>72889.66133744453</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>70793.33856073217</v>
+      </c>
+      <c r="Z21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>72146.93799999999</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>72132.93799999999</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>72138.93799999999</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>72139.13799999999</v>
+      </c>
+      <c r="AF21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" s="2" t="n">
+        <v>45366.10417824074</v>
+      </c>
+      <c r="AJ21" s="2" t="n">
+        <v>45366.10418981482</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>550.36</v>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>330.22</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>4336.59</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45366.77083333334</v>
+      </c>
+      <c r="C22" t="n">
+        <v>68026.141</v>
+      </c>
+      <c r="D22" t="n">
+        <v>68426.781</v>
+      </c>
+      <c r="E22" t="n">
+        <v>67846.45299999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>68382.734</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4277</v>
+      </c>
+      <c r="H22" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>45366.75</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>45366.75</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.004265483065114556</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.001750841067138847</v>
+      </c>
+      <c r="N22" t="n">
+        <v>68252.07720238094</v>
+      </c>
+      <c r="O22" t="n">
+        <v>68158.43371553467</v>
+      </c>
+      <c r="P22" t="n">
+        <v>68084.29589760427</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>68316.87436085309</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.7341311802883865</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-27.28896530350768</v>
+      </c>
+      <c r="T22" t="n">
+        <v>434.1080754220478</v>
+      </c>
+      <c r="U22" t="n">
+        <v>13.72547196425148</v>
+      </c>
+      <c r="V22" t="n">
+        <v>-34.66540660479222</v>
+      </c>
+      <c r="W22" t="n">
+        <v>-120.3905583074957</v>
+      </c>
+      <c r="X22" t="n">
+        <v>68904.42026267285</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>67730.82845903334</v>
+      </c>
+      <c r="Z22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>68391.734</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>68377.734</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>68383.734</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>68383.93399999999</v>
+      </c>
+      <c r="AF22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" s="2" t="n">
+        <v>45366.84375</v>
+      </c>
+      <c r="AI22" s="2" t="n">
+        <v>45366.78125</v>
+      </c>
+      <c r="AJ22" s="2" t="n">
+        <v>45366.78128472222</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>341.41</v>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>330.22</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>4666.81</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45369.17708333334</v>
+      </c>
+      <c r="C23" t="n">
+        <v>67802.258</v>
+      </c>
+      <c r="D23" t="n">
+        <v>67804.641</v>
+      </c>
+      <c r="E23" t="n">
+        <v>67425.383</v>
+      </c>
+      <c r="F23" t="n">
+        <v>67482.734</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2317</v>
+      </c>
+      <c r="H23" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>45369.16666666666</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>45369.16666666666</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.002215688080589543</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.005897581051664414</v>
+      </c>
+      <c r="N23" t="n">
+        <v>67573.5402380953</v>
+      </c>
+      <c r="O23" t="n">
+        <v>67743.09899156899</v>
+      </c>
+      <c r="P23" t="n">
+        <v>67996.46997264799</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>67405.9270388716</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-115.0781565671787</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-81.32912120438209</v>
+      </c>
+      <c r="T23" t="n">
+        <v>679.0993754790633</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-101.0854471964994</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-61.1452115583088</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-31.10525352603872</v>
+      </c>
+      <c r="X23" t="n">
+        <v>68322.71119576834</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>66487.64288197485</v>
+      </c>
+      <c r="Z23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>67473.734</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>67487.734</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>67481.734</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>67481.534</v>
+      </c>
+      <c r="AF23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" s="2" t="n">
+        <v>45369.6875</v>
+      </c>
+      <c r="AI23" s="2" t="n">
+        <v>45369.18782407408</v>
+      </c>
+      <c r="AJ23" s="2" t="n">
+        <v>45369.1875462963</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-132.1</v>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-183.48</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>4483.330000000001</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45369.78125</v>
+      </c>
+      <c r="C24" t="n">
+        <v>67719.57000000001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>67749.539</v>
+      </c>
+      <c r="E24" t="n">
+        <v>66995.93799999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>67161.734</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4568</v>
+      </c>
+      <c r="H24" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>45369.75</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>45369.75</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.002960017632619766</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.0005412485146902737</v>
+      </c>
+      <c r="N24" t="n">
+        <v>67379.5623214285</v>
+      </c>
+      <c r="O24" t="n">
+        <v>67502.89269004561</v>
+      </c>
+      <c r="P24" t="n">
+        <v>67677.92663058679</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>67192.92305194357</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-99.88677238980017</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-95.55557736423816</v>
+      </c>
+      <c r="T24" t="n">
+        <v>539.474191825279</v>
+      </c>
+      <c r="U24" t="n">
+        <v>-26.36855693158577</v>
+      </c>
+      <c r="V24" t="n">
+        <v>55.01967561063066</v>
+      </c>
+      <c r="W24" t="n">
+        <v>75.4015287237853</v>
+      </c>
+      <c r="X24" t="n">
+        <v>67921.21321090769</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>66463.13289297944</v>
+      </c>
+      <c r="Z24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>67152.734</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>67166.734</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>67160.734</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>67160.534</v>
+      </c>
+      <c r="AF24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" s="2" t="n">
+        <v>45369.80208333334</v>
+      </c>
+      <c r="AI24" s="2" t="n">
+        <v>45369.79167824074</v>
+      </c>
+      <c r="AJ24" s="2" t="n">
+        <v>45369.79168981482</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>565.04</v>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>330.22</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>4813.550000000001</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45369.85416666666</v>
+      </c>
+      <c r="C25" t="n">
+        <v>67211.844</v>
+      </c>
+      <c r="D25" t="n">
+        <v>67335.039</v>
+      </c>
+      <c r="E25" t="n">
+        <v>67003.875</v>
+      </c>
+      <c r="F25" t="n">
+        <v>67033.039</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3064</v>
+      </c>
+      <c r="H25" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>45369.83333333334</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>45369.83333333334</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.001991769518658012</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.002654360868518424</v>
+      </c>
+      <c r="N25" t="n">
+        <v>67113.39839285718</v>
+      </c>
+      <c r="O25" t="n">
+        <v>67301.39429047305</v>
+      </c>
+      <c r="P25" t="n">
+        <v>67484.11089541914</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>67317.04595321642</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-109.4437190786557</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-105.6021870496409</v>
+      </c>
+      <c r="T25" t="n">
+        <v>470.134657031001</v>
+      </c>
+      <c r="U25" t="n">
+        <v>-10.96415170273394</v>
+      </c>
+      <c r="V25" t="n">
+        <v>-0.005228070105658844</v>
+      </c>
+      <c r="W25" t="n">
+        <v>35.95242242855602</v>
+      </c>
+      <c r="X25" t="n">
+        <v>67951.72774020827</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>66680.86416622458</v>
+      </c>
+      <c r="Z25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>67024.039</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>67038.039</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>67032.039</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>67031.83900000001</v>
+      </c>
+      <c r="AF25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" s="2" t="n">
+        <v>45369.91666666666</v>
+      </c>
+      <c r="AI25" s="2" t="n">
+        <v>45369.86462962963</v>
+      </c>
+      <c r="AJ25" s="2" t="n">
+        <v>45369.86461805556</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>128.42</v>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>-183.48</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>4630.070000000002</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45370.34375</v>
+      </c>
+      <c r="C26" t="n">
+        <v>65433.43</v>
+      </c>
+      <c r="D26" t="n">
+        <v>65470.539</v>
+      </c>
+      <c r="E26" t="n">
+        <v>65021.84</v>
+      </c>
+      <c r="F26" t="n">
+        <v>65024.637</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3383</v>
+      </c>
+      <c r="H26" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>45370.33333333334</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>45370.33333333334</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.007011988364685872</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.006698406827896334</v>
+      </c>
+      <c r="N26" t="n">
+        <v>65123.52163095239</v>
+      </c>
+      <c r="O26" t="n">
+        <v>65356.64796267937</v>
+      </c>
+      <c r="P26" t="n">
+        <v>65844.26344822792</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>65010.99448469216</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-284.1912570040004</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-269.8614981954249</v>
+      </c>
+      <c r="T26" t="n">
+        <v>784.4870900784085</v>
+      </c>
+      <c r="U26" t="n">
+        <v>-72.36590780872211</v>
+      </c>
+      <c r="V26" t="n">
+        <v>15.8594760922424</v>
+      </c>
+      <c r="W26" t="n">
+        <v>-12.17543997255416</v>
+      </c>
+      <c r="X26" t="n">
+        <v>66070.05205629801</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>63950.43691308631</v>
+      </c>
+      <c r="Z26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>65015.637</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>65029.637</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>65023.637</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>65023.43700000001</v>
+      </c>
+      <c r="AF26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" s="2" t="n">
+        <v>45370.36458333334</v>
+      </c>
+      <c r="AI26" s="2" t="n">
+        <v>45370.35445601852</v>
+      </c>
+      <c r="AJ26" s="2" t="n">
+        <v>45370.35418981482</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>31.07777777784375</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>102.55</v>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>-183.48</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>4446.590000000002</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45370.84375</v>
+      </c>
+      <c r="C27" t="n">
+        <v>64372.137</v>
+      </c>
+      <c r="D27" t="n">
+        <v>64883.438</v>
+      </c>
+      <c r="E27" t="n">
+        <v>64361.738</v>
+      </c>
+      <c r="F27" t="n">
+        <v>64797.137</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3443</v>
+      </c>
+      <c r="H27" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>45370.83333333334</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>45370.83333333334</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.003055908551015784</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.006020441252950166</v>
+      </c>
+      <c r="N27" t="n">
+        <v>64677.55721428579</v>
+      </c>
+      <c r="O27" t="n">
+        <v>64580.89439964452</v>
+      </c>
+      <c r="P27" t="n">
+        <v>64234.21118030979</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>65302.29176883385</v>
+      </c>
+      <c r="R27" t="n">
+        <v>115.4445981953613</v>
+      </c>
+      <c r="S27" t="n">
+        <v>40.67894511923934</v>
+      </c>
+      <c r="T27" t="n">
+        <v>882.4889216236321</v>
+      </c>
+      <c r="U27" t="n">
+        <v>101.2487034743463</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3.618232542175974</v>
+      </c>
+      <c r="W27" t="n">
+        <v>175.4739084967441</v>
+      </c>
+      <c r="X27" t="n">
+        <v>66495.15181302575</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>64110.93172464195</v>
+      </c>
+      <c r="Z27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>64806.137</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>64792.137</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>64798.137</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>64798.337</v>
+      </c>
+      <c r="AF27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" s="2" t="n">
+        <v>45370.86458333334</v>
+      </c>
+      <c r="AI27" s="2" t="n">
+        <v>45370.85427083333</v>
+      </c>
+      <c r="AJ27" s="2" t="n">
+        <v>45370.85416666666</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>-86.23999999999999</v>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>-183.48</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>4263.110000000002</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45371.13541666666</v>
+      </c>
+      <c r="C28" t="n">
+        <v>62737.039</v>
+      </c>
+      <c r="D28" t="n">
+        <v>62792.34</v>
+      </c>
+      <c r="E28" t="n">
+        <v>61889.84</v>
+      </c>
+      <c r="F28" t="n">
+        <v>62403.922</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4921</v>
+      </c>
+      <c r="H28" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>45371.125</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>45371.125</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.008333742569332413</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.005296017784727932</v>
+      </c>
+      <c r="N28" t="n">
+        <v>62541.70008333331</v>
+      </c>
+      <c r="O28" t="n">
+        <v>62732.03959428193</v>
+      </c>
+      <c r="P28" t="n">
+        <v>63108.20489508272</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>62244.31498968005</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-213.7054403594229</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-204.3156510871449</v>
+      </c>
+      <c r="T28" t="n">
+        <v>899.3115752839857</v>
+      </c>
+      <c r="U28" t="n">
+        <v>-23.54059649123519</v>
+      </c>
+      <c r="V28" t="n">
+        <v>25.64974165807507</v>
+      </c>
+      <c r="W28" t="n">
+        <v>111.3996057791082</v>
+      </c>
+      <c r="X28" t="n">
+        <v>63458.38561631343</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>61028.74436304667</v>
+      </c>
+      <c r="Z28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>62394.922</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>62408.922</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>62402.922</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>62402.722</v>
+      </c>
+      <c r="AF28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" s="2" t="n">
+        <v>45371.15625</v>
+      </c>
+      <c r="AI28" s="2" t="n">
+        <v>45371.14618055556</v>
+      </c>
+      <c r="AJ28" s="2" t="n">
+        <v>45371.14583333334</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>51.82222222218924</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>171.16</v>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>-183.48</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>4079.630000000002</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45371.26041666666</v>
+      </c>
+      <c r="C29" t="n">
+        <v>62309.738</v>
+      </c>
+      <c r="D29" t="n">
+        <v>62362.039</v>
+      </c>
+      <c r="E29" t="n">
+        <v>61717.438</v>
+      </c>
+      <c r="F29" t="n">
+        <v>61850.039</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4420</v>
+      </c>
+      <c r="H29" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>45371.25</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>45371.25</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.001555796462850632</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.001731090805590455</v>
+      </c>
+      <c r="N29" t="n">
+        <v>62053.57199999995</v>
+      </c>
+      <c r="O29" t="n">
+        <v>62514.17696248782</v>
+      </c>
+      <c r="P29" t="n">
+        <v>62774.0409573183</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>62500.12781355343</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-163.6640530260847</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-157.5925203523955</v>
+      </c>
+      <c r="T29" t="n">
+        <v>483.4391983349302</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-211.8088782249761</v>
+      </c>
+      <c r="V29" t="n">
+        <v>-111.790113175186</v>
+      </c>
+      <c r="W29" t="n">
+        <v>-228.3262370140146</v>
+      </c>
+      <c r="X29" t="n">
+        <v>63152.77073130559</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>61845.98489580127</v>
+      </c>
+      <c r="Z29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>61841.039</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>61855.039</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>61849.039</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>61848.839</v>
+      </c>
+      <c r="AF29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" s="2" t="n">
+        <v>45371.28125</v>
+      </c>
+      <c r="AI29" s="2" t="n">
+        <v>45371.27084490741</v>
+      </c>
+      <c r="AJ29" s="2" t="n">
+        <v>45371.27084490741</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>355.71</v>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>330.21</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>4409.840000000002</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45371.55208333334</v>
+      </c>
+      <c r="C30" t="n">
+        <v>63176.84</v>
+      </c>
+      <c r="D30" t="n">
+        <v>63991.738</v>
+      </c>
+      <c r="E30" t="n">
+        <v>63094.891</v>
+      </c>
+      <c r="F30" t="n">
+        <v>63856.84</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3599</v>
+      </c>
+      <c r="H30" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>45371.54166666666</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>45371.54166666666</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.005969689420619159</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.003753787353945647</v>
+      </c>
+      <c r="N30" t="n">
+        <v>63261.95895238091</v>
+      </c>
+      <c r="O30" t="n">
+        <v>63120.80898975192</v>
+      </c>
+      <c r="P30" t="n">
+        <v>62860.50462360108</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>63341.61823151009</v>
+      </c>
+      <c r="R30" t="n">
+        <v>100.2354942485836</v>
+      </c>
+      <c r="S30" t="n">
+        <v>51.16736882969334</v>
+      </c>
+      <c r="T30" t="n">
+        <v>694.9640209196237</v>
+      </c>
+      <c r="U30" t="n">
+        <v>80.2600061918929</v>
+      </c>
+      <c r="V30" t="n">
+        <v>-15.10440110078343</v>
+      </c>
+      <c r="W30" t="n">
+        <v>-9.732050567647093</v>
+      </c>
+      <c r="X30" t="n">
+        <v>64281.31965975158</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>62403.4168032686</v>
+      </c>
+      <c r="Z30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>63865.84</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>63851.84</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>63857.84</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>63858.03999999999</v>
+      </c>
+      <c r="AF30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" s="2" t="n">
+        <v>45371.60416666666</v>
+      </c>
+      <c r="AI30" s="2" t="n">
+        <v>45371.56252314815</v>
+      </c>
+      <c r="AJ30" s="2" t="n">
+        <v>45371.5625</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>-113.78</v>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>-183.51</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>4226.330000000002</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45371.67708333334</v>
+      </c>
+      <c r="C31" t="n">
+        <v>63830.84</v>
+      </c>
+      <c r="D31" t="n">
+        <v>64184.34</v>
+      </c>
+      <c r="E31" t="n">
+        <v>63827.238</v>
+      </c>
+      <c r="F31" t="n">
+        <v>64148.895</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3553</v>
+      </c>
+      <c r="H31" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>45371.66666666666</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>45371.66666666666</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.003609141676737518</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.003586009586824799</v>
+      </c>
+      <c r="N31" t="n">
+        <v>63904.75628571431</v>
+      </c>
+      <c r="O31" t="n">
+        <v>63703.81241087442</v>
+      </c>
+      <c r="P31" t="n">
+        <v>63411.48302057974</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>63944.905000688</v>
+      </c>
+      <c r="R31" t="n">
+        <v>162.1252326259782</v>
+      </c>
+      <c r="S31" t="n">
+        <v>148.2210343549615</v>
+      </c>
+      <c r="T31" t="n">
+        <v>433.9741568599138</v>
+      </c>
+      <c r="U31" t="n">
+        <v>88.46810560720769</v>
+      </c>
+      <c r="V31" t="n">
+        <v>29.62273030611686</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-3.892289301700657</v>
+      </c>
+      <c r="X31" t="n">
+        <v>64532.27011244888</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>63359.03988892712</v>
+      </c>
+      <c r="Z31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>64157.895</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>64143.895</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>64149.895</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>64150.09499999999</v>
+      </c>
+      <c r="AF31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" s="2" t="n">
+        <v>45371.70833333334</v>
+      </c>
+      <c r="AI31" s="2" t="n">
+        <v>45371.6875</v>
+      </c>
+      <c r="AJ31" s="2" t="n">
+        <v>45371.6875462963</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>717.12</v>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>330.22</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>4556.550000000002</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45372.05208333334</v>
+      </c>
+      <c r="C32" t="n">
+        <v>67829.656</v>
+      </c>
+      <c r="D32" t="n">
+        <v>67990.539</v>
+      </c>
+      <c r="E32" t="n">
+        <v>67657.273</v>
+      </c>
+      <c r="F32" t="n">
+        <v>67852.227</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4085</v>
+      </c>
+      <c r="H32" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>45372.04166666666</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>45372.04166666666</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.01191851367969235</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.01125808451902612</v>
+      </c>
+      <c r="N32" t="n">
+        <v>67851.30754761907</v>
+      </c>
+      <c r="O32" t="n">
+        <v>67405.93583801345</v>
+      </c>
+      <c r="P32" t="n">
+        <v>66495.51815510102</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>68186.52851427588</v>
+      </c>
+      <c r="R32" t="n">
+        <v>531.9031405275455</v>
+      </c>
+      <c r="S32" t="n">
+        <v>505.771303436868</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1417.160127745339</v>
+      </c>
+      <c r="U32" t="n">
+        <v>32.61026831787603</v>
+      </c>
+      <c r="V32" t="n">
+        <v>-7.762586859375006</v>
+      </c>
+      <c r="W32" t="n">
+        <v>13.53578087386268</v>
+      </c>
+      <c r="X32" t="n">
+        <v>70101.19468673209</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>66273.36234181967</v>
+      </c>
+      <c r="Z32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>67861.227</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>67847.227</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>67853.227</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>67853.427</v>
+      </c>
+      <c r="AF32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" s="2" t="n">
+        <v>45372.11458333334</v>
+      </c>
+      <c r="AI32" s="2" t="n">
+        <v>45372.06251157408</v>
+      </c>
+      <c r="AJ32" s="2" t="n">
+        <v>45372.0625462963</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>348.74</v>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>330.22</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>4886.770000000002</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45372.80208333334</v>
+      </c>
+      <c r="C33" t="n">
+        <v>66682.29700000001</v>
+      </c>
+      <c r="D33" t="n">
+        <v>66694.539</v>
+      </c>
+      <c r="E33" t="n">
+        <v>66231.141</v>
+      </c>
+      <c r="F33" t="n">
+        <v>66234.836</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3313</v>
+      </c>
+      <c r="H33" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>45372.79166666666</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>45372.79166666666</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.002133725086532617</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.001288920563132203</v>
+      </c>
+      <c r="N33" t="n">
+        <v>66419.38157142862</v>
+      </c>
+      <c r="O33" t="n">
+        <v>66640.28628110061</v>
+      </c>
+      <c r="P33" t="n">
+        <v>66799.29904996979</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>66382.35521362226</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-74.6563504874357</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-54.61645097896947</v>
+      </c>
+      <c r="T33" t="n">
+        <v>388.1490770974494</v>
+      </c>
+      <c r="U33" t="n">
+        <v>-77.2993746130669</v>
+      </c>
+      <c r="V33" t="n">
+        <v>-8.120890264865011</v>
+      </c>
+      <c r="W33" t="n">
+        <v>22.00217062268348</v>
+      </c>
+      <c r="X33" t="n">
+        <v>66906.35646770381</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>65856.85395954071</v>
+      </c>
+      <c r="Z33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>66225.836</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>66239.836</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>66233.836</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>66233.636</v>
+      </c>
+      <c r="AF33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" s="2" t="n">
+        <v>45372.82291666666</v>
+      </c>
+      <c r="AI33" s="2" t="n">
+        <v>45372.81251157408</v>
+      </c>
+      <c r="AJ33" s="2" t="n">
+        <v>45372.81386574074</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>376.63</v>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>330.21</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>5216.980000000002</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45372.9375</v>
+      </c>
+      <c r="C34" t="n">
+        <v>65610.539</v>
+      </c>
+      <c r="D34" t="n">
+        <v>65685.539</v>
+      </c>
+      <c r="E34" t="n">
+        <v>65286.445</v>
+      </c>
+      <c r="F34" t="n">
+        <v>65366.438</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4430</v>
+      </c>
+      <c r="H34" t="n">
+        <v>56421</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>45372.91666666666</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>45372.91666666666</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.005264811230211931</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.003691467928522815</v>
+      </c>
+      <c r="N34" t="n">
+        <v>65431.32319047621</v>
+      </c>
+      <c r="O34" t="n">
+        <v>65534.98623093306</v>
+      </c>
+      <c r="P34" t="n">
+        <v>65912.18278263915</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>65070.30902235976</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-215.6040210330393</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-203.7554078422289</v>
+      </c>
+      <c r="T34" t="n">
+        <v>656.964979551823</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-25.40800275204674</v>
+      </c>
+      <c r="V34" t="n">
+        <v>20.61266494666779</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-26.14791468867043</v>
+      </c>
+      <c r="X34" t="n">
+        <v>65957.21174475472</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>64181.9062999648</v>
+      </c>
+      <c r="Z34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>65357.438</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>65371.438</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>65365.438</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>65365.238</v>
+      </c>
+      <c r="AF34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" s="2" t="n">
+        <v>45372.96875</v>
+      </c>
+      <c r="AI34" s="2" t="n">
+        <v>45372.94803240741</v>
+      </c>
+      <c r="AJ34" s="2" t="n">
+        <v>45372.94791666666</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-110.1</v>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>-183.5</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>5033.480000000002</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45373.19791666666</v>
+      </c>
+      <c r="C35" t="n">
+        <v>65496.301</v>
+      </c>
+      <c r="D35" t="n">
+        <v>65750.93799999999</v>
+      </c>
+      <c r="E35" t="n">
+        <v>65389.938</v>
+      </c>
+      <c r="F35" t="n">
+        <v>65671.734</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3348</v>
+      </c>
+      <c r="H35" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>45373.16666666666</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>45373.16666666666</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.001550951359910768</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0001450431985638001</v>
+      </c>
+      <c r="N35" t="n">
+        <v>65583.73011904763</v>
+      </c>
+      <c r="O35" t="n">
+        <v>65571.30278870954</v>
+      </c>
+      <c r="P35" t="n">
+        <v>65625.94907634078</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>65592.85037839696</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-55.57239550686791</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-68.66856683788427</v>
+      </c>
+      <c r="T35" t="n">
+        <v>193.9456744803265</v>
+      </c>
+      <c r="U35" t="n">
+        <v>15.3869394564681</v>
+      </c>
+      <c r="V35" t="n">
+        <v>-4.386995184031548</v>
+      </c>
+      <c r="W35" t="n">
+        <v>-10.6171809425432</v>
+      </c>
+      <c r="X35" t="n">
+        <v>65856.1770389454</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>65331.02371784853</v>
+      </c>
+      <c r="Z35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>65680.734</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>65666.734</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>65672.734</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>65672.93399999999</v>
+      </c>
+      <c r="AF35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" s="2" t="n">
+        <v>45373.22916666666</v>
+      </c>
+      <c r="AI35" s="2" t="n">
+        <v>45373.20834490741</v>
+      </c>
+      <c r="AJ35" s="2" t="n">
+        <v>45373.21322916666</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>330.22</v>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>330.22</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>5363.700000000003</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45373.21875</v>
+      </c>
+      <c r="C36" t="n">
+        <v>65655.234</v>
+      </c>
+      <c r="D36" t="n">
+        <v>66041.836</v>
+      </c>
+      <c r="E36" t="n">
+        <v>65638.633</v>
+      </c>
+      <c r="F36" t="n">
+        <v>66017.242</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3553</v>
+      </c>
+      <c r="H36" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>45373.20833333334</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>45373.20833333334</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.001550831853062354</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0004595562556285084</v>
+      </c>
+      <c r="N36" t="n">
+        <v>65708.77829761906</v>
+      </c>
+      <c r="O36" t="n">
+        <v>65651.68093156128</v>
+      </c>
+      <c r="P36" t="n">
+        <v>65657.38812169134</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>65673.5380306158</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-34.61093569944205</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-58.8519072771446</v>
+      </c>
+      <c r="T36" t="n">
+        <v>207.9702084665601</v>
+      </c>
+      <c r="U36" t="n">
+        <v>63.05634778125386</v>
+      </c>
+      <c r="V36" t="n">
+        <v>17.63130443758564</v>
+      </c>
+      <c r="W36" t="n">
+        <v>15.3869394564681</v>
+      </c>
+      <c r="X36" t="n">
+        <v>65955.79781204565</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>65392.77824918595</v>
+      </c>
+      <c r="Z36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>66026.242</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>66012.242</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>66018.242</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>66018.442</v>
+      </c>
+      <c r="AF36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" s="2" t="n">
+        <v>45373.29166666666</v>
+      </c>
+      <c r="AI36" s="2" t="n">
+        <v>45373.22944444444</v>
+      </c>
+      <c r="AJ36" s="2" t="n">
+        <v>45373.22917824074</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>24.39999999995861</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>80.54000000000001</v>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>-183.51</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>5180.190000000002</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>888</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45373.30208333334</v>
+      </c>
+      <c r="C37" t="n">
+        <v>66021.266</v>
+      </c>
+      <c r="D37" t="n">
+        <v>66255.734</v>
+      </c>
+      <c r="E37" t="n">
+        <v>65958.477</v>
+      </c>
+      <c r="F37" t="n">
+        <v>66230.43799999999</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2208</v>
+      </c>
+      <c r="H37" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>45373.29166666666</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>45373.29166666666</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0007872236358849648</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.001272987789850287</v>
+      </c>
+      <c r="N37" t="n">
+        <v>66126.75196428568</v>
+      </c>
+      <c r="O37" t="n">
+        <v>65944.16982139212</v>
+      </c>
+      <c r="P37" t="n">
+        <v>65828.3513040213</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>66072.50666322665</v>
+      </c>
+      <c r="R37" t="n">
+        <v>33.01456334078102</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.031805353827651</v>
+      </c>
+      <c r="T37" t="n">
+        <v>259.4278031039357</v>
+      </c>
+      <c r="U37" t="n">
+        <v>89.66371448223072</v>
+      </c>
+      <c r="V37" t="n">
+        <v>41.89991159268538</v>
+      </c>
+      <c r="W37" t="n">
+        <v>85.86188132099051</v>
+      </c>
+      <c r="X37" t="n">
+        <v>66424.23419741697</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>65722.27912903634</v>
+      </c>
+      <c r="Z37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>66239.43799999999</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>66225.43799999999</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>66231.43799999999</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>66231.63799999999</v>
+      </c>
+      <c r="AF37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" s="2" t="n">
+        <v>45373.32291666666</v>
+      </c>
+      <c r="AI37" s="2" t="n">
+        <v>45373.31724537037</v>
+      </c>
+      <c r="AJ37" s="2" t="n">
+        <v>45373.31253472222</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>183.46</v>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>-183.51</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>4996.680000000002</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45373.59375</v>
+      </c>
+      <c r="C38" t="n">
+        <v>64529.344</v>
+      </c>
+      <c r="D38" t="n">
+        <v>64616.438</v>
+      </c>
+      <c r="E38" t="n">
+        <v>64337.84</v>
+      </c>
+      <c r="F38" t="n">
+        <v>64521.238</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3714</v>
+      </c>
+      <c r="H38" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>45373.58333333334</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>45373.58333333334</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.004804232592681305</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.004586786110383676</v>
+      </c>
+      <c r="N38" t="n">
+        <v>64534.62870238095</v>
+      </c>
+      <c r="O38" t="n">
+        <v>64892.15691570915</v>
+      </c>
+      <c r="P38" t="n">
+        <v>65301.23999675879</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>64367.77156312353</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-185.3325389257589</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-125.850280330264</v>
+      </c>
+      <c r="T38" t="n">
+        <v>748.9484440197529</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-79.40105744750326</v>
+      </c>
+      <c r="V38" t="n">
+        <v>-94.92539043685974</v>
+      </c>
+      <c r="W38" t="n">
+        <v>-182.603478500183</v>
+      </c>
+      <c r="X38" t="n">
+        <v>65378.85196255019</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>63355.19116369686</v>
+      </c>
+      <c r="Z38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>64512.238</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>64526.238</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>64520.238</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>64520.038</v>
+      </c>
+      <c r="AF38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" s="2" t="n">
+        <v>45373.625</v>
+      </c>
+      <c r="AI38" s="2" t="n">
+        <v>45373.60418981482</v>
+      </c>
+      <c r="AJ38" s="2" t="n">
+        <v>45373.60416666666</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>-33.03</v>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>-183.51</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>4813.170000000002</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45373.61458333334</v>
+      </c>
+      <c r="C39" t="n">
+        <v>64573.941</v>
+      </c>
+      <c r="D39" t="n">
+        <v>64575.25</v>
+      </c>
+      <c r="E39" t="n">
+        <v>64245.938</v>
+      </c>
+      <c r="F39" t="n">
+        <v>64274.031</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3639</v>
+      </c>
+      <c r="H39" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>45373.58333333334</v>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>45373.58333333334</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.004804232592681305</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.004586786110383676</v>
+      </c>
+      <c r="N39" t="n">
+        <v>64534.62870238095</v>
+      </c>
+      <c r="O39" t="n">
+        <v>64755.82625325921</v>
+      </c>
+      <c r="P39" t="n">
+        <v>65175.36731409362</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>64270.75881011358</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-201.1366899709683</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-151.1533270622421</v>
+      </c>
+      <c r="T39" t="n">
+        <v>763.2057850265184</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-64.55654110760952</v>
+      </c>
+      <c r="V39" t="n">
+        <v>-32.45621190233942</v>
+      </c>
+      <c r="W39" t="n">
+        <v>-79.40105744750326</v>
+      </c>
+      <c r="X39" t="n">
+        <v>65301.08661989938</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>63238.93100032778</v>
+      </c>
+      <c r="Z39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>64265.031</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>64279.031</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>64273.031</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>64272.83100000001</v>
+      </c>
+      <c r="AF39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" s="2" t="n">
+        <v>45373.63541666666</v>
+      </c>
+      <c r="AI39" s="2" t="n">
+        <v>45373.625</v>
+      </c>
+      <c r="AJ39" s="2" t="n">
+        <v>45373.6250462963</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>420.29</v>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>330.22</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>5143.390000000002</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45373.64583333334</v>
+      </c>
+      <c r="C40" t="n">
+        <v>64218.258</v>
+      </c>
+      <c r="D40" t="n">
+        <v>64267.137</v>
+      </c>
+      <c r="E40" t="n">
+        <v>63581.84</v>
+      </c>
+      <c r="F40" t="n">
+        <v>63657.137</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5993</v>
+      </c>
+      <c r="H40" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>45373.625</v>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>45373.625</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.007714230760732012</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.006217695592093156</v>
+      </c>
+      <c r="N40" t="n">
+        <v>63878.12938095234</v>
+      </c>
+      <c r="O40" t="n">
+        <v>64446.94601050888</v>
+      </c>
+      <c r="P40" t="n">
+        <v>64930.33334495314</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>64003.64335844509</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-240.3459114083016</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-188.0504309853773</v>
+      </c>
+      <c r="T40" t="n">
+        <v>802.2384589643973</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-122.3666463708214</v>
+      </c>
+      <c r="V40" t="n">
+        <v>-52.84449019613385</v>
+      </c>
+      <c r="W40" t="n">
+        <v>-91.90431510153576</v>
+      </c>
+      <c r="X40" t="n">
+        <v>65086.66527804702</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>62919.12143884315</v>
+      </c>
+      <c r="Z40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>63648.137</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>63662.137</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>63656.137</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>63655.93700000001</v>
+      </c>
+      <c r="AF40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" s="2" t="n">
+        <v>45373.66666666666</v>
+      </c>
+      <c r="AI40" s="2" t="n">
+        <v>45373.65643518518</v>
+      </c>
+      <c r="AJ40" s="2" t="n">
+        <v>45373.65625</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>-183.51</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>4959.880000000002</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>951</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C41" t="n">
+        <v>66565.45299999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>67061.734</v>
+      </c>
+      <c r="E41" t="n">
+        <v>66500.008</v>
+      </c>
+      <c r="F41" t="n">
+        <v>66863.836</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4645</v>
+      </c>
+      <c r="H41" t="n">
+        <v>56172</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.0022928511217314</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.006790398182222478</v>
+      </c>
+      <c r="N41" t="n">
+        <v>64837.8689761905</v>
+      </c>
+      <c r="O41" t="n">
+        <v>64117.07964466151</v>
+      </c>
+      <c r="P41" t="n">
+        <v>63961.91523483717</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>64281.56864912283</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-12.64248326919915</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-114.4633656801237</v>
+      </c>
+      <c r="T41" t="n">
+        <v>682.4968287586674</v>
+      </c>
+      <c r="U41" t="n">
+        <v>577.4305338837876</v>
+      </c>
+      <c r="V41" t="n">
+        <v>-18.03673993807752</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2.547437564448046</v>
+      </c>
+      <c r="X41" t="n">
+        <v>65204.43936794704</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>63360.19793029863</v>
+      </c>
+      <c r="Z41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>66872.836</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>66858.836</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>66864.836</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>66865.03599999999</v>
+      </c>
+      <c r="AF41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" s="2" t="n">
+        <v>45376.02083333334</v>
+      </c>
+      <c r="AI41" s="2" t="n">
+        <v>45376.01042824074</v>
+      </c>
+      <c r="AJ41" s="2" t="n">
+        <v>45376.01072916666</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>572.37</v>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>330.22</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>5290.100000000002</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
         <v>13</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AT41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45376.54166666666</v>
+      </c>
+      <c r="C42" t="n">
+        <v>67039.734</v>
+      </c>
+      <c r="D42" t="n">
+        <v>67058.836</v>
+      </c>
+      <c r="E42" t="n">
+        <v>66820.102</v>
+      </c>
+      <c r="F42" t="n">
+        <v>66893.734</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2728</v>
+      </c>
+      <c r="H42" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>45376.54166666666</v>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>45376.54166666666</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0005201248573397732</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.001157530885277368</v>
+      </c>
+      <c r="N42" t="n">
+        <v>66908.07983333337</v>
+      </c>
+      <c r="O42" t="n">
+        <v>67035.32751710339</v>
+      </c>
+      <c r="P42" t="n">
+        <v>67004.91217574821</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>67000.64820227039</v>
+      </c>
+      <c r="R42" t="n">
+        <v>60.22961849642161</v>
+      </c>
+      <c r="S42" t="n">
+        <v>88.53546497319473</v>
+      </c>
+      <c r="T42" t="n">
+        <v>197.5113292967729</v>
+      </c>
+      <c r="U42" t="n">
+        <v>-29.50057894733618</v>
+      </c>
+      <c r="V42" t="n">
+        <v>6.78082937731233</v>
+      </c>
+      <c r="W42" t="n">
+        <v>-2.839945992425783</v>
+      </c>
+      <c r="X42" t="n">
+        <v>67267.28849682103</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>66732.50790771974</v>
+      </c>
+      <c r="Z42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>66884.734</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>66898.734</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>66892.734</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>66892.534</v>
+      </c>
+      <c r="AF42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" s="2" t="n">
+        <v>45376.57291666666</v>
+      </c>
+      <c r="AI42" s="2" t="n">
+        <v>45376.55216435185</v>
+      </c>
+      <c r="AJ42" s="2" t="n">
+        <v>45376.55229166667</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>436.62</v>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>330.22</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>5620.320000000002</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45376.5625</v>
+      </c>
+      <c r="C43" t="n">
+        <v>66907.914</v>
+      </c>
+      <c r="D43" t="n">
+        <v>67040.93799999999</v>
+      </c>
+      <c r="E43" t="n">
+        <v>66784.734</v>
+      </c>
+      <c r="F43" t="n">
+        <v>66799.141</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3152</v>
+      </c>
+      <c r="H43" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>45376.54166666666</v>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>45376.54166666666</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0005201248573397732</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.001157530885277368</v>
+      </c>
+      <c r="N43" t="n">
+        <v>66908.07983333337</v>
+      </c>
+      <c r="O43" t="n">
+        <v>66982.64167792609</v>
+      </c>
+      <c r="P43" t="n">
+        <v>66983.14187084038</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>66956.24425490196</v>
+      </c>
+      <c r="R43" t="n">
+        <v>42.56383611775527</v>
+      </c>
+      <c r="S43" t="n">
+        <v>73.58279438073478</v>
+      </c>
+      <c r="T43" t="n">
+        <v>171.6944226657484</v>
+      </c>
+      <c r="U43" t="n">
+        <v>-31.17798658410902</v>
+      </c>
+      <c r="V43" t="n">
+        <v>-13.22596078431525</v>
+      </c>
+      <c r="W43" t="n">
+        <v>-29.50057894733618</v>
+      </c>
+      <c r="X43" t="n">
+        <v>67188.03172550072</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>66722.9567843032</v>
+      </c>
+      <c r="Z43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>66790.141</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>66804.141</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>66798.141</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>66797.94100000001</v>
+      </c>
+      <c r="AF43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" s="2" t="n">
+        <v>45376.57291666666</v>
+      </c>
+      <c r="AJ43" s="2" t="n">
+        <v>45376.57299768519</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>448.89</v>
+      </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>330.2</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>5950.520000000002</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45376.65625</v>
+      </c>
+      <c r="C44" t="n">
+        <v>67210.469</v>
+      </c>
+      <c r="D44" t="n">
+        <v>68075.102</v>
+      </c>
+      <c r="E44" t="n">
+        <v>67127.32799999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>68025.29700000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4191</v>
+      </c>
+      <c r="H44" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>45376.625</v>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>45376.625</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.0009106716941868153</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.001357553683152374</v>
+      </c>
+      <c r="N44" t="n">
+        <v>67338.23538095239</v>
+      </c>
+      <c r="O44" t="n">
+        <v>67192.28242098406</v>
+      </c>
+      <c r="P44" t="n">
+        <v>67090.31260665772</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>67213.52379738558</v>
+      </c>
+      <c r="R44" t="n">
+        <v>58.45112510492618</v>
+      </c>
+      <c r="S44" t="n">
+        <v>43.58613317523901</v>
+      </c>
+      <c r="T44" t="n">
+        <v>240.1377189500436</v>
+      </c>
+      <c r="U44" t="n">
+        <v>176.1136401788535</v>
+      </c>
+      <c r="V44" t="n">
+        <v>22.77724355008104</v>
+      </c>
+      <c r="W44" t="n">
+        <v>-11.29927244583087</v>
+      </c>
+      <c r="X44" t="n">
+        <v>67539.20971796814</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>66889.33787680302</v>
+      </c>
+      <c r="Z44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>68034.29700000001</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>68020.29700000001</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>68026.29700000001</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>68026.497</v>
+      </c>
+      <c r="AF44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" s="2" t="n">
+        <v>45376.67708333334</v>
+      </c>
+      <c r="AI44" s="2" t="n">
+        <v>45376.66667824074</v>
+      </c>
+      <c r="AJ44" s="2" t="n">
+        <v>45376.6684837963</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>689.59</v>
+      </c>
+      <c r="AM44" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>330.21</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>6280.730000000002</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45376.85416666666</v>
+      </c>
+      <c r="C45" t="n">
+        <v>70673.30499999999</v>
+      </c>
+      <c r="D45" t="n">
+        <v>70713.734</v>
+      </c>
+      <c r="E45" t="n">
+        <v>70394.727</v>
+      </c>
+      <c r="F45" t="n">
+        <v>70693.93799999999</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2997</v>
+      </c>
+      <c r="H45" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>45376.83333333334</v>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>45376.83333333334</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.01029109282332996</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.008307327654229174</v>
+      </c>
+      <c r="N45" t="n">
+        <v>70676.44911904761</v>
+      </c>
+      <c r="O45" t="n">
+        <v>70240.98298234682</v>
+      </c>
+      <c r="P45" t="n">
+        <v>69453.14254263591</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>70765.42716443067</v>
+      </c>
+      <c r="R45" t="n">
+        <v>450.050947947122</v>
+      </c>
+      <c r="S45" t="n">
+        <v>417.2033136164317</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1314.296942912131</v>
+      </c>
+      <c r="U45" t="n">
+        <v>34.58676608178939</v>
+      </c>
+      <c r="V45" t="n">
+        <v>17.56707671144977</v>
+      </c>
+      <c r="W45" t="n">
+        <v>-23.62662229103444</v>
+      </c>
+      <c r="X45" t="n">
+        <v>72541.22803736205</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>68991.1262914993</v>
+      </c>
+      <c r="Z45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>70702.93799999999</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>70688.93799999999</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>70694.93799999999</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>70695.13799999999</v>
+      </c>
+      <c r="AF45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" s="2" t="n">
+        <v>45376.875</v>
+      </c>
+      <c r="AI45" s="2" t="n">
+        <v>45376.86530092593</v>
+      </c>
+      <c r="AJ45" s="2" t="n">
+        <v>45376.86459490741</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>12.0555555556267</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>39.81</v>
+      </c>
+      <c r="AM45" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>-183.5</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>6097.230000000002</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45377.11458333334</v>
+      </c>
+      <c r="C46" t="n">
+        <v>70127.67200000001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>70169.141</v>
+      </c>
+      <c r="E46" t="n">
+        <v>69888.398</v>
+      </c>
+      <c r="F46" t="n">
+        <v>69933.336</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2721</v>
+      </c>
+      <c r="H46" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>45377.08333333334</v>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>45377.08333333334</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.002121088099824363</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.001688686934387332</v>
+      </c>
+      <c r="N46" t="n">
+        <v>70059.1386190476</v>
+      </c>
+      <c r="O46" t="n">
+        <v>70121.13460268766</v>
+      </c>
+      <c r="P46" t="n">
+        <v>70125.82557902878</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>69955.98006088752</v>
+      </c>
+      <c r="R46" t="n">
+        <v>79.65378220443381</v>
+      </c>
+      <c r="S46" t="n">
+        <v>141.3676804268307</v>
+      </c>
+      <c r="T46" t="n">
+        <v>393.6943252892668</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-10.56840798078338</v>
+      </c>
+      <c r="V46" t="n">
+        <v>6.320881320963963</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-19.39061575494998</v>
+      </c>
+      <c r="X46" t="n">
+        <v>70487.46740002804</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>69422.99272174701</v>
+      </c>
+      <c r="Z46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>69924.336</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>69938.336</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>69932.336</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>69932.136</v>
+      </c>
+      <c r="AF46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" s="2" t="n">
+        <v>45377.6875</v>
+      </c>
+      <c r="AI46" s="2" t="n">
+        <v>45377.12516203704</v>
+      </c>
+      <c r="AJ46" s="2" t="n">
+        <v>45377.1250462963</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>-183.5</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>5913.730000000002</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45377.46875</v>
+      </c>
+      <c r="C47" t="n">
+        <v>70663.141</v>
+      </c>
+      <c r="D47" t="n">
+        <v>71146.336</v>
+      </c>
+      <c r="E47" t="n">
+        <v>70651.914</v>
+      </c>
+      <c r="F47" t="n">
+        <v>71064.234</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3631</v>
+      </c>
+      <c r="H47" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="n">
+        <v>45377.45833333334</v>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>45377.45833333334</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.0004812444440582823</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.002858910431766345</v>
+      </c>
+      <c r="N47" t="n">
+        <v>70793.48150000001</v>
+      </c>
+      <c r="O47" t="n">
+        <v>70755.09928945894</v>
+      </c>
+      <c r="P47" t="n">
+        <v>70635.35843888813</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>70895.2666811146</v>
+      </c>
+      <c r="R47" t="n">
+        <v>75.35400516730442</v>
+      </c>
+      <c r="S47" t="n">
+        <v>73.37633951971327</v>
+      </c>
+      <c r="T47" t="n">
+        <v>277.2514217235887</v>
+      </c>
+      <c r="U47" t="n">
+        <v>77.78933952530497</v>
+      </c>
+      <c r="V47" t="n">
+        <v>5.041959064314142</v>
+      </c>
+      <c r="W47" t="n">
+        <v>18.64240626085666</v>
+      </c>
+      <c r="X47" t="n">
+        <v>71271.05610044145</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>70520.97726178776</v>
+      </c>
+      <c r="Z47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>71073.234</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>71059.234</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>71065.234</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>71065.43399999999</v>
+      </c>
+      <c r="AF47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" s="2" t="n">
+        <v>45377.5</v>
+      </c>
+      <c r="AI47" s="2" t="n">
+        <v>45377.48211805556</v>
+      </c>
+      <c r="AJ47" s="2" t="n">
+        <v>45377.47916666666</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-135.24</v>
+      </c>
+      <c r="AM47" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>-183.5</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>5730.230000000002</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45377.64583333334</v>
+      </c>
+      <c r="C48" t="n">
+        <v>70850.734</v>
+      </c>
+      <c r="D48" t="n">
+        <v>70853.641</v>
+      </c>
+      <c r="E48" t="n">
+        <v>70099.734</v>
+      </c>
+      <c r="F48" t="n">
+        <v>70591.133</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4962</v>
+      </c>
+      <c r="H48" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>45377.625</v>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>45377.625</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.0003930621327382492</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.001024577644185336</v>
+      </c>
+      <c r="N48" t="n">
+        <v>70828.69496428568</v>
+      </c>
+      <c r="O48" t="n">
+        <v>70842.20227776936</v>
+      </c>
+      <c r="P48" t="n">
+        <v>70804.90013008931</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>70786.38572755417</v>
+      </c>
+      <c r="R48" t="n">
+        <v>40.35697022067325</v>
+      </c>
+      <c r="S48" t="n">
+        <v>54.43662104398974</v>
+      </c>
+      <c r="T48" t="n">
+        <v>193.6810814653583</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-80.73943309251626</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-24.12295424837794</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-13.92532335742726</v>
+      </c>
+      <c r="X48" t="n">
+        <v>71047.8551875324</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>70523.41626757593</v>
+      </c>
+      <c r="Z48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>70582.133</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>70596.133</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>70590.133</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>70589.933</v>
+      </c>
+      <c r="AF48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" s="2" t="n">
+        <v>45377.66666666666</v>
+      </c>
+      <c r="AI48" s="2" t="n">
+        <v>45377.66408564815</v>
+      </c>
+      <c r="AJ48" s="2" t="n">
+        <v>45377.65625</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>39.93333333330359</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="AM48" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>-183.5</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>5546.730000000002</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45378.10416666666</v>
+      </c>
+      <c r="C49" t="n">
+        <v>70139.883</v>
+      </c>
+      <c r="D49" t="n">
+        <v>70514.836</v>
+      </c>
+      <c r="E49" t="n">
+        <v>70059.20299999999</v>
+      </c>
+      <c r="F49" t="n">
+        <v>70499.734</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3039</v>
+      </c>
+      <c r="H49" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <v>45378.08333333334</v>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>45378.08333333334</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0009647137503259336</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0006549093548391471</v>
+      </c>
+      <c r="N49" t="n">
+        <v>70248.43171428579</v>
+      </c>
+      <c r="O49" t="n">
+        <v>70130.26130457023</v>
+      </c>
+      <c r="P49" t="n">
+        <v>70090.41092857739</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>70228.68094289648</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-2.382722920607193</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-25.20437975677894</v>
+      </c>
+      <c r="T49" t="n">
+        <v>221.9999742606576</v>
+      </c>
+      <c r="U49" t="n">
+        <v>65.7826590987097</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-11.58755933953216</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-17.07723563801846</v>
+      </c>
+      <c r="X49" t="n">
+        <v>70529.88090814836</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>69928.98097764459</v>
+      </c>
+      <c r="Z49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>70508.734</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>70494.734</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>70500.734</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>70500.93399999999</v>
+      </c>
+      <c r="AF49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" s="2" t="n">
+        <v>45378.125</v>
+      </c>
+      <c r="AI49" s="2" t="n">
+        <v>45378.12046296296</v>
+      </c>
+      <c r="AJ49" s="2" t="n">
+        <v>45378.11458333334</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>7.822222222198939</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="AM49" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>-183.5</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>5363.230000000002</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45378.19791666666</v>
+      </c>
+      <c r="C50" t="n">
+        <v>70419.80499999999</v>
+      </c>
+      <c r="D50" t="n">
+        <v>70640.734</v>
+      </c>
+      <c r="E50" t="n">
+        <v>70342.836</v>
+      </c>
+      <c r="F50" t="n">
+        <v>70628.734</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2359</v>
+      </c>
+      <c r="H50" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>45378.16666666666</v>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>45378.16666666666</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.001693097536539186</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.001764338498368205</v>
+      </c>
+      <c r="N50" t="n">
+        <v>70524.39601190477</v>
+      </c>
+      <c r="O50" t="n">
+        <v>70402.27243629131</v>
+      </c>
+      <c r="P50" t="n">
+        <v>70287.95860683637</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>70521.1701809426</v>
+      </c>
+      <c r="R50" t="n">
+        <v>48.79864100331906</v>
+      </c>
+      <c r="S50" t="n">
+        <v>31.78142198944984</v>
+      </c>
+      <c r="T50" t="n">
+        <v>257.6537044732356</v>
+      </c>
+      <c r="U50" t="n">
+        <v>26.40784657726181</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-1.801149982711649</v>
+      </c>
+      <c r="W50" t="n">
+        <v>15.82693257647043</v>
+      </c>
+      <c r="X50" t="n">
+        <v>70870.50268198147</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>70173.33767990374</v>
+      </c>
+      <c r="Z50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>70637.734</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>70623.734</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>70629.734</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>70629.93399999999</v>
+      </c>
+      <c r="AF50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" s="2" t="n">
+        <v>45378.63541666666</v>
+      </c>
+      <c r="AI50" s="2" t="n">
+        <v>45378.20835648148</v>
+      </c>
+      <c r="AJ50" s="2" t="n">
+        <v>45378.20847222222</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1051.71</v>
+      </c>
+      <c r="AM50" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>330.21</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>5693.440000000002</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>1184</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>45378.42708333334</v>
+      </c>
+      <c r="C51" t="n">
+        <v>69971.93799999999</v>
+      </c>
+      <c r="D51" t="n">
+        <v>70035.289</v>
+      </c>
+      <c r="E51" t="n">
+        <v>69865.109</v>
+      </c>
+      <c r="F51" t="n">
+        <v>69870.773</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2777</v>
+      </c>
+      <c r="H51" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="n">
+        <v>45378.41666666666</v>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>45378.41666666666</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.001360252019893764</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.0005390343395709375</v>
+      </c>
+      <c r="N51" t="n">
+        <v>69945.13336904757</v>
+      </c>
+      <c r="O51" t="n">
+        <v>70077.340677457</v>
+      </c>
+      <c r="P51" t="n">
+        <v>70193.66811234283</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>69960.81614103889</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-39.39926639477198</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-9.018725667588877</v>
+      </c>
+      <c r="T51" t="n">
+        <v>244.5928313811262</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-55.77106639147678</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-46.12381424145133</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-83.67521912627853</v>
+      </c>
+      <c r="X51" t="n">
+        <v>70291.0164634034</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>69629.11581867437</v>
+      </c>
+      <c r="Z51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>69861.773</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>69875.773</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>69869.773</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>69869.573</v>
+      </c>
+      <c r="AF51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" s="2" t="n">
+        <v>45378.44791666666</v>
+      </c>
+      <c r="AI51" s="2" t="n">
+        <v>45378.43819444445</v>
+      </c>
+      <c r="AJ51" s="2" t="n">
+        <v>45378.43756944445</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>66.05555555563316</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>218.12</v>
+      </c>
+      <c r="AM51" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>-183.5</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>5509.940000000002</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>1226</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>45378.86458333334</v>
+      </c>
+      <c r="C52" t="n">
+        <v>68842.336</v>
+      </c>
+      <c r="D52" t="n">
+        <v>68931.734</v>
+      </c>
+      <c r="E52" t="n">
+        <v>68482.844</v>
+      </c>
+      <c r="F52" t="n">
+        <v>68513.336</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3908</v>
+      </c>
+      <c r="H52" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>45378.83333333334</v>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>45378.83333333334</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.003017500934594677</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.007565759910868775</v>
+      </c>
+      <c r="N52" t="n">
+        <v>68810.27211904756</v>
+      </c>
+      <c r="O52" t="n">
+        <v>68960.54763389585</v>
+      </c>
+      <c r="P52" t="n">
+        <v>69311.89947361597</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>68667.93871345033</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-183.5806297209929</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-152.9781778580092</v>
+      </c>
+      <c r="T52" t="n">
+        <v>812.8811615800392</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-75.30810629510961</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-68.70428070181515</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-58.14954901950841</v>
+      </c>
+      <c r="X52" t="n">
+        <v>69765.32828158338</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>67569.04914531729</v>
+      </c>
+      <c r="Z52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>68504.336</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>68518.336</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>68512.336</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>68512.136</v>
+      </c>
+      <c r="AF52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" s="2" t="n">
+        <v>45378.90232638889</v>
+      </c>
+      <c r="AJ52" s="2" t="n">
+        <v>45378.875</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>-183.5</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>5326.440000000002</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>1229</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>45378.89583333334</v>
+      </c>
+      <c r="C53" t="n">
+        <v>68797.867</v>
+      </c>
+      <c r="D53" t="n">
+        <v>68815.734</v>
+      </c>
+      <c r="E53" t="n">
+        <v>68483.766</v>
+      </c>
+      <c r="F53" t="n">
+        <v>68628.539</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3552</v>
+      </c>
+      <c r="H53" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>45378.875</v>
+      </c>
+      <c r="K53" s="2" t="n">
+        <v>45378.875</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.001762360028764762</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.006785523686852912</v>
+      </c>
+      <c r="N53" t="n">
+        <v>68651.29003571425</v>
+      </c>
+      <c r="O53" t="n">
+        <v>68888.80718466791</v>
+      </c>
+      <c r="P53" t="n">
+        <v>69204.00809263065</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>68730.99199965599</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-178.6281747387256</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-164.9565594704804</v>
+      </c>
+      <c r="T53" t="n">
+        <v>532.0401122328715</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-27.00288923294283</v>
+      </c>
+      <c r="V53" t="n">
+        <v>42.80008083939902</v>
+      </c>
+      <c r="W53" t="n">
+        <v>47.25609459920088</v>
+      </c>
+      <c r="X53" t="n">
+        <v>69449.24615117037</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>68011.23784814161</v>
+      </c>
+      <c r="Z53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>68619.539</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>68633.539</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>68627.539</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>68627.33900000001</v>
+      </c>
+      <c r="AF53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" s="2" t="n">
+        <v>45378.90625</v>
+      </c>
+      <c r="AJ53" s="2" t="n">
+        <v>45378.90626157408</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>423.58</v>
+      </c>
+      <c r="AM53" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>330.21</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>5656.650000000002</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>1246</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45379.07291666666</v>
+      </c>
+      <c r="C54" t="n">
+        <v>69212.57000000001</v>
+      </c>
+      <c r="D54" t="n">
+        <v>69684.234</v>
+      </c>
+      <c r="E54" t="n">
+        <v>69157.961</v>
+      </c>
+      <c r="F54" t="n">
+        <v>69514.43799999999</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3134</v>
+      </c>
+      <c r="H54" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <v>45379.04166666666</v>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>45379.04166666666</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.001697861872985741</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0005278649721568291</v>
+      </c>
+      <c r="N54" t="n">
+        <v>69214.35366666671</v>
+      </c>
+      <c r="O54" t="n">
+        <v>69258.8537949146</v>
+      </c>
+      <c r="P54" t="n">
+        <v>69219.92116141196</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>69426.315999656</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-19.4284612856718</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-54.55586238977171</v>
+      </c>
+      <c r="T54" t="n">
+        <v>286.0852492647329</v>
+      </c>
+      <c r="U54" t="n">
+        <v>51.22973546604044</v>
+      </c>
+      <c r="V54" t="n">
+        <v>13.63388132098771</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-11.94725662191922</v>
+      </c>
+      <c r="X54" t="n">
+        <v>69814.03108616339</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>69040.10091314861</v>
+      </c>
+      <c r="Z54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>69523.43799999999</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>69509.43799999999</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>69515.43799999999</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>69515.63799999999</v>
+      </c>
+      <c r="AF54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" s="2" t="n">
+        <v>45379.09375</v>
+      </c>
+      <c r="AI54" s="2" t="n">
+        <v>45379.08660879629</v>
+      </c>
+      <c r="AJ54" s="2" t="n">
+        <v>45379.08334490741</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>75.5111111111344</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>249.31</v>
+      </c>
+      <c r="AM54" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>-183.5</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>5473.150000000002</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>1255</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>45379.16666666666</v>
+      </c>
+      <c r="C55" t="n">
+        <v>69487.836</v>
+      </c>
+      <c r="D55" t="n">
+        <v>69624.43799999999</v>
+      </c>
+      <c r="E55" t="n">
+        <v>69383.391</v>
+      </c>
+      <c r="F55" t="n">
+        <v>69606.734</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2288</v>
+      </c>
+      <c r="H55" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>45379.16666666666</v>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>45379.16666666666</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.0009134362788088717</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.002758223266406324</v>
+      </c>
+      <c r="N55" t="n">
+        <v>69501.23880952381</v>
+      </c>
+      <c r="O55" t="n">
+        <v>69513.17663457736</v>
+      </c>
+      <c r="P55" t="n">
+        <v>69409.36837521664</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>69666.174375645</v>
+      </c>
+      <c r="R55" t="n">
+        <v>37.59012696043646</v>
+      </c>
+      <c r="S55" t="n">
+        <v>19.54076479545461</v>
+      </c>
+      <c r="T55" t="n">
+        <v>262.1483497293768</v>
+      </c>
+      <c r="U55" t="n">
+        <v>12.9938235294394</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-4.966829033393878</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-1.832324045390124</v>
+      </c>
+      <c r="X55" t="n">
+        <v>70021.57464777966</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>69312.27410351034</v>
+      </c>
+      <c r="Z55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>69615.734</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>69601.734</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>69607.734</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>69607.93399999999</v>
+      </c>
+      <c r="AF55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" s="2" t="n">
+        <v>45379.27083333334</v>
+      </c>
+      <c r="AI55" s="2" t="n">
+        <v>45379.26251157407</v>
+      </c>
+      <c r="AJ55" s="2" t="n">
+        <v>45379.17710648148</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>-183.5</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>5289.650000000002</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>1280</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>45379.42708333334</v>
+      </c>
+      <c r="C56" t="n">
+        <v>70366.891</v>
+      </c>
+      <c r="D56" t="n">
+        <v>70641.836</v>
+      </c>
+      <c r="E56" t="n">
+        <v>70325.773</v>
+      </c>
+      <c r="F56" t="n">
+        <v>70523.539</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2530</v>
+      </c>
+      <c r="H56" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <v>45379.41666666666</v>
+      </c>
+      <c r="K56" s="2" t="n">
+        <v>45379.41666666666</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.00273315351307267</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.002251230319971287</v>
+      </c>
+      <c r="N56" t="n">
+        <v>70382.30941666667</v>
+      </c>
+      <c r="O56" t="n">
+        <v>70241.7823648847</v>
+      </c>
+      <c r="P56" t="n">
+        <v>69971.7340635522</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>70505.80000481597</v>
+      </c>
+      <c r="R56" t="n">
+        <v>137.8567822085461</v>
+      </c>
+      <c r="S56" t="n">
+        <v>111.7748125133033</v>
+      </c>
+      <c r="T56" t="n">
+        <v>471.9383071130815</v>
+      </c>
+      <c r="U56" t="n">
+        <v>37.02962125906197</v>
+      </c>
+      <c r="V56" t="n">
+        <v>8.591421396631631</v>
+      </c>
+      <c r="W56" t="n">
+        <v>55.19320433436951</v>
+      </c>
+      <c r="X56" t="n">
+        <v>71144.41671941863</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>69868.68329021332</v>
+      </c>
+      <c r="Z56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>70532.539</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>70518.539</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>70524.539</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>70524.739</v>
+      </c>
+      <c r="AF56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" s="2" t="n">
+        <v>45379.44791666666</v>
+      </c>
+      <c r="AI56" s="2" t="n">
+        <v>45379.4375</v>
+      </c>
+      <c r="AJ56" s="2" t="n">
+        <v>45379.43762731482</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>594.1900000000001</v>
+      </c>
+      <c r="AM56" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>330.21</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>5619.860000000002</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>45379.53125</v>
+      </c>
+      <c r="C57" t="n">
+        <v>70619.539</v>
+      </c>
+      <c r="D57" t="n">
+        <v>70904.734</v>
+      </c>
+      <c r="E57" t="n">
+        <v>70609.836</v>
+      </c>
+      <c r="F57" t="n">
+        <v>70846.234</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2884</v>
+      </c>
+      <c r="H57" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>45379.5</v>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>45379.5</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.002606754593908459</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.003136264022568223</v>
+      </c>
+      <c r="N57" t="n">
+        <v>70735.60220238089</v>
+      </c>
+      <c r="O57" t="n">
+        <v>70577.46487896577</v>
+      </c>
+      <c r="P57" t="n">
+        <v>70338.50128066988</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>70703.77733230128</v>
+      </c>
+      <c r="R57" t="n">
+        <v>147.4255982585019</v>
+      </c>
+      <c r="S57" t="n">
+        <v>147.1485429655619</v>
+      </c>
+      <c r="T57" t="n">
+        <v>354.8051919831224</v>
+      </c>
+      <c r="U57" t="n">
+        <v>28.14390505671327</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-13.11230512558541</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-69.79586824904254</v>
+      </c>
+      <c r="X57" t="n">
+        <v>71184.2643414785</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>70224.79032312406</v>
+      </c>
+      <c r="Z57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>70855.234</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>70841.234</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>70847.234</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>70847.43399999999</v>
+      </c>
+      <c r="AF57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" s="2" t="n">
+        <v>45379.625</v>
+      </c>
+      <c r="AI57" s="2" t="n">
+        <v>45379.54166666666</v>
+      </c>
+      <c r="AJ57" s="2" t="n">
+        <v>45379.54166666666</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>943.11</v>
+      </c>
+      <c r="AM57" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>330.21</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>5950.070000000002</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>45379.6875</v>
+      </c>
+      <c r="C58" t="n">
+        <v>71067.93799999999</v>
+      </c>
+      <c r="D58" t="n">
+        <v>71538.93799999999</v>
+      </c>
+      <c r="E58" t="n">
+        <v>71051.492</v>
+      </c>
+      <c r="F58" t="n">
+        <v>71311.734</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4871</v>
+      </c>
+      <c r="H58" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>45379.66666666666</v>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>45379.66666666666</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.0008042376667104542</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.001654725057658653</v>
+      </c>
+      <c r="N58" t="n">
+        <v>71123.98029761904</v>
+      </c>
+      <c r="O58" t="n">
+        <v>70915.40914237499</v>
+      </c>
+      <c r="P58" t="n">
+        <v>70712.191561638</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>71024.9398974888</v>
+      </c>
+      <c r="R58" t="n">
+        <v>127.3115812623582</v>
+      </c>
+      <c r="S58" t="n">
+        <v>122.7503645109692</v>
+      </c>
+      <c r="T58" t="n">
+        <v>202.6852653595476</v>
+      </c>
+      <c r="U58" t="n">
+        <v>89.39887684897985</v>
+      </c>
+      <c r="V58" t="n">
+        <v>51.23892707259802</v>
+      </c>
+      <c r="W58" t="n">
+        <v>19.11254317162093</v>
+      </c>
+      <c r="X58" t="n">
+        <v>71300.06500572419</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>70751.31478925342</v>
+      </c>
+      <c r="Z58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>71320.734</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>71306.734</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>71312.734</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>71312.93399999999</v>
+      </c>
+      <c r="AF58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" s="2" t="n">
+        <v>45379.70833333334</v>
+      </c>
+      <c r="AI58" s="2" t="n">
+        <v>45379.69792824074</v>
+      </c>
+      <c r="AJ58" s="2" t="n">
+        <v>45379.69791666666</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>36.7222222223063</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>121.26</v>
+      </c>
+      <c r="AM58" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>-183.5</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>5766.570000000002</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>1309</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>45379.72916666666</v>
+      </c>
+      <c r="C59" t="n">
+        <v>71099.539</v>
+      </c>
+      <c r="D59" t="n">
+        <v>71263.836</v>
+      </c>
+      <c r="E59" t="n">
+        <v>70991.06299999999</v>
+      </c>
+      <c r="F59" t="n">
+        <v>71260.039</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3426</v>
+      </c>
+      <c r="H59" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>45379.70833333334</v>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>45379.70833333334</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.0008043229500118954</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.001654648122271646</v>
+      </c>
+      <c r="N59" t="n">
+        <v>71234.64013095234</v>
+      </c>
+      <c r="O59" t="n">
+        <v>71100.49668056134</v>
+      </c>
+      <c r="P59" t="n">
+        <v>70869.88664892026</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>71289.56544513238</v>
+      </c>
+      <c r="R59" t="n">
+        <v>140.5032397045579</v>
+      </c>
+      <c r="S59" t="n">
+        <v>133.8806260567329</v>
+      </c>
+      <c r="T59" t="n">
+        <v>292.5960225761714</v>
+      </c>
+      <c r="U59" t="n">
+        <v>57.01556553144474</v>
+      </c>
+      <c r="V59" t="n">
+        <v>31.70647058814939</v>
+      </c>
+      <c r="W59" t="n">
+        <v>65.82434606133029</v>
+      </c>
+      <c r="X59" t="n">
+        <v>71686.07007561022</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>70894.56081465454</v>
+      </c>
+      <c r="Z59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>71269.039</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>71255.039</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>71261.039</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>71261.239</v>
+      </c>
+      <c r="AF59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" s="2" t="n">
+        <v>45379.75</v>
+      </c>
+      <c r="AI59" s="2" t="n">
+        <v>45379.73960648148</v>
+      </c>
+      <c r="AJ59" s="2" t="n">
+        <v>45379.74074074074</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>451.1</v>
+      </c>
+      <c r="AM59" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>330.21</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>6096.780000000002</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>1335</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C60" t="n">
+        <v>70797.477</v>
+      </c>
+      <c r="D60" t="n">
+        <v>70846.836</v>
+      </c>
+      <c r="E60" t="n">
+        <v>70563.477</v>
+      </c>
+      <c r="F60" t="n">
+        <v>70675.07000000001</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2788</v>
+      </c>
+      <c r="H60" t="n">
+        <v>56421</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-9.818662397832918e-05</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.001299896204868196</v>
+      </c>
+      <c r="N60" t="n">
+        <v>70749.47441666666</v>
+      </c>
+      <c r="O60" t="n">
+        <v>70774.62788147022</v>
+      </c>
+      <c r="P60" t="n">
+        <v>70792.55711334835</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>70748.54794083242</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.627011394841247</v>
+      </c>
+      <c r="S60" t="n">
+        <v>9.487775234224308</v>
+      </c>
+      <c r="T60" t="n">
+        <v>101.7391606602599</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-28.25633849337464</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-1.236999999950058</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-5.832266253943089</v>
+      </c>
+      <c r="X60" t="n">
+        <v>70885.89580772376</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>70609.70007394107</v>
+      </c>
+      <c r="Z60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>70666.07000000001</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>70680.07000000001</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>70674.07000000001</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>70673.87000000001</v>
+      </c>
+      <c r="AF60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="inlineStr"/>
+      <c r="AH60" s="2" t="n">
+        <v>45380.19791666666</v>
+      </c>
+      <c r="AI60" s="2" t="n">
+        <v>45380.01046296296</v>
+      </c>
+      <c r="AJ60" s="2" t="n">
+        <v>45380.01075231482</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>963.11</v>
+      </c>
+      <c r="AM60" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>330.21</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>6426.990000000003</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>1356</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>45380.21875</v>
+      </c>
+      <c r="C61" t="n">
+        <v>70708.734</v>
+      </c>
+      <c r="D61" t="n">
+        <v>70718.141</v>
+      </c>
+      <c r="E61" t="n">
+        <v>70317.141</v>
+      </c>
+      <c r="F61" t="n">
+        <v>70327.141</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2056</v>
+      </c>
+      <c r="H61" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>45380.20833333334</v>
+      </c>
+      <c r="K61" s="2" t="n">
+        <v>45380.20833333334</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-0.0006286659848620793</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-0.0005005288766842752</v>
+      </c>
+      <c r="N61" t="n">
+        <v>70666.95728571428</v>
+      </c>
+      <c r="O61" t="n">
+        <v>70692.89288658244</v>
+      </c>
+      <c r="P61" t="n">
+        <v>70754.42641875023</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>70631.46606570347</v>
+      </c>
+      <c r="R61" t="n">
+        <v>-21.24834584078053</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-4.605718942374586</v>
+      </c>
+      <c r="T61" t="n">
+        <v>139.683411769996</v>
+      </c>
+      <c r="U61" t="n">
+        <v>-83.07277020982292</v>
+      </c>
+      <c r="V61" t="n">
+        <v>-17.02663673885399</v>
+      </c>
+      <c r="W61" t="n">
+        <v>-30.90736119719804</v>
+      </c>
+      <c r="X61" t="n">
+        <v>70820.03867159296</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>70441.39345981397</v>
+      </c>
+      <c r="Z61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>70318.141</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>70332.141</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>70326.141</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>70325.94100000001</v>
+      </c>
+      <c r="AF61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" s="2" t="n">
+        <v>45380.32291666666</v>
+      </c>
+      <c r="AI61" s="2" t="n">
+        <v>45380.30815972222</v>
+      </c>
+      <c r="AJ61" s="2" t="n">
+        <v>45380.22916666666</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>-143.13</v>
+      </c>
+      <c r="AM61" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>-183.51</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>6243.480000000002</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>1364</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>45380.30208333334</v>
+      </c>
+      <c r="C62" t="n">
+        <v>70487.43799999999</v>
+      </c>
+      <c r="D62" t="n">
+        <v>70487.43799999999</v>
+      </c>
+      <c r="E62" t="n">
+        <v>70233.875</v>
+      </c>
+      <c r="F62" t="n">
+        <v>70393.234</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2052</v>
+      </c>
+      <c r="H62" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2" t="n">
+        <v>45380.29166666666</v>
+      </c>
+      <c r="K62" s="2" t="n">
+        <v>45380.29166666666</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.0007102401359898689</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-0.001167914561227945</v>
+      </c>
+      <c r="N62" t="n">
+        <v>70399.49329761908</v>
+      </c>
+      <c r="O62" t="n">
+        <v>70515.96518920163</v>
+      </c>
+      <c r="P62" t="n">
+        <v>70616.99715646234</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>70374.62184210526</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-48.45589879492763</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-36.50290938769241</v>
+      </c>
+      <c r="T62" t="n">
+        <v>187.7098057665105</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-31.96898899201187</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-22.8757371862157</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-37.37319057442073</v>
+      </c>
+      <c r="X62" t="n">
+        <v>70628.03007989006</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>70119.71360432047</v>
+      </c>
+      <c r="Z62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>70384.234</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>70398.234</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>70392.234</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>70392.034</v>
+      </c>
+      <c r="AF62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" s="2" t="n">
+        <v>45380.32291666666</v>
+      </c>
+      <c r="AI62" s="2" t="n">
+        <v>45380.31288194445</v>
+      </c>
+      <c r="AJ62" s="2" t="n">
+        <v>45380.35575231481</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>416.43</v>
+      </c>
+      <c r="AM62" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN62" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>330.21</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>6573.690000000002</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>1373</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>45380.39583333334</v>
+      </c>
+      <c r="C63" t="n">
+        <v>70320.102</v>
+      </c>
+      <c r="D63" t="n">
+        <v>70320.102</v>
+      </c>
+      <c r="E63" t="n">
+        <v>69845.42200000001</v>
+      </c>
+      <c r="F63" t="n">
+        <v>70040.234</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2900</v>
+      </c>
+      <c r="H63" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>45380.375</v>
+      </c>
+      <c r="K63" s="2" t="n">
+        <v>45380.375</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.001737979967913162</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.0009565677054544833</v>
+      </c>
+      <c r="N63" t="n">
+        <v>70168.51033333337</v>
+      </c>
+      <c r="O63" t="n">
+        <v>70353.27680239367</v>
+      </c>
+      <c r="P63" t="n">
+        <v>70467.58985072147</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>70307.7693154455</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-62.4627971209411</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-54.42443142278819</v>
+      </c>
+      <c r="T63" t="n">
+        <v>205.8297043485983</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-45.24257137939276</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-2.118976264144294</v>
+      </c>
+      <c r="W63" t="n">
+        <v>4.542260749833076</v>
+      </c>
+      <c r="X63" t="n">
+        <v>70585.63941631612</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>70028.39921457489</v>
+      </c>
+      <c r="Z63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>70031.234</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>70045.234</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>70039.234</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>70039.034</v>
+      </c>
+      <c r="AF63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="inlineStr"/>
+      <c r="AH63" s="2" t="n">
+        <v>45380.41666666666</v>
+      </c>
+      <c r="AI63" s="2" t="n">
+        <v>45380.4071412037</v>
+      </c>
+      <c r="AJ63" s="2" t="n">
+        <v>45380.4062962963</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-3.67</v>
+      </c>
+      <c r="AM63" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AN63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-183.5</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>6390.190000000002</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>45380.46875</v>
+      </c>
+      <c r="C64" t="n">
+        <v>69996.93799999999</v>
+      </c>
+      <c r="D64" t="n">
+        <v>70043.93799999999</v>
+      </c>
+      <c r="E64" t="n">
+        <v>69885.969</v>
+      </c>
+      <c r="F64" t="n">
+        <v>69917.42200000001</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1817</v>
+      </c>
+      <c r="H64" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="n">
+        <v>45380.45833333334</v>
+      </c>
+      <c r="K64" s="2" t="n">
+        <v>45380.45833333334</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.001906330450539426</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.0008599526966986323</v>
+      </c>
+      <c r="N64" t="n">
+        <v>69929.80619047624</v>
+      </c>
+      <c r="O64" t="n">
+        <v>70061.01201559423</v>
+      </c>
+      <c r="P64" t="n">
+        <v>70239.89924091901</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>69907.79746714834</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-97.73860460451397</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-85.68098573375852</v>
+      </c>
+      <c r="T64" t="n">
+        <v>243.9475891579642</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-34.9192091502191</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-17.7627241142327</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-27.779687994509</v>
+      </c>
+      <c r="X64" t="n">
+        <v>70237.12671251158</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>69576.96822178509</v>
+      </c>
+      <c r="Z64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>69908.42200000001</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>69922.42200000001</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>69916.42200000001</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>69916.22200000001</v>
+      </c>
+      <c r="AF64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" s="2" t="n">
+        <v>45380.48958333334</v>
+      </c>
+      <c r="AI64" s="2" t="n">
+        <v>45380.47920138889</v>
+      </c>
+      <c r="AJ64" s="2" t="n">
+        <v>45380.47929398148</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>523.9400000000001</v>
+      </c>
+      <c r="AM64" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AN64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>330.21</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>6720.400000000002</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT64" t="n">
         <v>3</v>
       </c>
     </row>

--- a/beta/filtered_excel_df.xlsx
+++ b/beta/filtered_excel_df.xlsx
@@ -763,16 +763,16 @@
         <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>68806.43799999999</v>
+        <v>68906.43799999999</v>
       </c>
       <c r="AE2" t="n">
-        <v>69556.43799999999</v>
+        <v>69506.43799999999</v>
       </c>
       <c r="AF2" t="n">
-        <v>69006.43799999999</v>
+        <v>69206.43799999999</v>
       </c>
       <c r="AG2" t="n">
-        <v>68906.43799999999</v>
+        <v>69156.43799999999</v>
       </c>
       <c r="AH2" t="b">
         <v>0</v>
@@ -782,16 +782,16 @@
         <v>45454.20833333334</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>45454.20350694445</v>
+        <v>45454.20347222222</v>
       </c>
       <c r="AL2" s="2" t="n">
-        <v>45453.6125925926</v>
+        <v>45453.61202546296</v>
       </c>
       <c r="AM2" t="n">
-        <v>24.24079999999958</v>
+        <v>30.30099999999948</v>
       </c>
       <c r="AN2" t="n">
-        <v>44.71</v>
+        <v>44.02</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
@@ -802,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-92.39</v>
+        <v>-72.78</v>
       </c>
       <c r="AR2" t="n">
-        <v>207.61</v>
+        <v>377.22</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -909,37 +909,37 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>70100.234</v>
+        <v>70000.234</v>
       </c>
       <c r="AE3" t="n">
-        <v>69900.234</v>
+        <v>69700.234</v>
       </c>
       <c r="AF3" t="n">
-        <v>69900.234</v>
+        <v>69700.234</v>
       </c>
       <c r="AG3" t="n">
-        <v>70000.234</v>
+        <v>69750.234</v>
       </c>
       <c r="AH3" t="b">
         <v>1</v>
       </c>
       <c r="AI3" s="2" t="n">
-        <v>45453.78125</v>
+        <v>45453.77083333334</v>
       </c>
       <c r="AJ3" s="2" t="n">
-        <v>45453.78125</v>
+        <v>45453.77083333334</v>
       </c>
       <c r="AK3" s="2" t="n">
-        <v>45453.78165509259</v>
+        <v>45453.77503472222</v>
       </c>
       <c r="AL3" s="2" t="n">
-        <v>45453.79672453704</v>
+        <v>45453.92142361111</v>
       </c>
       <c r="AM3" t="n">
         <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>186.03</v>
+        <v>147.16</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
@@ -950,10 +950,10 @@
         <v>1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>184.73</v>
+        <v>145.52</v>
       </c>
       <c r="AR3" t="n">
-        <v>392.34</v>
+        <v>522.74</v>
       </c>
       <c r="AS3" t="n">
         <v>1</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>70552.836</v>
+        <v>70452.836</v>
       </c>
       <c r="AE4" t="n">
-        <v>69802.836</v>
+        <v>69852.836</v>
       </c>
       <c r="AF4" t="n">
-        <v>70352.836</v>
+        <v>70152.836</v>
       </c>
       <c r="AG4" t="n">
-        <v>70452.836</v>
+        <v>70202.836</v>
       </c>
       <c r="AH4" t="b">
         <v>0</v>
@@ -1075,13 +1075,13 @@
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" s="2" t="n">
-        <v>45453.89909722222</v>
+        <v>45453.89758101852</v>
       </c>
       <c r="AM4" t="n">
-        <v>18.97960000000021</v>
+        <v>23.72450000000026</v>
       </c>
       <c r="AN4" t="n">
-        <v>35.1</v>
+        <v>34.56</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
@@ -1092,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-92.39</v>
+        <v>-72.78</v>
       </c>
       <c r="AR4" t="n">
-        <v>299.95</v>
+        <v>449.96</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
@@ -1199,16 +1199,16 @@
         <v>1</v>
       </c>
       <c r="AD5" t="n">
-        <v>68957.93799999999</v>
+        <v>69057.93799999999</v>
       </c>
       <c r="AE5" t="n">
-        <v>69707.93799999999</v>
+        <v>69657.93799999999</v>
       </c>
       <c r="AF5" t="n">
-        <v>69157.93799999999</v>
+        <v>69357.93799999999</v>
       </c>
       <c r="AG5" t="n">
-        <v>69057.93799999999</v>
+        <v>69307.93799999999</v>
       </c>
       <c r="AH5" t="b">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>45454.20347222222</v>
       </c>
       <c r="AL5" s="2" t="n">
-        <v>45455.72046296296</v>
+        <v>45455.71978009259</v>
       </c>
       <c r="AM5" t="n">
         <v>100</v>
       </c>
       <c r="AN5" t="n">
-        <v>210.04</v>
+        <v>206.8</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
@@ -1238,10 +1238,10 @@
         <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>184.73</v>
+        <v>145.51</v>
       </c>
       <c r="AR5" t="n">
-        <v>484.6800000000001</v>
+        <v>595.47</v>
       </c>
       <c r="AS5" t="n">
         <v>1</v>
@@ -1345,16 +1345,16 @@
         <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>68954.734</v>
+        <v>69054.734</v>
       </c>
       <c r="AE6" t="n">
-        <v>69704.734</v>
+        <v>69654.734</v>
       </c>
       <c r="AF6" t="n">
-        <v>69154.734</v>
+        <v>69354.734</v>
       </c>
       <c r="AG6" t="n">
-        <v>69054.734</v>
+        <v>69304.734</v>
       </c>
       <c r="AH6" t="b">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         <v>45454.20347222222</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>45455.72046296296</v>
+        <v>45455.71978009259</v>
       </c>
       <c r="AM6" t="n">
         <v>100</v>
       </c>
       <c r="AN6" t="n">
-        <v>208.93</v>
+        <v>205.71</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
@@ -1384,10 +1384,10 @@
         <v>1</v>
       </c>
       <c r="AQ6" t="n">
-        <v>184.73</v>
+        <v>145.51</v>
       </c>
       <c r="AR6" t="n">
-        <v>669.4100000000001</v>
+        <v>740.98</v>
       </c>
       <c r="AS6" t="n">
         <v>2</v>
@@ -1491,55 +1491,55 @@
         <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>68223.234</v>
+        <v>68323.234</v>
       </c>
       <c r="AE7" t="n">
-        <v>68973.234</v>
+        <v>68923.234</v>
       </c>
       <c r="AF7" t="n">
-        <v>68423.234</v>
+        <v>68623.234</v>
       </c>
       <c r="AG7" t="n">
-        <v>68323.234</v>
+        <v>68573.234</v>
       </c>
       <c r="AH7" t="b">
         <v>0</v>
       </c>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" s="2" t="n">
-        <v>45454.22916666666</v>
+        <v>45454.21875</v>
       </c>
       <c r="AK7" s="2" t="n">
         <v>45454.22097222223</v>
       </c>
       <c r="AL7" s="2" t="n">
-        <v>45455.64643518518</v>
+        <v>45454.21002314815</v>
       </c>
       <c r="AM7" t="n">
-        <v>100</v>
+        <v>50.45299999999771</v>
       </c>
       <c r="AN7" t="n">
-        <v>208.01</v>
+        <v>73.48</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AP7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>184.73</v>
+        <v>-72.77</v>
       </c>
       <c r="AR7" t="n">
-        <v>854.1400000000001</v>
+        <v>668.21</v>
       </c>
       <c r="AS7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>24</v>
@@ -1637,16 +1637,16 @@
         <v>1</v>
       </c>
       <c r="AD8" t="n">
-        <v>66431.734</v>
+        <v>66531.734</v>
       </c>
       <c r="AE8" t="n">
-        <v>67181.734</v>
+        <v>67131.734</v>
       </c>
       <c r="AF8" t="n">
-        <v>66631.734</v>
+        <v>66831.734</v>
       </c>
       <c r="AG8" t="n">
-        <v>66531.734</v>
+        <v>66781.734</v>
       </c>
       <c r="AH8" t="b">
         <v>0</v>
@@ -1656,16 +1656,16 @@
         <v>45454.78125</v>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>45454.77844907407</v>
+        <v>45454.70614583333</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>45454.67583333333</v>
+        <v>45454.63019675926</v>
       </c>
       <c r="AM8" t="n">
-        <v>27.60920000000042</v>
+        <v>32.84950000000026</v>
       </c>
       <c r="AN8" t="n">
-        <v>50.99</v>
+        <v>47.84</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
@@ -1676,16 +1676,16 @@
         <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-92.40000000000001</v>
+        <v>-72.78</v>
       </c>
       <c r="AR8" t="n">
-        <v>761.7400000000001</v>
+        <v>595.4300000000001</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU8" t="n">
         <v>24</v>
@@ -1783,35 +1783,35 @@
         <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>65592.883</v>
+        <v>65692.883</v>
       </c>
       <c r="AE9" t="n">
-        <v>66342.883</v>
+        <v>66292.883</v>
       </c>
       <c r="AF9" t="n">
-        <v>65792.883</v>
+        <v>65992.883</v>
       </c>
       <c r="AG9" t="n">
-        <v>65692.883</v>
+        <v>65942.883</v>
       </c>
       <c r="AH9" t="b">
         <v>0</v>
       </c>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" s="2" t="n">
-        <v>45457.8125</v>
+        <v>45457.80208333334</v>
       </c>
       <c r="AK9" s="2" t="n">
         <v>45457.79819444445</v>
       </c>
       <c r="AL9" s="2" t="n">
-        <v>45454.78166666667</v>
+        <v>45454.78133101852</v>
       </c>
       <c r="AM9" t="n">
-        <v>4.740600000001723</v>
+        <v>5.925750000002154</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.68</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-92.40000000000001</v>
+        <v>-72.78</v>
       </c>
       <c r="AR9" t="n">
-        <v>669.3400000000001</v>
+        <v>522.6500000000001</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>24</v>
@@ -1929,35 +1929,37 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>68014.234</v>
+        <v>67914.234</v>
       </c>
       <c r="AE10" t="n">
-        <v>67264.234</v>
+        <v>67614.234</v>
       </c>
       <c r="AF10" t="n">
-        <v>67814.234</v>
+        <v>67614.234</v>
       </c>
       <c r="AG10" t="n">
-        <v>67914.234</v>
+        <v>67664.234</v>
       </c>
       <c r="AH10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AI10" s="2" t="n">
+        <v>45455.54166666666</v>
+      </c>
       <c r="AJ10" s="2" t="n">
-        <v>45455.58333333334</v>
+        <v>45455.54166666666</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>45455.58201388889</v>
+        <v>45455.54341435185</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>45455.95152777778</v>
+        <v>45455.94967592593</v>
       </c>
       <c r="AM10" t="n">
         <v>100</v>
       </c>
       <c r="AN10" t="n">
-        <v>187.87</v>
+        <v>154.06</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
@@ -1968,10 +1970,10 @@
         <v>1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>184.73</v>
+        <v>145.51</v>
       </c>
       <c r="AR10" t="n">
-        <v>854.0700000000002</v>
+        <v>668.1600000000001</v>
       </c>
       <c r="AS10" t="n">
         <v>1</v>
@@ -2075,16 +2077,16 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>69899.734</v>
+        <v>69799.734</v>
       </c>
       <c r="AE11" t="n">
-        <v>69149.734</v>
+        <v>69199.734</v>
       </c>
       <c r="AF11" t="n">
-        <v>69699.734</v>
+        <v>69499.734</v>
       </c>
       <c r="AG11" t="n">
-        <v>69799.734</v>
+        <v>69549.734</v>
       </c>
       <c r="AH11" t="b">
         <v>0</v>
@@ -2094,16 +2096,16 @@
         <v>45455.72916666666</v>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>45455.72538194444</v>
+        <v>45455.72401620371</v>
       </c>
       <c r="AL11" s="2" t="n">
-        <v>45455.65880787037</v>
+        <v>45455.65797453704</v>
       </c>
       <c r="AM11" t="n">
-        <v>13.4</v>
+        <v>16.75</v>
       </c>
       <c r="AN11" t="n">
-        <v>24.75</v>
+        <v>24.37</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
@@ -2114,10 +2116,10 @@
         <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-92.39</v>
+        <v>-72.78</v>
       </c>
       <c r="AR11" t="n">
-        <v>761.6800000000002</v>
+        <v>595.3800000000001</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
@@ -2221,37 +2223,33 @@
         <v>1</v>
       </c>
       <c r="AD12" t="n">
-        <v>68020.93799999999</v>
+        <v>68120.93799999999</v>
       </c>
       <c r="AE12" t="n">
-        <v>68220.93799999999</v>
+        <v>68720.93799999999</v>
       </c>
       <c r="AF12" t="n">
-        <v>68220.93799999999</v>
+        <v>68420.93799999999</v>
       </c>
       <c r="AG12" t="n">
-        <v>68120.93799999999</v>
+        <v>68370.93799999999</v>
       </c>
       <c r="AH12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="2" t="n">
-        <v>45455.94791666666</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AI12" t="inlineStr"/>
       <c r="AJ12" s="2" t="n">
         <v>45455.94791666666</v>
       </c>
       <c r="AK12" s="2" t="n">
-        <v>45455.94826388889</v>
-      </c>
-      <c r="AL12" s="2" t="n">
-        <v>45455.98789351852</v>
-      </c>
+        <v>45455.94454861111</v>
+      </c>
+      <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="n">
         <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>192.31</v>
+        <v>148.42</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
@@ -2262,10 +2260,10 @@
         <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>184.73</v>
+        <v>145.51</v>
       </c>
       <c r="AR12" t="n">
-        <v>946.4100000000002</v>
+        <v>740.8900000000001</v>
       </c>
       <c r="AS12" t="n">
         <v>1</v>
@@ -2369,55 +2367,55 @@
         <v>1</v>
       </c>
       <c r="AD13" t="n">
-        <v>66919.141</v>
+        <v>67019.141</v>
       </c>
       <c r="AE13" t="n">
-        <v>67669.141</v>
+        <v>67619.141</v>
       </c>
       <c r="AF13" t="n">
-        <v>67119.141</v>
+        <v>67319.141</v>
       </c>
       <c r="AG13" t="n">
-        <v>67019.141</v>
+        <v>67269.141</v>
       </c>
       <c r="AH13" t="b">
         <v>0</v>
       </c>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" s="2" t="n">
-        <v>45456.77083333334</v>
+        <v>45456.28125</v>
       </c>
       <c r="AK13" s="2" t="n">
-        <v>45456.76706018519</v>
+        <v>45456.27650462963</v>
       </c>
       <c r="AL13" s="2" t="n">
-        <v>45456.30337962963</v>
+        <v>45456.29509259259</v>
       </c>
       <c r="AM13" t="n">
-        <v>96.06100000000151</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
-        <v>177.53</v>
+        <v>147.17</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AP13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-92.39</v>
+        <v>145.53</v>
       </c>
       <c r="AR13" t="n">
-        <v>854.0200000000002</v>
+        <v>886.4200000000001</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
         <v>24</v>
@@ -2515,35 +2513,35 @@
         <v>1</v>
       </c>
       <c r="AD14" t="n">
-        <v>66809.641</v>
+        <v>66909.641</v>
       </c>
       <c r="AE14" t="n">
-        <v>67559.641</v>
+        <v>67509.641</v>
       </c>
       <c r="AF14" t="n">
-        <v>67009.641</v>
+        <v>67209.641</v>
       </c>
       <c r="AG14" t="n">
-        <v>66909.641</v>
+        <v>67159.641</v>
       </c>
       <c r="AH14" t="b">
         <v>0</v>
       </c>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" s="2" t="n">
-        <v>45456.78125</v>
+        <v>45456.77083333334</v>
       </c>
       <c r="AK14" s="2" t="n">
-        <v>45456.77542824074</v>
+        <v>45456.7699537037</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>45456.34327546296</v>
+        <v>45456.33908564815</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.501600000000326</v>
+        <v>1.877000000000407</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.77</v>
+        <v>2.73</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
@@ -2554,16 +2552,16 @@
         <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-92.39</v>
+        <v>-72.78</v>
       </c>
       <c r="AR14" t="n">
-        <v>761.6300000000002</v>
+        <v>813.6400000000001</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>24</v>
@@ -2661,22 +2659,24 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>68292.43799999999</v>
+        <v>68192.43799999999</v>
       </c>
       <c r="AE15" t="n">
-        <v>67542.43799999999</v>
+        <v>67592.43799999999</v>
       </c>
       <c r="AF15" t="n">
-        <v>68092.43799999999</v>
+        <v>67892.43799999999</v>
       </c>
       <c r="AG15" t="n">
-        <v>68192.43799999999</v>
+        <v>67942.43799999999</v>
       </c>
       <c r="AH15" t="b">
         <v>0</v>
       </c>
       <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
+      <c r="AJ15" s="2" t="n">
+        <v>45456.6875</v>
+      </c>
       <c r="AK15" s="2" t="n">
         <v>45456.64590277777</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>210.4</v>
+        <v>207.2</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
@@ -2698,10 +2698,10 @@
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>184.72</v>
+        <v>145.53</v>
       </c>
       <c r="AR15" t="n">
-        <v>946.3500000000003</v>
+        <v>959.1700000000001</v>
       </c>
       <c r="AS15" t="n">
         <v>1</v>
@@ -2805,35 +2805,35 @@
         <v>1</v>
       </c>
       <c r="AD16" t="n">
-        <v>66027.836</v>
+        <v>66127.836</v>
       </c>
       <c r="AE16" t="n">
-        <v>66777.836</v>
+        <v>66727.836</v>
       </c>
       <c r="AF16" t="n">
-        <v>66227.836</v>
+        <v>66427.836</v>
       </c>
       <c r="AG16" t="n">
-        <v>66127.836</v>
+        <v>66377.836</v>
       </c>
       <c r="AH16" t="b">
         <v>0</v>
       </c>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" s="2" t="n">
-        <v>45457.80208333334</v>
+        <v>45457.79166666666</v>
       </c>
       <c r="AK16" s="2" t="n">
-        <v>45457.79758101852</v>
+        <v>45457.79732638889</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>45457.00414351852</v>
+        <v>45457.00275462963</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.196799999999348</v>
+        <v>1.495999999999185</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
@@ -2844,10 +2844,10 @@
         <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-92.39</v>
+        <v>-72.79000000000001</v>
       </c>
       <c r="AR16" t="n">
-        <v>853.9600000000003</v>
+        <v>886.3800000000001</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
@@ -2951,31 +2951,33 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>67595.336</v>
+        <v>67495.336</v>
       </c>
       <c r="AE17" t="n">
-        <v>66845.336</v>
+        <v>66895.336</v>
       </c>
       <c r="AF17" t="n">
-        <v>67395.336</v>
+        <v>67195.336</v>
       </c>
       <c r="AG17" t="n">
-        <v>67495.336</v>
+        <v>67245.336</v>
       </c>
       <c r="AH17" t="b">
         <v>0</v>
       </c>
       <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
+      <c r="AJ17" s="2" t="n">
+        <v>45457.6875</v>
+      </c>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" s="2" t="n">
-        <v>45457.46125</v>
+        <v>45457.39572916667</v>
       </c>
       <c r="AM17" t="n">
-        <v>21.7</v>
+        <v>27.125</v>
       </c>
       <c r="AN17" t="n">
-        <v>40.09</v>
+        <v>39.47</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
@@ -2986,10 +2988,10 @@
         <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-92.39</v>
+        <v>-72.78</v>
       </c>
       <c r="AR17" t="n">
-        <v>761.5700000000003</v>
+        <v>813.6000000000001</v>
       </c>
       <c r="AS17" t="n">
         <v>0</v>
@@ -3093,16 +3095,16 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>67671.93799999999</v>
+        <v>67571.93799999999</v>
       </c>
       <c r="AE18" t="n">
-        <v>66921.93799999999</v>
+        <v>66971.93799999999</v>
       </c>
       <c r="AF18" t="n">
-        <v>67471.93799999999</v>
+        <v>67271.93799999999</v>
       </c>
       <c r="AG18" t="n">
-        <v>67571.93799999999</v>
+        <v>67321.93799999999</v>
       </c>
       <c r="AH18" t="b">
         <v>0</v>
@@ -3111,13 +3113,13 @@
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" s="2" t="n">
-        <v>45457.52892361111</v>
+        <v>45457.52247685185</v>
       </c>
       <c r="AM18" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AN18" t="n">
-        <v>18.47</v>
+        <v>18.19</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
@@ -3128,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>-92.39</v>
+        <v>-72.78</v>
       </c>
       <c r="AR18" t="n">
-        <v>669.1800000000003</v>
+        <v>740.8200000000002</v>
       </c>
       <c r="AS18" t="n">
         <v>0</v>
@@ -3235,49 +3237,51 @@
         <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>65656.93799999999</v>
+        <v>65756.93799999999</v>
       </c>
       <c r="AE19" t="n">
-        <v>66406.93799999999</v>
+        <v>66056.93799999999</v>
       </c>
       <c r="AF19" t="n">
-        <v>65856.93799999999</v>
+        <v>66056.93799999999</v>
       </c>
       <c r="AG19" t="n">
-        <v>65756.93799999999</v>
+        <v>66006.93799999999</v>
       </c>
       <c r="AH19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AI19" s="2" t="n">
+        <v>45460.42708333334</v>
+      </c>
       <c r="AJ19" s="2" t="n">
-        <v>45460.54166666666</v>
+        <v>45460.42708333334</v>
       </c>
       <c r="AK19" s="2" t="n">
         <v>45460.53947916667</v>
       </c>
       <c r="AL19" s="2" t="n">
-        <v>45460.85943287037</v>
+        <v>45460.43320601852</v>
       </c>
       <c r="AM19" t="n">
-        <v>100</v>
+        <v>65.01174999999785</v>
       </c>
       <c r="AN19" t="n">
-        <v>186.58</v>
+        <v>94.59</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AP19" t="b">
         <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>184.73</v>
+        <v>36.38</v>
       </c>
       <c r="AR19" t="n">
-        <v>853.9100000000003</v>
+        <v>777.2000000000002</v>
       </c>
       <c r="AS19" t="n">
         <v>1</v>
@@ -3381,16 +3385,16 @@
         <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>65625.734</v>
+        <v>65725.734</v>
       </c>
       <c r="AE20" t="n">
-        <v>66375.734</v>
+        <v>66325.734</v>
       </c>
       <c r="AF20" t="n">
-        <v>65825.734</v>
+        <v>66025.734</v>
       </c>
       <c r="AG20" t="n">
-        <v>65725.734</v>
+        <v>65975.734</v>
       </c>
       <c r="AH20" t="b">
         <v>0</v>
@@ -3400,16 +3404,16 @@
         <v>45460.54166666666</v>
       </c>
       <c r="AK20" s="2" t="n">
-        <v>45460.53949074074</v>
+        <v>45460.53947916667</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>45460.8591087963</v>
+        <v>45460.85896990741</v>
       </c>
       <c r="AM20" t="n">
         <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>208.19</v>
+        <v>172.44</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
@@ -3420,10 +3424,10 @@
         <v>1</v>
       </c>
       <c r="AQ20" t="n">
-        <v>184.73</v>
+        <v>145.52</v>
       </c>
       <c r="AR20" t="n">
-        <v>1038.64</v>
+        <v>922.7200000000001</v>
       </c>
       <c r="AS20" t="n">
         <v>2</v>
@@ -3527,51 +3531,49 @@
         <v>1</v>
       </c>
       <c r="AD21" t="n">
-        <v>65481.836</v>
+        <v>65581.836</v>
       </c>
       <c r="AE21" t="n">
-        <v>65681.836</v>
+        <v>66181.836</v>
       </c>
       <c r="AF21" t="n">
-        <v>65681.836</v>
+        <v>65881.836</v>
       </c>
       <c r="AG21" t="n">
-        <v>65581.836</v>
+        <v>65831.836</v>
       </c>
       <c r="AH21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI21" s="2" t="n">
-        <v>45460.5625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AI21" t="inlineStr"/>
       <c r="AJ21" s="2" t="n">
-        <v>45460.5625</v>
+        <v>45460.54166666666</v>
       </c>
       <c r="AK21" s="2" t="n">
-        <v>45460.67145833333</v>
+        <v>45460.53949074074</v>
       </c>
       <c r="AL21" s="2" t="n">
-        <v>45460.56670138889</v>
+        <v>45460.85778935185</v>
       </c>
       <c r="AM21" t="n">
-        <v>87.17960000000021</v>
+        <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>161.08</v>
+        <v>152.8</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AP21" t="b">
         <v>1</v>
       </c>
       <c r="AQ21" t="n">
-        <v>110.84</v>
+        <v>145.52</v>
       </c>
       <c r="AR21" t="n">
-        <v>1149.48</v>
+        <v>1068.24</v>
       </c>
       <c r="AS21" t="n">
         <v>3</v>
@@ -3675,49 +3677,51 @@
         <v>1</v>
       </c>
       <c r="AD22" t="n">
-        <v>65269.859</v>
+        <v>65369.859</v>
       </c>
       <c r="AE22" t="n">
-        <v>66019.859</v>
+        <v>65669.859</v>
       </c>
       <c r="AF22" t="n">
-        <v>65469.859</v>
+        <v>65669.859</v>
       </c>
       <c r="AG22" t="n">
-        <v>65369.859</v>
+        <v>65619.859</v>
       </c>
       <c r="AH22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AI22" s="2" t="n">
+        <v>45460.66666666666</v>
+      </c>
       <c r="AJ22" s="2" t="n">
-        <v>45460.70833333334</v>
+        <v>45460.66666666666</v>
       </c>
       <c r="AK22" s="2" t="n">
-        <v>45460.70078703704</v>
+        <v>45460.68980324074</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>45460.82471064815</v>
+        <v>45460.67627314815</v>
       </c>
       <c r="AM22" t="n">
-        <v>100</v>
+        <v>90.5625</v>
       </c>
       <c r="AN22" t="n">
-        <v>187.68</v>
+        <v>131.87</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AP22" t="b">
         <v>1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>184.73</v>
+        <v>36.38</v>
       </c>
       <c r="AR22" t="n">
-        <v>1334.21</v>
+        <v>1104.62</v>
       </c>
       <c r="AS22" t="n">
         <v>4</v>
@@ -3821,16 +3825,16 @@
         <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>64823.637</v>
+        <v>64923.637</v>
       </c>
       <c r="AE23" t="n">
-        <v>65573.637</v>
+        <v>65523.637</v>
       </c>
       <c r="AF23" t="n">
-        <v>65023.637</v>
+        <v>65223.637</v>
       </c>
       <c r="AG23" t="n">
-        <v>64923.637</v>
+        <v>65173.637</v>
       </c>
       <c r="AH23" t="b">
         <v>0</v>
@@ -3843,13 +3847,13 @@
         <v>45461.19717592592</v>
       </c>
       <c r="AL23" s="2" t="n">
-        <v>45460.80880787037</v>
+        <v>45460.80872685185</v>
       </c>
       <c r="AM23" t="n">
-        <v>42.59919999999984</v>
+        <v>53.24899999999979</v>
       </c>
       <c r="AN23" t="n">
-        <v>78.69</v>
+        <v>77.48999999999999</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
@@ -3860,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>-92.39</v>
+        <v>-72.78</v>
       </c>
       <c r="AR23" t="n">
-        <v>1241.82</v>
+        <v>1031.84</v>
       </c>
       <c r="AS23" t="n">
         <v>0</v>
@@ -3967,35 +3971,35 @@
         <v>1</v>
       </c>
       <c r="AD24" t="n">
-        <v>65492.836</v>
+        <v>65592.836</v>
       </c>
       <c r="AE24" t="n">
-        <v>66242.836</v>
+        <v>66192.836</v>
       </c>
       <c r="AF24" t="n">
-        <v>65692.836</v>
+        <v>65892.836</v>
       </c>
       <c r="AG24" t="n">
-        <v>65592.836</v>
+        <v>65842.836</v>
       </c>
       <c r="AH24" t="b">
         <v>0</v>
       </c>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" s="2" t="n">
-        <v>45461.1875</v>
+        <v>45461.16666666666</v>
       </c>
       <c r="AK24" s="2" t="n">
-        <v>45461.15940972222</v>
+        <v>45461.1593287037</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>45463.58299768518</v>
+        <v>45463.5827199074</v>
       </c>
       <c r="AM24" t="n">
         <v>100</v>
       </c>
       <c r="AN24" t="n">
-        <v>187.12</v>
+        <v>146.79</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
@@ -4006,10 +4010,10 @@
         <v>1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>184.72</v>
+        <v>145.52</v>
       </c>
       <c r="AR24" t="n">
-        <v>1426.54</v>
+        <v>1177.36</v>
       </c>
       <c r="AS24" t="n">
         <v>1</v>
@@ -4113,35 +4117,35 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>65911.34</v>
+        <v>65811.34</v>
       </c>
       <c r="AE25" t="n">
-        <v>65161.34</v>
+        <v>65211.34</v>
       </c>
       <c r="AF25" t="n">
-        <v>65711.34</v>
+        <v>65511.34</v>
       </c>
       <c r="AG25" t="n">
-        <v>65811.34</v>
+        <v>65561.34</v>
       </c>
       <c r="AH25" t="b">
         <v>0</v>
       </c>
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" s="2" t="n">
-        <v>45463.58333333334</v>
+        <v>45462.30208333334</v>
       </c>
       <c r="AK25" s="2" t="n">
-        <v>45463.4296412037</v>
+        <v>45463.42859953704</v>
       </c>
       <c r="AL25" s="2" t="n">
-        <v>45462.24068287037</v>
+        <v>45462.23376157408</v>
       </c>
       <c r="AM25" t="n">
-        <v>7.819600000001083</v>
+        <v>9.774500000001353</v>
       </c>
       <c r="AN25" t="n">
-        <v>14.41</v>
+        <v>14.19</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
@@ -4152,10 +4156,10 @@
         <v>0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>-92.38</v>
+        <v>-72.78</v>
       </c>
       <c r="AR25" t="n">
-        <v>1334.16</v>
+        <v>1104.58</v>
       </c>
       <c r="AS25" t="n">
         <v>0</v>
@@ -4259,55 +4263,57 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>65784.84</v>
+        <v>65684.84</v>
       </c>
       <c r="AE26" t="n">
-        <v>65034.84</v>
+        <v>65384.84</v>
       </c>
       <c r="AF26" t="n">
-        <v>65584.84</v>
+        <v>65384.84</v>
       </c>
       <c r="AG26" t="n">
-        <v>65684.84</v>
+        <v>65434.84</v>
       </c>
       <c r="AH26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AI26" s="2" t="n">
+        <v>45462.28125</v>
+      </c>
       <c r="AJ26" s="2" t="n">
-        <v>45463.4375</v>
+        <v>45462.28125</v>
       </c>
       <c r="AK26" s="2" t="n">
-        <v>45463.42859953704</v>
+        <v>45462.30266203704</v>
       </c>
       <c r="AL26" s="2" t="n">
-        <v>45462.51768518519</v>
+        <v>45462.28413194444</v>
       </c>
       <c r="AM26" t="n">
-        <v>81.76020000000135</v>
+        <v>48.19925000000148</v>
       </c>
       <c r="AN26" t="n">
-        <v>151.1</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AP26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26" t="n">
-        <v>-92.38</v>
+        <v>36.38</v>
       </c>
       <c r="AR26" t="n">
-        <v>1241.78</v>
+        <v>1140.96</v>
       </c>
       <c r="AS26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU26" t="n">
         <v>25</v>
@@ -4405,52 +4411,54 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>65760.34</v>
+        <v>65660.34</v>
       </c>
       <c r="AE27" t="n">
-        <v>65010.34</v>
+        <v>65360.34</v>
       </c>
       <c r="AF27" t="n">
-        <v>65560.34</v>
+        <v>65360.34</v>
       </c>
       <c r="AG27" t="n">
-        <v>65660.34</v>
+        <v>65410.34</v>
       </c>
       <c r="AH27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AI27" s="2" t="n">
+        <v>45463.375</v>
+      </c>
       <c r="AJ27" s="2" t="n">
-        <v>45463.4375</v>
+        <v>45463.375</v>
       </c>
       <c r="AK27" s="2" t="n">
-        <v>45463.42857638889</v>
+        <v>45463.42850694444</v>
       </c>
       <c r="AL27" s="2" t="n">
-        <v>45463.70989583333</v>
+        <v>45463.4108449074</v>
       </c>
       <c r="AM27" t="n">
-        <v>100</v>
+        <v>84.84850000000006</v>
       </c>
       <c r="AN27" t="n">
-        <v>186.57</v>
+        <v>123.51</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AP27" t="b">
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>184.72</v>
+        <v>36.38</v>
       </c>
       <c r="AR27" t="n">
-        <v>1426.5</v>
+        <v>1177.340000000001</v>
       </c>
       <c r="AS27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
@@ -4551,52 +4559,54 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>65814.03899999999</v>
+        <v>65714.03899999999</v>
       </c>
       <c r="AE28" t="n">
-        <v>65064.039</v>
+        <v>65414.039</v>
       </c>
       <c r="AF28" t="n">
-        <v>65614.03899999999</v>
+        <v>65414.039</v>
       </c>
       <c r="AG28" t="n">
-        <v>65714.03899999999</v>
+        <v>65464.039</v>
       </c>
       <c r="AH28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AI28" s="2" t="n">
+        <v>45463.375</v>
+      </c>
       <c r="AJ28" s="2" t="n">
-        <v>45463.4375</v>
+        <v>45463.375</v>
       </c>
       <c r="AK28" s="2" t="n">
-        <v>45463.42861111111</v>
+        <v>45463.42851851852</v>
       </c>
       <c r="AL28" s="2" t="n">
-        <v>45463.70924768518</v>
+        <v>45463.40783564815</v>
       </c>
       <c r="AM28" t="n">
-        <v>100</v>
+        <v>71.42375000000123</v>
       </c>
       <c r="AN28" t="n">
-        <v>185.65</v>
+        <v>103.86</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AP28" t="b">
         <v>1</v>
       </c>
       <c r="AQ28" t="n">
-        <v>184.72</v>
+        <v>36.38</v>
       </c>
       <c r="AR28" t="n">
-        <v>1611.22</v>
+        <v>1213.720000000001</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
         <v>0</v>
@@ -4697,51 +4707,55 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>66665.734</v>
+        <v>66565.734</v>
       </c>
       <c r="AE29" t="n">
-        <v>65915.734</v>
+        <v>66265.734</v>
       </c>
       <c r="AF29" t="n">
-        <v>66465.734</v>
+        <v>66265.734</v>
       </c>
       <c r="AG29" t="n">
-        <v>66565.734</v>
+        <v>66315.734</v>
       </c>
       <c r="AH29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AI29" s="2" t="n">
+        <v>45463.59375</v>
+      </c>
+      <c r="AJ29" s="2" t="n">
+        <v>45463.59375</v>
+      </c>
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" s="2" t="n">
-        <v>45463.64006944445</v>
+        <v>45463.59940972222</v>
       </c>
       <c r="AM29" t="n">
-        <v>56.59999999999999</v>
+        <v>66.35175000000163</v>
       </c>
       <c r="AN29" t="n">
-        <v>104.55</v>
+        <v>96.59</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AP29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29" t="n">
-        <v>-92.38</v>
+        <v>36.38</v>
       </c>
       <c r="AR29" t="n">
-        <v>1518.84</v>
+        <v>1250.100000000001</v>
       </c>
       <c r="AS29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU29" t="n">
         <v>25</v>
@@ -4839,53 +4853,55 @@
         <v>1</v>
       </c>
       <c r="AD30" t="n">
-        <v>63955.137</v>
+        <v>64055.137</v>
       </c>
       <c r="AE30" t="n">
-        <v>64705.137</v>
+        <v>64655.137</v>
       </c>
       <c r="AF30" t="n">
-        <v>64155.137</v>
+        <v>64355.137</v>
       </c>
       <c r="AG30" t="n">
-        <v>64055.137</v>
+        <v>64305.137</v>
       </c>
       <c r="AH30" t="b">
         <v>0</v>
       </c>
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" s="2" t="n">
-        <v>45464.5</v>
+        <v>45464.45833333334</v>
       </c>
       <c r="AK30" s="2" t="n">
-        <v>45464.49290509259</v>
-      </c>
-      <c r="AL30" t="inlineStr"/>
+        <v>45464.49284722222</v>
+      </c>
+      <c r="AL30" s="2" t="n">
+        <v>45464.38251157408</v>
+      </c>
       <c r="AM30" t="n">
-        <v>100</v>
+        <v>43.32425000000148</v>
       </c>
       <c r="AN30" t="n">
-        <v>186.02</v>
+        <v>63.12</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AP30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" t="n">
-        <v>184.72</v>
+        <v>-72.78</v>
       </c>
       <c r="AR30" t="n">
-        <v>1703.56</v>
+        <v>1177.320000000001</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>25</v>
@@ -4983,16 +4999,16 @@
         <v>1</v>
       </c>
       <c r="AD31" t="n">
-        <v>63661.238</v>
+        <v>63761.238</v>
       </c>
       <c r="AE31" t="n">
-        <v>64411.238</v>
+        <v>64361.238</v>
       </c>
       <c r="AF31" t="n">
-        <v>63861.238</v>
+        <v>64061.238</v>
       </c>
       <c r="AG31" t="n">
-        <v>63761.238</v>
+        <v>64011.238</v>
       </c>
       <c r="AH31" t="b">
         <v>0</v>
@@ -5005,13 +5021,13 @@
         <v>45464.49291666667</v>
       </c>
       <c r="AL31" s="2" t="n">
-        <v>45464.97222222222</v>
+        <v>45464.97208333333</v>
       </c>
       <c r="AM31" t="n">
         <v>100</v>
       </c>
       <c r="AN31" t="n">
-        <v>189.52</v>
+        <v>186.63</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
@@ -5022,13 +5038,13 @@
         <v>1</v>
       </c>
       <c r="AQ31" t="n">
-        <v>184.72</v>
+        <v>145.52</v>
       </c>
       <c r="AR31" t="n">
-        <v>1888.28</v>
+        <v>1322.840000000001</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT31" t="n">
         <v>0</v>
@@ -5129,35 +5145,35 @@
         <v>1</v>
       </c>
       <c r="AD32" t="n">
-        <v>63093.73</v>
+        <v>63193.73</v>
       </c>
       <c r="AE32" t="n">
-        <v>63843.73</v>
+        <v>63793.73</v>
       </c>
       <c r="AF32" t="n">
-        <v>63293.73</v>
+        <v>63493.73</v>
       </c>
       <c r="AG32" t="n">
-        <v>63193.73</v>
+        <v>63443.73</v>
       </c>
       <c r="AH32" t="b">
         <v>0</v>
       </c>
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" s="2" t="n">
-        <v>45467.125</v>
+        <v>45467.11458333334</v>
       </c>
       <c r="AK32" s="2" t="n">
-        <v>45467.12850694444</v>
+        <v>45467.10893518518</v>
       </c>
       <c r="AL32" s="2" t="n">
-        <v>45464.51982638889</v>
+        <v>45464.51841435185</v>
       </c>
       <c r="AM32" t="n">
-        <v>16.6898000000001</v>
+        <v>20.86225000000013</v>
       </c>
       <c r="AN32" t="n">
-        <v>30.85</v>
+        <v>30.38</v>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
@@ -5168,10 +5184,10 @@
         <v>0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>-92.39</v>
+        <v>-72.78</v>
       </c>
       <c r="AR32" t="n">
-        <v>1795.89</v>
+        <v>1250.060000000001</v>
       </c>
       <c r="AS32" t="n">
         <v>0</v>
@@ -5275,49 +5291,51 @@
         <v>1</v>
       </c>
       <c r="AD33" t="n">
-        <v>63377.539</v>
+        <v>63477.539</v>
       </c>
       <c r="AE33" t="n">
-        <v>64127.539</v>
+        <v>63777.539</v>
       </c>
       <c r="AF33" t="n">
-        <v>63577.539</v>
+        <v>63777.539</v>
       </c>
       <c r="AG33" t="n">
-        <v>63477.539</v>
+        <v>63727.539</v>
       </c>
       <c r="AH33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AI33" s="2" t="n">
+        <v>45464.61458333334</v>
+      </c>
       <c r="AJ33" s="2" t="n">
-        <v>45464.78125</v>
+        <v>45464.61458333334</v>
       </c>
       <c r="AK33" s="2" t="n">
-        <v>45464.68972222223</v>
+        <v>45464.68953703704</v>
       </c>
       <c r="AL33" s="2" t="n">
-        <v>45464.73043981481</v>
+        <v>45464.61892361111</v>
       </c>
       <c r="AM33" t="n">
-        <v>100</v>
+        <v>61.42475000000013</v>
       </c>
       <c r="AN33" t="n">
-        <v>186.2</v>
+        <v>89.31</v>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AP33" t="b">
         <v>1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>184.72</v>
+        <v>36.38</v>
       </c>
       <c r="AR33" t="n">
-        <v>1980.61</v>
+        <v>1286.440000000001</v>
       </c>
       <c r="AS33" t="n">
         <v>1</v>
@@ -5421,49 +5439,51 @@
         <v>1</v>
       </c>
       <c r="AD34" t="n">
-        <v>63351.84</v>
+        <v>63451.84</v>
       </c>
       <c r="AE34" t="n">
-        <v>64101.84</v>
+        <v>63751.84</v>
       </c>
       <c r="AF34" t="n">
-        <v>63551.84</v>
+        <v>63751.84</v>
       </c>
       <c r="AG34" t="n">
-        <v>63451.84</v>
+        <v>63701.84</v>
       </c>
       <c r="AH34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AI34" s="2" t="n">
+        <v>45464.61458333334</v>
+      </c>
       <c r="AJ34" s="2" t="n">
-        <v>45467.11458333334</v>
+        <v>45464.61458333334</v>
       </c>
       <c r="AK34" s="2" t="n">
-        <v>45464.70267361111</v>
+        <v>45464.6896875</v>
       </c>
       <c r="AL34" s="2" t="n">
-        <v>45464.73038194444</v>
+        <v>45464.61849537037</v>
       </c>
       <c r="AM34" t="n">
-        <v>100</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="AN34" t="n">
-        <v>186.2</v>
+        <v>80.03</v>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AP34" t="b">
         <v>1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>184.72</v>
+        <v>36.38</v>
       </c>
       <c r="AR34" t="n">
-        <v>2165.33</v>
+        <v>1322.820000000001</v>
       </c>
       <c r="AS34" t="n">
         <v>2</v>
@@ -5567,35 +5587,35 @@
         <v>1</v>
       </c>
       <c r="AD35" t="n">
-        <v>63096.438</v>
+        <v>63196.438</v>
       </c>
       <c r="AE35" t="n">
-        <v>63846.438</v>
+        <v>63796.438</v>
       </c>
       <c r="AF35" t="n">
-        <v>63296.438</v>
+        <v>63496.438</v>
       </c>
       <c r="AG35" t="n">
-        <v>63196.438</v>
+        <v>63446.438</v>
       </c>
       <c r="AH35" t="b">
         <v>0</v>
       </c>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" s="2" t="n">
-        <v>45467.125</v>
+        <v>45467.11458333334</v>
       </c>
       <c r="AK35" s="2" t="n">
-        <v>45467.12849537037</v>
+        <v>45467.10893518518</v>
       </c>
       <c r="AL35" s="2" t="n">
-        <v>45464.71905092592</v>
+        <v>45464.69099537037</v>
       </c>
       <c r="AM35" t="n">
-        <v>49.70860000000103</v>
+        <v>58.32424999999967</v>
       </c>
       <c r="AN35" t="n">
-        <v>91.81</v>
+        <v>84.95</v>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
@@ -5606,10 +5626,10 @@
         <v>0</v>
       </c>
       <c r="AQ35" t="n">
-        <v>-92.39</v>
+        <v>-72.78</v>
       </c>
       <c r="AR35" t="n">
-        <v>2072.94</v>
+        <v>1250.040000000001</v>
       </c>
       <c r="AS35" t="n">
         <v>0</v>
@@ -5713,53 +5733,55 @@
         <v>1</v>
       </c>
       <c r="AD36" t="n">
-        <v>62346.84</v>
+        <v>62446.84</v>
       </c>
       <c r="AE36" t="n">
-        <v>63096.84</v>
+        <v>63046.84</v>
       </c>
       <c r="AF36" t="n">
-        <v>62546.84</v>
+        <v>62746.84</v>
       </c>
       <c r="AG36" t="n">
-        <v>62446.84</v>
+        <v>62696.84</v>
       </c>
       <c r="AH36" t="b">
         <v>0</v>
       </c>
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" s="2" t="n">
-        <v>45467.36458333334</v>
+        <v>45467.30208333334</v>
       </c>
       <c r="AK36" s="2" t="n">
-        <v>45467.36094907407</v>
-      </c>
-      <c r="AL36" t="inlineStr"/>
+        <v>45467.35872685185</v>
+      </c>
+      <c r="AL36" s="2" t="n">
+        <v>45467.26145833333</v>
+      </c>
       <c r="AM36" t="n">
-        <v>100</v>
+        <v>28.75</v>
       </c>
       <c r="AN36" t="n">
-        <v>187.13</v>
+        <v>41.84</v>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AP36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" t="n">
-        <v>184.73</v>
+        <v>-72.78</v>
       </c>
       <c r="AR36" t="n">
-        <v>2257.67</v>
+        <v>1177.260000000001</v>
       </c>
       <c r="AS36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU36" t="n">
         <v>26</v>
@@ -5857,55 +5879,57 @@
         <v>1</v>
       </c>
       <c r="AD37" t="n">
-        <v>62091.84</v>
+        <v>62191.84</v>
       </c>
       <c r="AE37" t="n">
-        <v>62841.84</v>
+        <v>62491.84</v>
       </c>
       <c r="AF37" t="n">
-        <v>62291.84</v>
+        <v>62491.84</v>
       </c>
       <c r="AG37" t="n">
-        <v>62191.84</v>
+        <v>62441.84</v>
       </c>
       <c r="AH37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AI37" s="2" t="n">
+        <v>45467.36458333334</v>
+      </c>
       <c r="AJ37" s="2" t="n">
-        <v>45467.52083333334</v>
+        <v>45467.36458333334</v>
       </c>
       <c r="AK37" s="2" t="n">
-        <v>45467.51912037037</v>
+        <v>45467.37846064815</v>
       </c>
       <c r="AL37" s="2" t="n">
-        <v>45467.48403935185</v>
+        <v>45467.44347222222</v>
       </c>
       <c r="AM37" t="n">
-        <v>97.02899999999936</v>
+        <v>100</v>
       </c>
       <c r="AN37" t="n">
-        <v>179.18</v>
+        <v>146.26</v>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AP37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>-92.39</v>
+        <v>145.53</v>
       </c>
       <c r="AR37" t="n">
-        <v>2165.28</v>
+        <v>1322.790000000001</v>
       </c>
       <c r="AS37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU37" t="n">
         <v>26</v>
@@ -6003,35 +6027,35 @@
         <v>1</v>
       </c>
       <c r="AD38" t="n">
-        <v>60532.551</v>
+        <v>60632.551</v>
       </c>
       <c r="AE38" t="n">
-        <v>61282.551</v>
+        <v>61232.551</v>
       </c>
       <c r="AF38" t="n">
-        <v>60732.551</v>
+        <v>60932.551</v>
       </c>
       <c r="AG38" t="n">
-        <v>60632.551</v>
+        <v>60882.551</v>
       </c>
       <c r="AH38" t="b">
         <v>0</v>
       </c>
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" s="2" t="n">
-        <v>45467.82291666666</v>
+        <v>45467.60416666666</v>
       </c>
       <c r="AK38" s="2" t="n">
-        <v>45467.81856481481</v>
+        <v>45467.78984953704</v>
       </c>
       <c r="AL38" s="2" t="n">
-        <v>45467.53255787037</v>
+        <v>45467.53251157407</v>
       </c>
       <c r="AM38" t="n">
-        <v>6.362600000000384</v>
+        <v>7.953250000000481</v>
       </c>
       <c r="AN38" t="n">
-        <v>11.82</v>
+        <v>11.64</v>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
@@ -6042,16 +6066,16 @@
         <v>0</v>
       </c>
       <c r="AQ38" t="n">
-        <v>-92.39</v>
+        <v>-72.78</v>
       </c>
       <c r="AR38" t="n">
-        <v>2072.89</v>
+        <v>1250.010000000001</v>
       </c>
       <c r="AS38" t="n">
         <v>0</v>
       </c>
       <c r="AT38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>26</v>
@@ -6149,35 +6173,35 @@
         <v>1</v>
       </c>
       <c r="AD39" t="n">
-        <v>60006.738</v>
+        <v>60106.738</v>
       </c>
       <c r="AE39" t="n">
-        <v>60756.738</v>
+        <v>60706.738</v>
       </c>
       <c r="AF39" t="n">
-        <v>60206.738</v>
+        <v>60406.738</v>
       </c>
       <c r="AG39" t="n">
-        <v>60106.738</v>
+        <v>60356.738</v>
       </c>
       <c r="AH39" t="b">
         <v>0</v>
       </c>
       <c r="AI39" t="inlineStr"/>
       <c r="AJ39" s="2" t="n">
-        <v>45467.85416666666</v>
+        <v>45467.83333333334</v>
       </c>
       <c r="AK39" s="2" t="n">
-        <v>45467.82893518519</v>
+        <v>45467.82849537037</v>
       </c>
       <c r="AL39" s="2" t="n">
-        <v>45468.25310185185</v>
+        <v>45468.25278935185</v>
       </c>
       <c r="AM39" t="n">
         <v>100</v>
       </c>
       <c r="AN39" t="n">
-        <v>191.75</v>
+        <v>160.09</v>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
@@ -6188,10 +6212,10 @@
         <v>1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>184.73</v>
+        <v>145.53</v>
       </c>
       <c r="AR39" t="n">
-        <v>2257.62</v>
+        <v>1395.540000000001</v>
       </c>
       <c r="AS39" t="n">
         <v>1</v>
@@ -6295,16 +6319,16 @@
         <v>1</v>
       </c>
       <c r="AD40" t="n">
-        <v>59328.84</v>
+        <v>59428.84</v>
       </c>
       <c r="AE40" t="n">
-        <v>60078.84</v>
+        <v>60028.84</v>
       </c>
       <c r="AF40" t="n">
-        <v>59528.84</v>
+        <v>59728.84</v>
       </c>
       <c r="AG40" t="n">
-        <v>59428.84</v>
+        <v>59678.84</v>
       </c>
       <c r="AH40" t="b">
         <v>0</v>
@@ -6314,16 +6338,16 @@
         <v>45467.95833333334</v>
       </c>
       <c r="AK40" s="2" t="n">
-        <v>45467.95527777778</v>
+        <v>45467.9552662037</v>
       </c>
       <c r="AL40" s="2" t="n">
-        <v>45468.05793981482</v>
+        <v>45468.04163194444</v>
       </c>
       <c r="AM40" t="n">
         <v>100</v>
       </c>
       <c r="AN40" t="n">
-        <v>201.35</v>
+        <v>170.64</v>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
@@ -6334,10 +6358,10 @@
         <v>1</v>
       </c>
       <c r="AQ40" t="n">
-        <v>184.73</v>
+        <v>145.53</v>
       </c>
       <c r="AR40" t="n">
-        <v>2442.35</v>
+        <v>1541.070000000001</v>
       </c>
       <c r="AS40" t="n">
         <v>2</v>
@@ -6441,16 +6465,16 @@
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>61125.84</v>
+        <v>61025.84</v>
       </c>
       <c r="AE41" t="n">
-        <v>60375.84</v>
+        <v>60425.84</v>
       </c>
       <c r="AF41" t="n">
-        <v>60925.84</v>
+        <v>60725.84</v>
       </c>
       <c r="AG41" t="n">
-        <v>61025.84</v>
+        <v>60775.84</v>
       </c>
       <c r="AH41" t="b">
         <v>0</v>
@@ -6460,14 +6484,14 @@
         <v>45468.26041666666</v>
       </c>
       <c r="AK41" s="2" t="n">
-        <v>45468.2547337963</v>
+        <v>45468.25450231481</v>
       </c>
       <c r="AL41" t="inlineStr"/>
       <c r="AM41" t="n">
         <v>100</v>
       </c>
       <c r="AN41" t="n">
-        <v>192.48</v>
+        <v>147.72</v>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
@@ -6478,10 +6502,10 @@
         <v>1</v>
       </c>
       <c r="AQ41" t="n">
-        <v>184.73</v>
+        <v>145.53</v>
       </c>
       <c r="AR41" t="n">
-        <v>2627.08</v>
+        <v>1686.600000000001</v>
       </c>
       <c r="AS41" t="n">
         <v>3</v>
@@ -6585,31 +6609,35 @@
         <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>62539.738</v>
+        <v>62439.738</v>
       </c>
       <c r="AE42" t="n">
-        <v>61789.738</v>
+        <v>61839.738</v>
       </c>
       <c r="AF42" t="n">
-        <v>62339.738</v>
+        <v>62139.738</v>
       </c>
       <c r="AG42" t="n">
-        <v>62439.738</v>
+        <v>62189.738</v>
       </c>
       <c r="AH42" t="b">
         <v>0</v>
       </c>
       <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
+      <c r="AJ42" s="2" t="n">
+        <v>45469.21875</v>
+      </c>
+      <c r="AK42" s="2" t="n">
+        <v>45469.2202662037</v>
+      </c>
       <c r="AL42" s="2" t="n">
-        <v>45468.73606481482</v>
+        <v>45468.73541666667</v>
       </c>
       <c r="AM42" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AN42" t="n">
-        <v>17.73</v>
+        <v>17.46</v>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
@@ -6620,10 +6648,10 @@
         <v>0</v>
       </c>
       <c r="AQ42" t="n">
-        <v>-92.39</v>
+        <v>-72.78</v>
       </c>
       <c r="AR42" t="n">
-        <v>2534.690000000001</v>
+        <v>1613.820000000001</v>
       </c>
       <c r="AS42" t="n">
         <v>0</v>
@@ -6727,53 +6755,57 @@
         <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>62441.637</v>
+        <v>62341.637</v>
       </c>
       <c r="AE43" t="n">
-        <v>61691.637</v>
+        <v>62041.637</v>
       </c>
       <c r="AF43" t="n">
-        <v>62241.637</v>
+        <v>62041.637</v>
       </c>
       <c r="AG43" t="n">
-        <v>62341.637</v>
+        <v>62091.637</v>
       </c>
       <c r="AH43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AI43" s="2" t="n">
+        <v>45469.0625</v>
+      </c>
+      <c r="AJ43" s="2" t="n">
+        <v>45469.0625</v>
+      </c>
       <c r="AK43" s="2" t="n">
-        <v>45469.22042824074</v>
+        <v>45469.21556712963</v>
       </c>
       <c r="AL43" s="2" t="n">
-        <v>45469.09050925926</v>
+        <v>45469.06909722222</v>
       </c>
       <c r="AM43" t="n">
-        <v>36.3</v>
+        <v>43.72549999999865</v>
       </c>
       <c r="AN43" t="n">
-        <v>67.06</v>
+        <v>63.67</v>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AP43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ43" t="n">
-        <v>-92.39</v>
+        <v>36.38</v>
       </c>
       <c r="AR43" t="n">
-        <v>2442.300000000001</v>
+        <v>1650.200000000001</v>
       </c>
       <c r="AS43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU43" t="n">
         <v>26</v>
@@ -6871,55 +6903,57 @@
         <v>1</v>
       </c>
       <c r="AD44" t="n">
-        <v>60982.539</v>
+        <v>61082.539</v>
       </c>
       <c r="AE44" t="n">
-        <v>61732.539</v>
+        <v>61382.539</v>
       </c>
       <c r="AF44" t="n">
-        <v>61182.539</v>
+        <v>61382.539</v>
       </c>
       <c r="AG44" t="n">
-        <v>61082.539</v>
+        <v>61332.539</v>
       </c>
       <c r="AH44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AI44" s="2" t="n">
+        <v>45469.53125</v>
+      </c>
       <c r="AJ44" s="2" t="n">
-        <v>45469.84375</v>
+        <v>45469.53125</v>
       </c>
       <c r="AK44" s="2" t="n">
-        <v>45469.83605324074</v>
+        <v>45469.83603009259</v>
       </c>
       <c r="AL44" s="2" t="n">
-        <v>45469.69935185185</v>
+        <v>45469.5328125</v>
       </c>
       <c r="AM44" t="n">
-        <v>70.13980000000011</v>
+        <v>41.92174999999952</v>
       </c>
       <c r="AN44" t="n">
-        <v>129.49</v>
+        <v>60.94</v>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AP44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ44" t="n">
-        <v>-92.39</v>
+        <v>36.38</v>
       </c>
       <c r="AR44" t="n">
-        <v>2349.910000000001</v>
+        <v>1686.580000000001</v>
       </c>
       <c r="AS44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU44" t="n">
         <v>26</v>
@@ -7017,16 +7051,16 @@
         <v>1</v>
       </c>
       <c r="AD45" t="n">
-        <v>60831.84</v>
+        <v>60931.84</v>
       </c>
       <c r="AE45" t="n">
-        <v>61581.84</v>
+        <v>61531.84</v>
       </c>
       <c r="AF45" t="n">
-        <v>61031.84</v>
+        <v>61231.84</v>
       </c>
       <c r="AG45" t="n">
-        <v>60931.84</v>
+        <v>61181.84</v>
       </c>
       <c r="AH45" t="b">
         <v>0</v>
@@ -7036,16 +7070,16 @@
         <v>45469.84375</v>
       </c>
       <c r="AK45" s="2" t="n">
-        <v>45469.83891203703</v>
+        <v>45469.83692129629</v>
       </c>
       <c r="AL45" s="2" t="n">
-        <v>45469.68971064815</v>
+        <v>45469.59415509259</v>
       </c>
       <c r="AM45" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AN45" t="n">
-        <v>73.89</v>
+        <v>72.77</v>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
@@ -7056,16 +7090,16 @@
         <v>0</v>
       </c>
       <c r="AQ45" t="n">
-        <v>-92.39</v>
+        <v>-72.78</v>
       </c>
       <c r="AR45" t="n">
-        <v>2257.520000000001</v>
+        <v>1613.800000000001</v>
       </c>
       <c r="AS45" t="n">
         <v>0</v>
       </c>
       <c r="AT45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AU45" t="n">
         <v>26</v>

--- a/beta/filtered_excel_df.xlsx
+++ b/beta/filtered_excel_df.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV45"/>
+  <dimension ref="A1:AY45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,185 +490,200 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>prev_hour_lsma_slope</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>prev_hour_macd_line</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>hour_lsma</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>fixed_support_gradient</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>fixed_resistance_gradient</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>hour_lsma</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>prev_hour_lsma</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>ema_short</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>ema_long</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>lsma</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>macd_line</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>macd_signal</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>lsma_stddev</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>lsma_slope</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>prev_lsma_slope_1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>prev_lsma_slope_2</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>lsma_upper_band</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>lsma_lower_band</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>stoch_k</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>stoch_d</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>is_buy2</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>is_sell2</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>tp</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>sl</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>be_condition</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>sl_updated</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>time_updated</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>time_to_trail</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>time_tp_hit</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>time_sl_hit</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>max_completion</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>max_floating_profit</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>profit</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>account_balance</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>win_streak</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>losing_streak</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
@@ -709,114 +724,121 @@
         <v>45453.5</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.001030424903434263</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.0006923388107727891</v>
-      </c>
+        <v>-53.79546428575122</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
         <v>69398.71651190476</v>
       </c>
       <c r="O2" t="n">
+        <v>-0.001030424903434263</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.0006923388107727891</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>69418.72709523809</v>
+      </c>
+      <c r="R2" t="n">
         <v>69436.10028715039</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
         <v>69499.90520960734</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="T2" t="n">
         <v>69369.44436910903</v>
       </c>
-      <c r="R2" t="n">
+      <c r="U2" t="n">
         <v>-31.92109875031747</v>
       </c>
-      <c r="S2" t="n">
+      <c r="V2" t="n">
         <v>-24.827683133672</v>
       </c>
-      <c r="T2" t="n">
+      <c r="W2" t="n">
         <v>120.5556677902758</v>
       </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
         <v>-18.32863777090097</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>-1.166813897449174</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Z2" t="n">
         <v>-11.63175163397682</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AA2" t="n">
         <v>69532.1945206259</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AB2" t="n">
         <v>69205.19421759216</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AC2" t="n">
         <v>35.35046099916767</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AD2" t="n">
         <v>46.45906224782906</v>
       </c>
-      <c r="AB2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
         <v>68906.43799999999</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AH2" t="n">
         <v>69506.43799999999</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AI2" t="n">
         <v>69206.43799999999</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AJ2" t="n">
         <v>69156.43799999999</v>
       </c>
-      <c r="AH2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" s="2" t="n">
+      <c r="AK2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" s="2" t="n">
         <v>45454.20833333334</v>
       </c>
-      <c r="AK2" s="2" t="n">
+      <c r="AN2" s="2" t="n">
         <v>45454.20347222222</v>
       </c>
-      <c r="AL2" s="2" t="n">
+      <c r="AO2" s="2" t="n">
         <v>45453.61202546296</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>30.30099999999948</v>
       </c>
-      <c r="AN2" t="n">
-        <v>44.02</v>
-      </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AQ2" t="n">
+        <v>43.62</v>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AP2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>-72.78</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>377.22</v>
-      </c>
-      <c r="AS2" t="n">
+      <c r="AS2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>-72.22</v>
       </c>
       <c r="AU2" t="n">
+        <v>377.78</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
         <v>24</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AY2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -855,116 +877,123 @@
         <v>45453.70833333334</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001842837369538155</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0003430302419605004</v>
-      </c>
+        <v>15.89991666664719</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
         <v>69525.85351190482</v>
       </c>
       <c r="O3" t="n">
+        <v>0.0001842837369538155</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0003430302419605004</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>69435.90359523809</v>
+      </c>
+      <c r="R3" t="n">
         <v>69445.275906953</v>
       </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
         <v>69447.89790727485</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="T3" t="n">
         <v>69449.03028310972</v>
       </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
         <v>-9.670828391739633</v>
       </c>
-      <c r="S3" t="n">
+      <c r="V3" t="n">
         <v>-16.98614278011753</v>
       </c>
-      <c r="T3" t="n">
+      <c r="W3" t="n">
         <v>71.95270770372134</v>
       </c>
-      <c r="U3" t="n">
+      <c r="X3" t="n">
         <v>34.91277399381215</v>
       </c>
-      <c r="V3" t="n">
+      <c r="Y3" t="n">
         <v>12.46293567254907</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Z3" t="n">
         <v>-15.96197076025419</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AA3" t="n">
         <v>69547.66643850974</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AB3" t="n">
         <v>69351.8941277097</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AC3" t="n">
         <v>62.18894422435125</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AD3" t="n">
         <v>57.1546696481532</v>
       </c>
-      <c r="AB3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
         <v>70000.234</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AH3" t="n">
         <v>69700.234</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AI3" t="n">
         <v>69700.234</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AJ3" t="n">
         <v>69750.234</v>
       </c>
-      <c r="AH3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="2" t="n">
+      <c r="AK3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="2" t="n">
         <v>45453.77083333334</v>
       </c>
-      <c r="AJ3" s="2" t="n">
+      <c r="AM3" s="2" t="n">
         <v>45453.77083333334</v>
       </c>
-      <c r="AK3" s="2" t="n">
+      <c r="AN3" s="2" t="n">
         <v>45453.77503472222</v>
       </c>
-      <c r="AL3" s="2" t="n">
+      <c r="AO3" s="2" t="n">
         <v>45453.92142361111</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>100</v>
       </c>
-      <c r="AN3" t="n">
-        <v>147.16</v>
-      </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AQ3" t="n">
+        <v>145.83</v>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AP3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>145.52</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>522.74</v>
-      </c>
-      <c r="AS3" t="n">
+      <c r="AS3" t="b">
         <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>144.21</v>
       </c>
       <c r="AU3" t="n">
+        <v>521.99</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
         <v>24</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AY3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1003,110 +1032,117 @@
         <v>45453.83333333334</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0009680033532334434</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.002049592485563313</v>
-      </c>
+        <v>124.8222976190009</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
         <v>69959.64758333335</v>
       </c>
       <c r="O4" t="n">
+        <v>0.0009680033532334434</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.002049592485563313</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>69837.99628571428</v>
+      </c>
+      <c r="R4" t="n">
         <v>69872.55659555702</v>
       </c>
-      <c r="P4" t="n">
+      <c r="S4" t="n">
         <v>69744.0072602057</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="T4" t="n">
         <v>70042.52970691433</v>
       </c>
-      <c r="R4" t="n">
+      <c r="U4" t="n">
         <v>63.32558110136597</v>
       </c>
-      <c r="S4" t="n">
+      <c r="V4" t="n">
         <v>50.28542300848916</v>
       </c>
-      <c r="T4" t="n">
+      <c r="W4" t="n">
         <v>260.9352000300844</v>
       </c>
-      <c r="U4" t="n">
+      <c r="X4" t="n">
         <v>21.26558823531377</v>
       </c>
-      <c r="V4" t="n">
+      <c r="Y4" t="n">
         <v>-6.397646714860457</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Z4" t="n">
         <v>7.38074647403846</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AA4" t="n">
         <v>70396.29222695495</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AB4" t="n">
         <v>69690.26718687371</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AC4" t="n">
         <v>68.81394814987057</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AD4" t="n">
         <v>66.91749320578701</v>
       </c>
-      <c r="AB4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
         <v>70452.836</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AH4" t="n">
         <v>69852.836</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AI4" t="n">
         <v>70152.836</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AJ4" t="n">
         <v>70202.836</v>
       </c>
-      <c r="AH4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" s="2" t="n">
+      <c r="AK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" s="2" t="n">
         <v>45453.89758101852</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>23.72450000000026</v>
       </c>
-      <c r="AN4" t="n">
-        <v>34.56</v>
-      </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AQ4" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AP4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>-72.78</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>449.96</v>
-      </c>
-      <c r="AS4" t="n">
+      <c r="AS4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>-72.22</v>
       </c>
       <c r="AU4" t="n">
+        <v>449.77</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX4" t="n">
         <v>24</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AY4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1145,114 +1181,121 @@
         <v>45454.04166666666</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0008077476534314144</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-0.00153781308477644</v>
-      </c>
+        <v>-112.6730357143679</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
         <v>69552.66411904758</v>
       </c>
       <c r="O5" t="n">
+        <v>-0.0008077476534314144</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.00153781308477644</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>69661.76007142849</v>
+      </c>
+      <c r="R5" t="n">
         <v>69593.70888445771</v>
       </c>
-      <c r="P5" t="n">
+      <c r="S5" t="n">
         <v>69646.8947199766</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="T5" t="n">
         <v>69500.90544754035</v>
       </c>
-      <c r="R5" t="n">
+      <c r="U5" t="n">
         <v>-16.03322474722518</v>
       </c>
-      <c r="S5" t="n">
+      <c r="V5" t="n">
         <v>-2.155944994442736</v>
       </c>
-      <c r="T5" t="n">
+      <c r="W5" t="n">
         <v>196.2805080334246</v>
       </c>
-      <c r="U5" t="n">
+      <c r="X5" t="n">
         <v>-2.890021327941213</v>
       </c>
-      <c r="V5" t="n">
+      <c r="Y5" t="n">
         <v>7.183992088132072</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Z5" t="n">
         <v>-16.88783832134504</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AA5" t="n">
         <v>69765.88413338548</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AB5" t="n">
         <v>69234.42676169523</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AC5" t="n">
         <v>36.56604935024065</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AD5" t="n">
         <v>38.19308173773928</v>
       </c>
-      <c r="AB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="n">
         <v>69057.93799999999</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AH5" t="n">
         <v>69657.93799999999</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AI5" t="n">
         <v>69357.93799999999</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AJ5" t="n">
         <v>69307.93799999999</v>
       </c>
-      <c r="AH5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" s="2" t="n">
+      <c r="AK5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" s="2" t="n">
         <v>45454.20833333334</v>
       </c>
-      <c r="AK5" s="2" t="n">
+      <c r="AN5" s="2" t="n">
         <v>45454.20347222222</v>
       </c>
-      <c r="AL5" s="2" t="n">
+      <c r="AO5" s="2" t="n">
         <v>45455.71978009259</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>100</v>
       </c>
-      <c r="AN5" t="n">
-        <v>206.8</v>
-      </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AQ5" t="n">
+        <v>204.95</v>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AP5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>145.51</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>595.47</v>
-      </c>
-      <c r="AS5" t="n">
+      <c r="AS5" t="b">
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>144.21</v>
       </c>
       <c r="AU5" t="n">
+        <v>593.98</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
         <v>24</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AY5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1291,114 +1334,121 @@
         <v>45454.125</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0009504115902258844</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-0.001351795619435944</v>
-      </c>
+        <v>-35.99505952377513</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
         <v>69464.50908333335</v>
       </c>
       <c r="O6" t="n">
+        <v>-0.0009504115902258844</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.001351795619435944</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>69516.6690595238</v>
+      </c>
+      <c r="R6" t="n">
         <v>69529.29181250739</v>
       </c>
-      <c r="P6" t="n">
+      <c r="S6" t="n">
         <v>69583.13060363906</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="T6" t="n">
         <v>69487.94152493983</v>
       </c>
-      <c r="R6" t="n">
+      <c r="U6" t="n">
         <v>-25.44218166038627</v>
       </c>
-      <c r="S6" t="n">
+      <c r="V6" t="n">
         <v>-19.78941746206027</v>
       </c>
-      <c r="T6" t="n">
+      <c r="W6" t="n">
         <v>125.306632316727</v>
       </c>
-      <c r="U6" t="n">
+      <c r="X6" t="n">
         <v>-33.04309253524116</v>
       </c>
-      <c r="V6" t="n">
+      <c r="Y6" t="n">
         <v>-12.07805882349203</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Z6" t="n">
         <v>11.84765084278479</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AA6" t="n">
         <v>69657.10547856741</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AB6" t="n">
         <v>69317.27757131225</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AC6" t="n">
         <v>33.32513290523485</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AD6" t="n">
         <v>42.2613077672755</v>
       </c>
-      <c r="AB6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="n">
         <v>69054.734</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AH6" t="n">
         <v>69654.734</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AI6" t="n">
         <v>69354.734</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AJ6" t="n">
         <v>69304.734</v>
       </c>
-      <c r="AH6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" s="2" t="n">
+      <c r="AK6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" s="2" t="n">
         <v>45454.20833333334</v>
       </c>
-      <c r="AK6" s="2" t="n">
+      <c r="AN6" s="2" t="n">
         <v>45454.20347222222</v>
       </c>
-      <c r="AL6" s="2" t="n">
+      <c r="AO6" s="2" t="n">
         <v>45455.71978009259</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>100</v>
       </c>
-      <c r="AN6" t="n">
-        <v>205.71</v>
-      </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AQ6" t="n">
+        <v>203.87</v>
+      </c>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AP6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>145.51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>740.98</v>
-      </c>
-      <c r="AS6" t="n">
+      <c r="AS6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>144.21</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>738.1900000000001</v>
+      </c>
+      <c r="AV6" t="n">
         <v>2</v>
       </c>
-      <c r="AT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU6" t="n">
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
         <v>24</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AY6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1437,114 +1487,121 @@
         <v>45454.16666666666</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.00221752935247328</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-0.001224711330770327</v>
-      </c>
+        <v>-52.15997619045083</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
         <v>69217.31329761907</v>
       </c>
       <c r="O7" t="n">
+        <v>-0.00221752935247328</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.001224711330770327</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>69464.50908333335</v>
+      </c>
+      <c r="R7" t="n">
         <v>69371.09709147258</v>
       </c>
-      <c r="P7" t="n">
+      <c r="S7" t="n">
         <v>69486.51994452614</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="T7" t="n">
         <v>69309.45438906089</v>
       </c>
-      <c r="R7" t="n">
+      <c r="U7" t="n">
         <v>-50.76425634912448</v>
       </c>
-      <c r="S7" t="n">
+      <c r="V7" t="n">
         <v>-29.87383665750035</v>
       </c>
-      <c r="T7" t="n">
+      <c r="W7" t="n">
         <v>176.4839254394019</v>
       </c>
-      <c r="U7" t="n">
+      <c r="X7" t="n">
         <v>-142.6166222910106</v>
       </c>
-      <c r="V7" t="n">
+      <c r="Y7" t="n">
         <v>-11.53997282421915</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Z7" t="n">
         <v>-6.847174406633712</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AA7" t="n">
         <v>69547.70768840409</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AB7" t="n">
         <v>69069.7010897177</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AC7" t="n">
         <v>18.44935312652831</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AD7" t="n">
         <v>27.86900147009974</v>
       </c>
-      <c r="AB7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="n">
         <v>68323.234</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AH7" t="n">
         <v>68923.234</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AI7" t="n">
         <v>68623.234</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AJ7" t="n">
         <v>68573.234</v>
       </c>
-      <c r="AH7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" s="2" t="n">
+      <c r="AK7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" s="2" t="n">
         <v>45454.21875</v>
       </c>
-      <c r="AK7" s="2" t="n">
+      <c r="AN7" s="2" t="n">
         <v>45454.22097222223</v>
       </c>
-      <c r="AL7" s="2" t="n">
+      <c r="AO7" s="2" t="n">
         <v>45454.21002314815</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>50.45299999999771</v>
       </c>
-      <c r="AN7" t="n">
-        <v>73.48</v>
-      </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AQ7" t="n">
+        <v>72.81999999999999</v>
+      </c>
+      <c r="AR7" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AP7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>-72.77</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>668.21</v>
-      </c>
-      <c r="AS7" t="n">
+      <c r="AS7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>-72.22</v>
       </c>
       <c r="AU7" t="n">
+        <v>665.97</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX7" t="n">
         <v>24</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AY7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1583,114 +1640,123 @@
         <v>45454.58333333334</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.002272870568586319</v>
+        <v>-218.7639404762303</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.002294490895193041</v>
+        <v>-300.9808454970625</v>
       </c>
       <c r="N8" t="n">
         <v>67027.21676190474</v>
       </c>
       <c r="O8" t="n">
+        <v>-0.002272870568586319</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.002294490895193041</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>67162.46163095237</v>
+      </c>
+      <c r="R8" t="n">
         <v>67215.01972342085</v>
       </c>
-      <c r="P8" t="n">
+      <c r="S8" t="n">
         <v>67525.87095964188</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="T8" t="n">
         <v>67003.57686549712</v>
       </c>
-      <c r="R8" t="n">
+      <c r="U8" t="n">
         <v>-199.1677459545317</v>
       </c>
-      <c r="S8" t="n">
+      <c r="V8" t="n">
         <v>-199.0858694972115</v>
       </c>
-      <c r="T8" t="n">
+      <c r="W8" t="n">
         <v>312.8030712933459</v>
       </c>
-      <c r="U8" t="n">
+      <c r="X8" t="n">
         <v>-62.59890780870046</v>
       </c>
-      <c r="V8" t="n">
+      <c r="Y8" t="n">
         <v>-37.31522635016881</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Z8" t="n">
         <v>-76.6362146542524</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AA8" t="n">
         <v>67425.86101174314</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AB8" t="n">
         <v>66579.7927192511</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AC8" t="n">
         <v>30.91346479783693</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AD8" t="n">
         <v>34.1362957000051</v>
       </c>
-      <c r="AB8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="n">
         <v>66531.734</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AH8" t="n">
         <v>67131.734</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AI8" t="n">
         <v>66831.734</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AJ8" t="n">
         <v>66781.734</v>
       </c>
-      <c r="AH8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" s="2" t="n">
+      <c r="AK8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" s="2" t="n">
         <v>45454.78125</v>
       </c>
-      <c r="AK8" s="2" t="n">
+      <c r="AN8" s="2" t="n">
         <v>45454.70614583333</v>
       </c>
-      <c r="AL8" s="2" t="n">
+      <c r="AO8" s="2" t="n">
         <v>45454.63019675926</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32.84950000000026</v>
       </c>
-      <c r="AN8" t="n">
-        <v>47.84</v>
-      </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AQ8" t="n">
+        <v>47.41</v>
+      </c>
+      <c r="AR8" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AP8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>-72.78</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>595.4300000000001</v>
-      </c>
-      <c r="AS8" t="n">
+      <c r="AS8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="n">
+        <v>-72.22</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>593.75</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
         <v>2</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AX8" t="n">
         <v>24</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AY8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1729,114 +1795,123 @@
         <v>45454.75</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.002081085919744115</v>
+        <v>-46.27488095233275</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.001484994339399434</v>
+        <v>-360.9656822663965</v>
       </c>
       <c r="N9" t="n">
         <v>66614.01504761908</v>
       </c>
       <c r="O9" t="n">
+        <v>-0.002081085919744115</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.001484994339399434</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>66826.49213095242</v>
+      </c>
+      <c r="R9" t="n">
         <v>66848.41715997609</v>
       </c>
-      <c r="P9" t="n">
+      <c r="S9" t="n">
         <v>67064.68375477691</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="T9" t="n">
         <v>66799.19930443758</v>
       </c>
-      <c r="R9" t="n">
+      <c r="U9" t="n">
         <v>-142.6428023084882</v>
       </c>
-      <c r="S9" t="n">
+      <c r="V9" t="n">
         <v>-140.6705229934497</v>
       </c>
-      <c r="T9" t="n">
+      <c r="W9" t="n">
         <v>230.3610317227259</v>
       </c>
-      <c r="U9" t="n">
+      <c r="X9" t="n">
         <v>-158.9595534914988</v>
       </c>
-      <c r="V9" t="n">
+      <c r="Y9" t="n">
         <v>-31.96957309945719</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Z9" t="n">
         <v>15.01476539384748</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AA9" t="n">
         <v>67110.18669726327</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AB9" t="n">
         <v>66486.7119116119</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AC9" t="n">
         <v>41.54691244616117</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AD9" t="n">
         <v>52.3484527615685</v>
       </c>
-      <c r="AB9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="n">
         <v>65692.883</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AH9" t="n">
         <v>66292.883</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AI9" t="n">
         <v>65992.883</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AJ9" t="n">
         <v>65942.883</v>
       </c>
-      <c r="AH9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" s="2" t="n">
+      <c r="AK9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" s="2" t="n">
         <v>45457.80208333334</v>
       </c>
-      <c r="AK9" s="2" t="n">
+      <c r="AN9" s="2" t="n">
         <v>45457.79819444445</v>
       </c>
-      <c r="AL9" s="2" t="n">
+      <c r="AO9" s="2" t="n">
         <v>45454.78133101852</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>5.925750000002154</v>
       </c>
-      <c r="AN9" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AQ9" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AP9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>-72.78</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>522.6500000000001</v>
-      </c>
-      <c r="AS9" t="n">
+      <c r="AS9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="n">
+        <v>-72.22</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>521.53</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
         <v>3</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AX9" t="n">
         <v>24</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AY9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1875,116 +1950,125 @@
         <v>45455.5</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003042122032208858</v>
+        <v>3.868023809525766</v>
       </c>
       <c r="M10" t="n">
-        <v>0.000440975382211819</v>
+        <v>-163.3759123015916</v>
       </c>
       <c r="N10" t="n">
         <v>67480.67139285718</v>
       </c>
       <c r="O10" t="n">
+        <v>0.0003042122032208858</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.000440975382211819</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>67371.72144047618</v>
+      </c>
+      <c r="R10" t="n">
         <v>67423.16905330552</v>
       </c>
-      <c r="P10" t="n">
+      <c r="S10" t="n">
         <v>67387.84768123135</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="T10" t="n">
         <v>67463.71164430685</v>
       </c>
-      <c r="R10" t="n">
+      <c r="U10" t="n">
         <v>20.82693122515047</v>
       </c>
-      <c r="S10" t="n">
+      <c r="V10" t="n">
         <v>18.4446645868211</v>
       </c>
-      <c r="T10" t="n">
+      <c r="W10" t="n">
         <v>90.20491062923693</v>
       </c>
-      <c r="U10" t="n">
+      <c r="X10" t="n">
         <v>29.38905916754447</v>
       </c>
-      <c r="V10" t="n">
+      <c r="Y10" t="n">
         <v>19.63745717232814</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Z10" t="n">
         <v>39.61082318543049</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AA10" t="n">
         <v>67586.98827365632</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AB10" t="n">
         <v>67341.93501495739</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AC10" t="n">
         <v>83.61537882581661</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AD10" t="n">
         <v>75.45072894523814</v>
       </c>
-      <c r="AB10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
         <v>67914.234</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AH10" t="n">
         <v>67614.234</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AI10" t="n">
         <v>67614.234</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AJ10" t="n">
         <v>67664.234</v>
       </c>
-      <c r="AH10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="2" t="n">
+      <c r="AK10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="2" t="n">
         <v>45455.54166666666</v>
       </c>
-      <c r="AJ10" s="2" t="n">
+      <c r="AM10" s="2" t="n">
         <v>45455.54166666666</v>
       </c>
-      <c r="AK10" s="2" t="n">
+      <c r="AN10" s="2" t="n">
         <v>45455.54341435185</v>
       </c>
-      <c r="AL10" s="2" t="n">
+      <c r="AO10" s="2" t="n">
         <v>45455.94967592593</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>100</v>
       </c>
-      <c r="AN10" t="n">
-        <v>154.06</v>
-      </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AQ10" t="n">
+        <v>152.68</v>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AP10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>145.51</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>668.1600000000001</v>
-      </c>
-      <c r="AS10" t="n">
+      <c r="AS10" t="b">
         <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>144.21</v>
       </c>
       <c r="AU10" t="n">
+        <v>665.74</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
         <v>24</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AY10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2023,114 +2107,123 @@
         <v>45455.625</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001946016244131663</v>
+        <v>82.10345238099399</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004124108894412777</v>
+        <v>-99.76952890226676</v>
       </c>
       <c r="N11" t="n">
         <v>68336.28533333335</v>
       </c>
       <c r="O11" t="n">
+        <v>0.001946016244131663</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.004124108894412777</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>67748.9216904762</v>
+      </c>
+      <c r="R11" t="n">
         <v>68027.07837398449</v>
       </c>
-      <c r="P11" t="n">
+      <c r="S11" t="n">
         <v>67777.62227722202</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="T11" t="n">
         <v>68232.54822394218</v>
       </c>
-      <c r="R11" t="n">
+      <c r="U11" t="n">
         <v>113.8053072143375</v>
       </c>
-      <c r="S11" t="n">
+      <c r="V11" t="n">
         <v>70.96392561473861</v>
       </c>
-      <c r="T11" t="n">
+      <c r="W11" t="n">
         <v>428.4379570174218</v>
       </c>
-      <c r="U11" t="n">
+      <c r="X11" t="n">
         <v>305.1081974544795</v>
       </c>
-      <c r="V11" t="n">
+      <c r="Y11" t="n">
         <v>42.22162125897012</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Z11" t="n">
         <v>-0.4248132094944594</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AA11" t="n">
         <v>68812.4394659157</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AB11" t="n">
         <v>67654.15698196867</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AC11" t="n">
         <v>83.14651151650862</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AD11" t="n">
         <v>71.34702900407807</v>
       </c>
-      <c r="AB11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
         <v>69799.734</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AH11" t="n">
         <v>69199.734</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AI11" t="n">
         <v>69499.734</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AJ11" t="n">
         <v>69549.734</v>
       </c>
-      <c r="AH11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" s="2" t="n">
+      <c r="AK11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" s="2" t="n">
         <v>45455.72916666666</v>
       </c>
-      <c r="AK11" s="2" t="n">
+      <c r="AN11" s="2" t="n">
         <v>45455.72401620371</v>
       </c>
-      <c r="AL11" s="2" t="n">
+      <c r="AO11" s="2" t="n">
         <v>45455.65797453704</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>16.75</v>
       </c>
-      <c r="AN11" t="n">
-        <v>24.37</v>
-      </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AQ11" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AP11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>-72.78</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>595.3800000000001</v>
-      </c>
-      <c r="AS11" t="n">
+      <c r="AS11" t="b">
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>-72.22</v>
       </c>
       <c r="AU11" t="n">
+        <v>593.52</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX11" t="n">
         <v>24</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AY11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2169,112 +2262,121 @@
         <v>45455.91666666666</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.001110261505233211</v>
+        <v>-291.4419166666485</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.001003083432182472</v>
+        <v>175.4318413170986</v>
       </c>
       <c r="N12" t="n">
         <v>68778.63891666666</v>
       </c>
       <c r="O12" t="n">
+        <v>-0.001110261505233211</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.001003083432182472</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>69585.73799999998</v>
+      </c>
+      <c r="R12" t="n">
         <v>69149.40378507065</v>
       </c>
-      <c r="P12" t="n">
+      <c r="S12" t="n">
         <v>69131.08268144631</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="T12" t="n">
         <v>68986.41664121085</v>
       </c>
-      <c r="R12" t="n">
+      <c r="U12" t="n">
         <v>94.78958188017714</v>
       </c>
-      <c r="S12" t="n">
+      <c r="V12" t="n">
         <v>169.7704921465758</v>
       </c>
-      <c r="T12" t="n">
+      <c r="W12" t="n">
         <v>352.3440359964893</v>
       </c>
-      <c r="U12" t="n">
+      <c r="X12" t="n">
         <v>-138.8868882008974</v>
       </c>
-      <c r="V12" t="n">
+      <c r="Y12" t="n">
         <v>-98.03250429999025</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Z12" t="n">
         <v>-121.3417519779759</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AA12" t="n">
         <v>69462.0810898061</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AB12" t="n">
         <v>68509.25219261559</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AC12" t="n">
         <v>16.59954294507046</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AD12" t="n">
         <v>24.17667565995262</v>
       </c>
-      <c r="AB12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD12" t="n">
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG12" t="n">
         <v>68120.93799999999</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AH12" t="n">
         <v>68720.93799999999</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AI12" t="n">
         <v>68420.93799999999</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AJ12" t="n">
         <v>68370.93799999999</v>
       </c>
-      <c r="AH12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" s="2" t="n">
+      <c r="AK12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" s="2" t="n">
         <v>45455.94791666666</v>
       </c>
-      <c r="AK12" s="2" t="n">
+      <c r="AN12" s="2" t="n">
         <v>45455.94454861111</v>
       </c>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="n">
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="n">
         <v>100</v>
       </c>
-      <c r="AN12" t="n">
-        <v>148.42</v>
-      </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AQ12" t="n">
+        <v>147.09</v>
+      </c>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AP12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>145.51</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>740.8900000000001</v>
-      </c>
-      <c r="AS12" t="n">
+      <c r="AS12" t="b">
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>144.21</v>
       </c>
       <c r="AU12" t="n">
+        <v>737.73</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
         <v>24</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AY12" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2313,114 +2415,123 @@
         <v>45456.25</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0009417316379855204</v>
+        <v>-79.78308333341556</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.001066225404567347</v>
+        <v>47.13966920199164</v>
       </c>
       <c r="N13" t="n">
         <v>67799.63284523813</v>
       </c>
       <c r="O13" t="n">
+        <v>-0.0009417316379855204</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.001066225404567347</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>68091.87236904757</v>
+      </c>
+      <c r="R13" t="n">
         <v>67908.01294869372</v>
       </c>
-      <c r="P13" t="n">
+      <c r="S13" t="n">
         <v>68115.9264807193</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="T13" t="n">
         <v>67789.79382524939</v>
       </c>
-      <c r="R13" t="n">
+      <c r="U13" t="n">
         <v>-111.115865214786</v>
       </c>
-      <c r="S13" t="n">
+      <c r="V13" t="n">
         <v>-92.30724097234977</v>
       </c>
-      <c r="T13" t="n">
+      <c r="W13" t="n">
         <v>256.3607477866954</v>
       </c>
-      <c r="U13" t="n">
+      <c r="X13" t="n">
         <v>-106.2297309942078</v>
       </c>
-      <c r="V13" t="n">
+      <c r="Y13" t="n">
         <v>-43.33565015481145</v>
       </c>
-      <c r="W13" t="n">
+      <c r="Z13" t="n">
         <v>-67.94781286544458</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AA13" t="n">
         <v>68135.88083476142</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AB13" t="n">
         <v>67442.20681573736</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AC13" t="n">
         <v>12.17644454708938</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AD13" t="n">
         <v>17.76909891673069</v>
       </c>
-      <c r="AB13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="n">
         <v>67019.141</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AH13" t="n">
         <v>67619.141</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AI13" t="n">
         <v>67319.141</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AJ13" t="n">
         <v>67269.141</v>
       </c>
-      <c r="AH13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" s="2" t="n">
+      <c r="AK13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" s="2" t="n">
         <v>45456.28125</v>
       </c>
-      <c r="AK13" s="2" t="n">
+      <c r="AN13" s="2" t="n">
         <v>45456.27650462963</v>
       </c>
-      <c r="AL13" s="2" t="n">
+      <c r="AO13" s="2" t="n">
         <v>45456.29509259259</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>100</v>
       </c>
-      <c r="AN13" t="n">
-        <v>147.17</v>
-      </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AQ13" t="n">
+        <v>145.83</v>
+      </c>
+      <c r="AR13" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AP13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>145.53</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>886.4200000000001</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="AS13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>144.21</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>881.9400000000001</v>
+      </c>
+      <c r="AV13" t="n">
         <v>2</v>
       </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
         <v>24</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AY13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2459,114 +2570,123 @@
         <v>45456.29166666666</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.002798765060944067</v>
+        <v>-292.2395238094468</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.001631147905867502</v>
+        <v>20.79963152154232</v>
       </c>
       <c r="N14" t="n">
         <v>67543.77051190478</v>
       </c>
       <c r="O14" t="n">
+        <v>-0.002798765060944067</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-0.001631147905867502</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>67799.63284523813</v>
+      </c>
+      <c r="R14" t="n">
         <v>67638.94064655445</v>
       </c>
-      <c r="P14" t="n">
+      <c r="S14" t="n">
         <v>67880.97006843211</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="T14" t="n">
         <v>67397.44332920536</v>
       </c>
-      <c r="R14" t="n">
+      <c r="U14" t="n">
         <v>-135.5957385266083</v>
       </c>
-      <c r="S14" t="n">
+      <c r="V14" t="n">
         <v>-121.4259841707047</v>
       </c>
-      <c r="T14" t="n">
+      <c r="W14" t="n">
         <v>335.8344687585272</v>
       </c>
-      <c r="U14" t="n">
+      <c r="X14" t="n">
         <v>-73.83611867905711</v>
       </c>
-      <c r="V14" t="n">
+      <c r="Y14" t="n">
         <v>-35.64088441692002</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Z14" t="n">
         <v>-20.70514895080123</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AA14" t="n">
         <v>67850.81986202937</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AB14" t="n">
         <v>66942.56679638135</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AC14" t="n">
         <v>42.8944345817552</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AD14" t="n">
         <v>45.25485162013219</v>
       </c>
-      <c r="AB14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD14" t="n">
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="n">
         <v>66909.641</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AH14" t="n">
         <v>67509.641</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AI14" t="n">
         <v>67209.641</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AJ14" t="n">
         <v>67159.641</v>
       </c>
-      <c r="AH14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" s="2" t="n">
+      <c r="AK14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" s="2" t="n">
         <v>45456.77083333334</v>
       </c>
-      <c r="AK14" s="2" t="n">
+      <c r="AN14" s="2" t="n">
         <v>45456.7699537037</v>
       </c>
-      <c r="AL14" s="2" t="n">
+      <c r="AO14" s="2" t="n">
         <v>45456.33908564815</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>1.877000000000407</v>
       </c>
-      <c r="AN14" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AQ14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AR14" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AP14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>-72.78</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>813.6400000000001</v>
-      </c>
-      <c r="AS14" t="n">
+      <c r="AS14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>-72.22</v>
       </c>
       <c r="AU14" t="n">
+        <v>809.72</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX14" t="n">
         <v>24</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AY14" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2605,114 +2725,123 @@
         <v>45456.54166666666</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0005233224704010557</v>
+        <v>-11.47742857142293</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0002260568817638341</v>
+        <v>-61.95178370311623</v>
       </c>
       <c r="N15" t="n">
         <v>67625.59028571434</v>
       </c>
       <c r="O15" t="n">
+        <v>0.0005233224704010557</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.0002260568817638341</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>67509.56330952383</v>
+      </c>
+      <c r="R15" t="n">
         <v>67501.57831845328</v>
       </c>
-      <c r="P15" t="n">
+      <c r="S15" t="n">
         <v>67562.44637675588</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="T15" t="n">
         <v>67465.58386721705</v>
       </c>
-      <c r="R15" t="n">
+      <c r="U15" t="n">
         <v>-57.51863189478172</v>
       </c>
-      <c r="S15" t="n">
+      <c r="V15" t="n">
         <v>-73.57681481325332</v>
       </c>
-      <c r="T15" t="n">
+      <c r="W15" t="n">
         <v>143.9719685715735</v>
       </c>
-      <c r="U15" t="n">
+      <c r="X15" t="n">
         <v>52.78859339520568</v>
       </c>
-      <c r="V15" t="n">
+      <c r="Y15" t="n">
         <v>9.146921224644757</v>
       </c>
-      <c r="W15" t="n">
+      <c r="Z15" t="n">
         <v>-15.93616787066276</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AA15" t="n">
         <v>67661.44602478867</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AB15" t="n">
         <v>67271.22170964543</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AC15" t="n">
         <v>62.73496821516562</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AD15" t="n">
         <v>46.71515246634997</v>
       </c>
-      <c r="AB15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="AE15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
         <v>68192.43799999999</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AH15" t="n">
         <v>67592.43799999999</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AI15" t="n">
         <v>67892.43799999999</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AJ15" t="n">
         <v>67942.43799999999</v>
       </c>
-      <c r="AH15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" s="2" t="n">
+      <c r="AK15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" s="2" t="n">
         <v>45456.6875</v>
       </c>
-      <c r="AK15" s="2" t="n">
+      <c r="AN15" s="2" t="n">
         <v>45456.64590277777</v>
       </c>
-      <c r="AL15" s="2" t="n">
+      <c r="AO15" s="2" t="n">
         <v>45456.64820601852</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>100</v>
       </c>
-      <c r="AN15" t="n">
-        <v>207.2</v>
-      </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AQ15" t="n">
+        <v>205.32</v>
+      </c>
+      <c r="AR15" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AP15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>145.53</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>959.1700000000001</v>
-      </c>
-      <c r="AS15" t="n">
+      <c r="AS15" t="b">
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>144.21</v>
       </c>
       <c r="AU15" t="n">
+        <v>953.9300000000001</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
         <v>24</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AY15" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2751,114 +2880,123 @@
         <v>45456.95833333334</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.000753043529480558</v>
+        <v>-118.3567857143789</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.003048597626807293</v>
+        <v>-156.1893666797259</v>
       </c>
       <c r="N16" t="n">
         <v>66664.82428571426</v>
       </c>
       <c r="O16" t="n">
+        <v>-0.000753043529480558</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0.003048597626807293</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>66685.70660714278</v>
+      </c>
+      <c r="R16" t="n">
         <v>66721.97816289708</v>
       </c>
-      <c r="P16" t="n">
+      <c r="S16" t="n">
         <v>66892.24550152688</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="T16" t="n">
         <v>66679.3991090472</v>
       </c>
-      <c r="R16" t="n">
+      <c r="U16" t="n">
         <v>-106.8109192245756</v>
       </c>
-      <c r="S16" t="n">
+      <c r="V16" t="n">
         <v>-105.9614480265696</v>
       </c>
-      <c r="T16" t="n">
+      <c r="W16" t="n">
         <v>252.4932575855644</v>
       </c>
-      <c r="U16" t="n">
+      <c r="X16" t="n">
         <v>-55.012042655595</v>
       </c>
-      <c r="V16" t="n">
+      <c r="Y16" t="n">
         <v>-45.96721706226526</v>
       </c>
-      <c r="W16" t="n">
+      <c r="Z16" t="n">
         <v>-38.22554454760393</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AA16" t="n">
         <v>67020.26500678771</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AB16" t="n">
         <v>66337.03321130668</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AC16" t="n">
         <v>15.51953283994219</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AD16" t="n">
         <v>17.3659924666761</v>
       </c>
-      <c r="AB16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD16" t="n">
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG16" t="n">
         <v>66127.836</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AH16" t="n">
         <v>66727.836</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AI16" t="n">
         <v>66427.836</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AJ16" t="n">
         <v>66377.836</v>
       </c>
-      <c r="AH16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" s="2" t="n">
+      <c r="AK16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" s="2" t="n">
         <v>45457.79166666666</v>
       </c>
-      <c r="AK16" s="2" t="n">
+      <c r="AN16" s="2" t="n">
         <v>45457.79732638889</v>
       </c>
-      <c r="AL16" s="2" t="n">
+      <c r="AO16" s="2" t="n">
         <v>45457.00275462963</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>1.495999999999185</v>
       </c>
-      <c r="AN16" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AO16" t="inlineStr">
+      <c r="AQ16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AR16" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AP16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>-72.79000000000001</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>886.3800000000001</v>
-      </c>
-      <c r="AS16" t="n">
+      <c r="AS16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>-72.22</v>
       </c>
       <c r="AU16" t="n">
+        <v>881.71</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX16" t="n">
         <v>24</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AY16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2897,112 +3035,121 @@
         <v>45457.33333333334</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000225328534875658</v>
+        <v>-51.34533333333093</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0004933027336668688</v>
+        <v>-161.3877463307435</v>
       </c>
       <c r="N17" t="n">
         <v>66849.31267857143</v>
       </c>
       <c r="O17" t="n">
+        <v>0.000225328534875658</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0004933027336668688</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>66751.26505952384</v>
+      </c>
+      <c r="R17" t="n">
         <v>66810.69382019422</v>
       </c>
-      <c r="P17" t="n">
+      <c r="S17" t="n">
         <v>66794.49621147757</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="T17" t="n">
         <v>66837.58129170966</v>
       </c>
-      <c r="R17" t="n">
+      <c r="U17" t="n">
         <v>-4.507751955345157</v>
       </c>
-      <c r="S17" t="n">
+      <c r="V17" t="n">
         <v>-17.12172679295092</v>
       </c>
-      <c r="T17" t="n">
+      <c r="W17" t="n">
         <v>95.39707931626103</v>
       </c>
-      <c r="U17" t="n">
+      <c r="X17" t="n">
         <v>60.85848022019491</v>
       </c>
-      <c r="V17" t="n">
+      <c r="Y17" t="n">
         <v>8.869786721625132</v>
       </c>
-      <c r="W17" t="n">
+      <c r="Z17" t="n">
         <v>-4.242295837626443</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AA17" t="n">
         <v>66967.86734878662</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AB17" t="n">
         <v>66708.79523463271</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AC17" t="n">
         <v>55.30419052757426</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AD17" t="n">
         <v>45.29218258701474</v>
       </c>
-      <c r="AB17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
+      <c r="AE17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
         <v>67495.336</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AH17" t="n">
         <v>66895.336</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AI17" t="n">
         <v>67195.336</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AJ17" t="n">
         <v>67245.336</v>
       </c>
-      <c r="AH17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" s="2" t="n">
+      <c r="AK17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" s="2" t="n">
         <v>45457.6875</v>
       </c>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" s="2" t="n">
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" s="2" t="n">
         <v>45457.39572916667</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>27.125</v>
       </c>
-      <c r="AN17" t="n">
-        <v>39.47</v>
-      </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AQ17" t="n">
+        <v>39.12</v>
+      </c>
+      <c r="AR17" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AP17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>-72.78</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>813.6000000000001</v>
-      </c>
-      <c r="AS17" t="n">
+      <c r="AS17" t="b">
         <v>0</v>
       </c>
       <c r="AT17" t="n">
+        <v>-72.22</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>809.49</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
         <v>2</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AX17" t="n">
         <v>24</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AY17" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3041,110 +3188,119 @@
         <v>45457.45833333334</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0008323638505094001</v>
+        <v>12.05719047618913</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0009028026582604986</v>
+        <v>-137.018311992535</v>
       </c>
       <c r="N18" t="n">
         <v>66983.93709523803</v>
       </c>
       <c r="O18" t="n">
+        <v>0.0008323638505094001</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.0009028026582604986</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>66909.24478571425</v>
+      </c>
+      <c r="R18" t="n">
         <v>66949.98052577201</v>
       </c>
-      <c r="P18" t="n">
+      <c r="S18" t="n">
         <v>66892.06420200413</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="T18" t="n">
         <v>67026.62014791877</v>
       </c>
-      <c r="R18" t="n">
+      <c r="U18" t="n">
         <v>23.21086257071875</v>
       </c>
-      <c r="S18" t="n">
+      <c r="V18" t="n">
         <v>12.83856117333127</v>
       </c>
-      <c r="T18" t="n">
+      <c r="W18" t="n">
         <v>132.1234753848046</v>
       </c>
-      <c r="U18" t="n">
+      <c r="X18" t="n">
         <v>44.41499140000087</v>
       </c>
-      <c r="V18" t="n">
+      <c r="Y18" t="n">
         <v>-9.416296181603684</v>
       </c>
-      <c r="W18" t="n">
+      <c r="Z18" t="n">
         <v>4.437315101502463</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AA18" t="n">
         <v>67206.48683968825</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AB18" t="n">
         <v>66848.25345614929</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AC18" t="n">
         <v>59.25905639400484</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AD18" t="n">
         <v>50.53866158923901</v>
       </c>
-      <c r="AB18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
+      <c r="AE18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
         <v>67571.93799999999</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AH18" t="n">
         <v>66971.93799999999</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AI18" t="n">
         <v>67271.93799999999</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AJ18" t="n">
         <v>67321.93799999999</v>
       </c>
-      <c r="AH18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" s="2" t="n">
+      <c r="AK18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" s="2" t="n">
         <v>45457.52247685185</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>12.5</v>
       </c>
-      <c r="AN18" t="n">
-        <v>18.19</v>
-      </c>
-      <c r="AO18" t="inlineStr">
+      <c r="AQ18" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="AR18" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AP18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>-72.78</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>740.8200000000002</v>
-      </c>
-      <c r="AS18" t="n">
+      <c r="AS18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="n">
+        <v>-72.22</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>737.27</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
         <v>3</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AX18" t="n">
         <v>24</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AY18" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3183,116 +3339,125 @@
         <v>45460.375</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0007718248876490046</v>
+        <v>-46.12703571429302</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.001087259538212054</v>
+        <v>-113.7037860070122</v>
       </c>
       <c r="N19" t="n">
         <v>66210.67289285715</v>
       </c>
       <c r="O19" t="n">
+        <v>-0.0007718248876490046</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0.001087259538212054</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>66289.37810714282</v>
+      </c>
+      <c r="R19" t="n">
         <v>66305.92614680044</v>
       </c>
-      <c r="P19" t="n">
+      <c r="S19" t="n">
         <v>66329.53368665205</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="T19" t="n">
         <v>66313.47338906089</v>
       </c>
-      <c r="R19" t="n">
+      <c r="U19" t="n">
         <v>-3.632313660666114</v>
       </c>
-      <c r="S19" t="n">
+      <c r="V19" t="n">
         <v>6.347841557619917</v>
       </c>
-      <c r="T19" t="n">
+      <c r="W19" t="n">
         <v>139.269608003449</v>
       </c>
-      <c r="U19" t="n">
+      <c r="X19" t="n">
         <v>-26.40201547992183</v>
       </c>
-      <c r="V19" t="n">
+      <c r="Y19" t="n">
         <v>-3.585778809778276</v>
       </c>
-      <c r="W19" t="n">
+      <c r="Z19" t="n">
         <v>-25.97928723765654</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AA19" t="n">
         <v>66501.48735986555</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AB19" t="n">
         <v>66123.95941825623</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AC19" t="n">
         <v>26.50440781908555</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AD19" t="n">
         <v>38.6266671387208</v>
       </c>
-      <c r="AB19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD19" t="n">
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="n">
         <v>65756.93799999999</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AH19" t="n">
         <v>66056.93799999999</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AI19" t="n">
         <v>66056.93799999999</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AJ19" t="n">
         <v>66006.93799999999</v>
       </c>
-      <c r="AH19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="2" t="n">
+      <c r="AK19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="2" t="n">
         <v>45460.42708333334</v>
       </c>
-      <c r="AJ19" s="2" t="n">
+      <c r="AM19" s="2" t="n">
         <v>45460.42708333334</v>
       </c>
-      <c r="AK19" s="2" t="n">
+      <c r="AN19" s="2" t="n">
         <v>45460.53947916667</v>
       </c>
-      <c r="AL19" s="2" t="n">
+      <c r="AO19" s="2" t="n">
         <v>45460.43320601852</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>65.01174999999785</v>
       </c>
-      <c r="AN19" t="n">
-        <v>94.59</v>
-      </c>
-      <c r="AO19" t="inlineStr">
+      <c r="AQ19" t="n">
+        <v>93.73</v>
+      </c>
+      <c r="AR19" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="AP19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>777.2000000000002</v>
-      </c>
-      <c r="AS19" t="n">
+      <c r="AS19" t="b">
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>36.05</v>
       </c>
       <c r="AU19" t="n">
+        <v>773.3199999999999</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
         <v>25</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AY19" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3331,114 +3496,123 @@
         <v>45460.45833333334</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0007093147760694987</v>
+        <v>-39.54411904767039</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0003052585196425883</v>
+        <v>-114.1097856506676</v>
       </c>
       <c r="N20" t="n">
         <v>66157.06042857141</v>
       </c>
       <c r="O20" t="n">
+        <v>-0.0007093147760694987</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-0.0003052585196425883</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>66171.12877380948</v>
+      </c>
+      <c r="R20" t="n">
         <v>66198.07798854972</v>
       </c>
-      <c r="P20" t="n">
+      <c r="S20" t="n">
         <v>66251.61648479196</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="T20" t="n">
         <v>66132.81991331266</v>
       </c>
-      <c r="R20" t="n">
+      <c r="U20" t="n">
         <v>-23.17455349263037</v>
       </c>
-      <c r="S20" t="n">
+      <c r="V20" t="n">
         <v>-15.28372038580412</v>
       </c>
-      <c r="T20" t="n">
+      <c r="W20" t="n">
         <v>124.1565971568592</v>
       </c>
-      <c r="U20" t="n">
+      <c r="X20" t="n">
         <v>-30.63928448576189</v>
       </c>
-      <c r="V20" t="n">
+      <c r="Y20" t="n">
         <v>5.585706914353068</v>
       </c>
-      <c r="W20" t="n">
+      <c r="Z20" t="n">
         <v>-21.83894324043649</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AA20" t="n">
         <v>66300.43131947442</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AB20" t="n">
         <v>65963.70850715091</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AC20" t="n">
         <v>44.62564905414195</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AD20" t="n">
         <v>45.05716894977119</v>
       </c>
-      <c r="AB20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD20" t="n">
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="n">
         <v>65725.734</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AH20" t="n">
         <v>66325.734</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AI20" t="n">
         <v>66025.734</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AJ20" t="n">
         <v>65975.734</v>
       </c>
-      <c r="AH20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" s="2" t="n">
+      <c r="AK20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" s="2" t="n">
         <v>45460.54166666666</v>
       </c>
-      <c r="AK20" s="2" t="n">
+      <c r="AN20" s="2" t="n">
         <v>45460.53947916667</v>
       </c>
-      <c r="AL20" s="2" t="n">
+      <c r="AO20" s="2" t="n">
         <v>45460.85896990741</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>100</v>
       </c>
-      <c r="AN20" t="n">
-        <v>172.44</v>
-      </c>
-      <c r="AO20" t="inlineStr">
+      <c r="AQ20" t="n">
+        <v>170.89</v>
+      </c>
+      <c r="AR20" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AP20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>145.52</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>922.7200000000001</v>
-      </c>
-      <c r="AS20" t="n">
+      <c r="AS20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>144.21</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>917.53</v>
+      </c>
+      <c r="AV20" t="n">
         <v>2</v>
       </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
         <v>25</v>
       </c>
-      <c r="AV20" t="n">
+      <c r="AY20" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3477,114 +3651,123 @@
         <v>45460.5</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.001219306188675218</v>
+        <v>-14.06834523807629</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.0006647766202229463</v>
+        <v>-111.9644468894548</v>
       </c>
       <c r="N21" t="n">
         <v>65991.33259523808</v>
       </c>
       <c r="O21" t="n">
+        <v>-0.001219306188675218</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-0.0006647766202229463</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>66157.06042857141</v>
+      </c>
+      <c r="R21" t="n">
         <v>66138.64765906149</v>
       </c>
-      <c r="P21" t="n">
+      <c r="S21" t="n">
         <v>66202.84700003969</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="T21" t="n">
         <v>66059.88631854154</v>
       </c>
-      <c r="R21" t="n">
+      <c r="U21" t="n">
         <v>-30.96966938080732</v>
       </c>
-      <c r="S21" t="n">
+      <c r="V21" t="n">
         <v>-23.45907700043609</v>
       </c>
-      <c r="T21" t="n">
+      <c r="W21" t="n">
         <v>138.1899582000292</v>
       </c>
-      <c r="U21" t="n">
+      <c r="X21" t="n">
         <v>-19.91644891633769</v>
       </c>
-      <c r="V21" t="n">
+      <c r="Y21" t="n">
         <v>7.08167423462146</v>
       </c>
-      <c r="W21" t="n">
+      <c r="Z21" t="n">
         <v>-24.20553697968717</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AA21" t="n">
         <v>66246.44276211158</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AB21" t="n">
         <v>65871.8298749715</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AC21" t="n">
         <v>38.6960140772164</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AD21" t="n">
         <v>41.15339630492895</v>
       </c>
-      <c r="AB21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD21" t="n">
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG21" t="n">
         <v>65581.836</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AH21" t="n">
         <v>66181.836</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AI21" t="n">
         <v>65881.836</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AJ21" t="n">
         <v>65831.836</v>
       </c>
-      <c r="AH21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" s="2" t="n">
+      <c r="AK21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" s="2" t="n">
         <v>45460.54166666666</v>
       </c>
-      <c r="AK21" s="2" t="n">
+      <c r="AN21" s="2" t="n">
         <v>45460.53949074074</v>
       </c>
-      <c r="AL21" s="2" t="n">
+      <c r="AO21" s="2" t="n">
         <v>45460.85778935185</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>100</v>
       </c>
-      <c r="AN21" t="n">
-        <v>152.8</v>
-      </c>
-      <c r="AO21" t="inlineStr">
+      <c r="AQ21" t="n">
+        <v>151.42</v>
+      </c>
+      <c r="AR21" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AP21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>145.52</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>1068.24</v>
-      </c>
-      <c r="AS21" t="n">
+      <c r="AS21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>144.21</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1061.74</v>
+      </c>
+      <c r="AV21" t="n">
         <v>3</v>
       </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
         <v>25</v>
       </c>
-      <c r="AV21" t="n">
+      <c r="AY21" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3623,116 +3806,125 @@
         <v>45460.58333333334</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.001724229951376315</v>
+        <v>-83.21601190473302</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.001183768060141713</v>
+        <v>-126.8708502856898</v>
       </c>
       <c r="N22" t="n">
         <v>65809.62676190474</v>
       </c>
       <c r="O22" t="n">
+        <v>-0.001724229951376315</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0.001183768060141713</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>65908.11658333335</v>
+      </c>
+      <c r="R22" t="n">
         <v>65880.83620008375</v>
       </c>
-      <c r="P22" t="n">
+      <c r="S22" t="n">
         <v>65999.5821788101</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="T22" t="n">
         <v>65748.55425524592</v>
       </c>
-      <c r="R22" t="n">
+      <c r="U22" t="n">
         <v>-64.69216760374547</v>
       </c>
-      <c r="S22" t="n">
+      <c r="V22" t="n">
         <v>-57.61158390705309</v>
       </c>
-      <c r="T22" t="n">
+      <c r="W22" t="n">
         <v>207.7234531752303</v>
       </c>
-      <c r="U22" t="n">
+      <c r="X22" t="n">
         <v>-16.82317715861427</v>
       </c>
-      <c r="V22" t="n">
+      <c r="Y22" t="n">
         <v>-34.11760784310172</v>
       </c>
-      <c r="W22" t="n">
+      <c r="Z22" t="n">
         <v>-8.12034262130328</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AA22" t="n">
         <v>66028.98091703249</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AB22" t="n">
         <v>65466.62759345937</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AC22" t="n">
         <v>43.98689404849616</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AD22" t="n">
         <v>47.74685472460235</v>
       </c>
-      <c r="AB22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD22" t="n">
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="n">
         <v>65369.859</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AH22" t="n">
         <v>65669.859</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AI22" t="n">
         <v>65669.859</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AJ22" t="n">
         <v>65619.859</v>
       </c>
-      <c r="AH22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="2" t="n">
+      <c r="AK22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="2" t="n">
         <v>45460.66666666666</v>
       </c>
-      <c r="AJ22" s="2" t="n">
+      <c r="AM22" s="2" t="n">
         <v>45460.66666666666</v>
       </c>
-      <c r="AK22" s="2" t="n">
+      <c r="AN22" s="2" t="n">
         <v>45460.68980324074</v>
       </c>
-      <c r="AL22" s="2" t="n">
+      <c r="AO22" s="2" t="n">
         <v>45460.67627314815</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>90.5625</v>
       </c>
-      <c r="AN22" t="n">
-        <v>131.87</v>
-      </c>
-      <c r="AO22" t="inlineStr">
+      <c r="AQ22" t="n">
+        <v>130.69</v>
+      </c>
+      <c r="AR22" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="AP22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>1104.62</v>
-      </c>
-      <c r="AS22" t="n">
+      <c r="AS22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>36.05</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1097.79</v>
+      </c>
+      <c r="AV22" t="n">
         <v>4</v>
       </c>
-      <c r="AT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU22" t="n">
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
         <v>25</v>
       </c>
-      <c r="AV22" t="n">
+      <c r="AY22" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3771,114 +3963,123 @@
         <v>45460.75</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.001585697550406253</v>
+        <v>-83.43174999998155</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.001295699300496364</v>
+        <v>-164.8985282865324</v>
       </c>
       <c r="N23" t="n">
         <v>65339.88941666673</v>
       </c>
       <c r="O23" t="n">
+        <v>-0.001585697550406253</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.001295699300496364</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>65412.50627380952</v>
+      </c>
+      <c r="R23" t="n">
         <v>65487.16616258079</v>
       </c>
-      <c r="P23" t="n">
+      <c r="S23" t="n">
         <v>65631.53203872118</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="T23" t="n">
         <v>65375.0035507396</v>
       </c>
-      <c r="R23" t="n">
+      <c r="U23" t="n">
         <v>-89.77037240780191</v>
       </c>
-      <c r="S23" t="n">
+      <c r="V23" t="n">
         <v>-89.40140176217245</v>
       </c>
-      <c r="T23" t="n">
+      <c r="W23" t="n">
         <v>199.720838339169</v>
       </c>
-      <c r="U23" t="n">
+      <c r="X23" t="n">
         <v>-14.83281836940296</v>
       </c>
-      <c r="V23" t="n">
+      <c r="Y23" t="n">
         <v>20.63170175438427</v>
       </c>
-      <c r="W23" t="n">
+      <c r="Z23" t="n">
         <v>-26.69785655324085</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AA23" t="n">
         <v>65644.62668249747</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AB23" t="n">
         <v>65103.88041898172</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AC23" t="n">
         <v>47.81962242931606</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AD23" t="n">
         <v>49.04727672214111</v>
       </c>
-      <c r="AB23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="n">
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG23" t="n">
         <v>64923.637</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AH23" t="n">
         <v>65523.637</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AI23" t="n">
         <v>65223.637</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AJ23" t="n">
         <v>65173.637</v>
       </c>
-      <c r="AH23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" s="2" t="n">
+      <c r="AK23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" s="2" t="n">
         <v>45461.19791666666</v>
       </c>
-      <c r="AK23" s="2" t="n">
+      <c r="AN23" s="2" t="n">
         <v>45461.19717592592</v>
       </c>
-      <c r="AL23" s="2" t="n">
+      <c r="AO23" s="2" t="n">
         <v>45460.80872685185</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>53.24899999999979</v>
       </c>
-      <c r="AN23" t="n">
-        <v>77.48999999999999</v>
-      </c>
-      <c r="AO23" t="inlineStr">
+      <c r="AQ23" t="n">
+        <v>76.79000000000001</v>
+      </c>
+      <c r="AR23" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AP23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>-72.78</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>1031.84</v>
-      </c>
-      <c r="AS23" t="n">
+      <c r="AS23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>-72.22</v>
       </c>
       <c r="AU23" t="n">
+        <v>1025.57</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX23" t="n">
         <v>25</v>
       </c>
-      <c r="AV23" t="n">
+      <c r="AY23" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3917,114 +4118,123 @@
         <v>45461.125</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.007726163248342967</v>
+        <v>-118.9631904761482</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.001752630689097685</v>
+        <v>-21.31368835788453</v>
       </c>
       <c r="N24" t="n">
         <v>66224.28797619045</v>
       </c>
       <c r="O24" t="n">
+        <v>-0.007726163248342967</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-0.001752630689097685</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>66582.95325000001</v>
+      </c>
+      <c r="R24" t="n">
         <v>66375.75426461342</v>
       </c>
-      <c r="P24" t="n">
+      <c r="S24" t="n">
         <v>66381.79610068606</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="T24" t="n">
         <v>66344.92130856552</v>
       </c>
-      <c r="R24" t="n">
+      <c r="U24" t="n">
         <v>28.18749699747423</v>
       </c>
-      <c r="S24" t="n">
+      <c r="V24" t="n">
         <v>57.84092123623812</v>
       </c>
-      <c r="T24" t="n">
+      <c r="W24" t="n">
         <v>220.2414306801305</v>
       </c>
-      <c r="U24" t="n">
+      <c r="X24" t="n">
         <v>-114.3900660474901</v>
       </c>
-      <c r="V24" t="n">
+      <c r="Y24" t="n">
         <v>-19.70910560716584</v>
       </c>
-      <c r="W24" t="n">
+      <c r="Z24" t="n">
         <v>-7.097918472631136</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AA24" t="n">
         <v>66642.2472399837</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AB24" t="n">
         <v>66046.09537714734</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AC24" t="n">
         <v>62.86616260809047</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AD24" t="n">
         <v>84.0665388519664</v>
       </c>
-      <c r="AB24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD24" t="n">
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG24" t="n">
         <v>65592.836</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AH24" t="n">
         <v>66192.836</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AI24" t="n">
         <v>65892.836</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AJ24" t="n">
         <v>65842.836</v>
       </c>
-      <c r="AH24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" s="2" t="n">
+      <c r="AK24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" s="2" t="n">
         <v>45461.16666666666</v>
       </c>
-      <c r="AK24" s="2" t="n">
+      <c r="AN24" s="2" t="n">
         <v>45461.1593287037</v>
       </c>
-      <c r="AL24" s="2" t="n">
+      <c r="AO24" s="2" t="n">
         <v>45463.5827199074</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>100</v>
       </c>
-      <c r="AN24" t="n">
-        <v>146.79</v>
-      </c>
-      <c r="AO24" t="inlineStr">
+      <c r="AQ24" t="n">
+        <v>145.47</v>
+      </c>
+      <c r="AR24" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AP24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>145.52</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>1177.36</v>
-      </c>
-      <c r="AS24" t="n">
+      <c r="AS24" t="b">
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>0</v>
+        <v>144.21</v>
       </c>
       <c r="AU24" t="n">
+        <v>1169.78</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
         <v>25</v>
       </c>
-      <c r="AV24" t="n">
+      <c r="AY24" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4063,114 +4273,123 @@
         <v>45462.20833333334</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01674443975965607</v>
+        <v>-12.21319047622092</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0008306548283420163</v>
+        <v>-140.1356054740463</v>
       </c>
       <c r="N25" t="n">
         <v>65215.59234523803</v>
       </c>
       <c r="O25" t="n">
+        <v>0.01674443975965607</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.0008306548283420163</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>65143.67876190476</v>
+      </c>
+      <c r="R25" t="n">
         <v>65106.84389454719</v>
       </c>
-      <c r="P25" t="n">
+      <c r="S25" t="n">
         <v>65019.41621498057</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="T25" t="n">
         <v>65106.19185448915</v>
       </c>
-      <c r="R25" t="n">
+      <c r="U25" t="n">
         <v>42.80327673690772</v>
       </c>
-      <c r="S25" t="n">
+      <c r="V25" t="n">
         <v>33.85468633845876</v>
       </c>
-      <c r="T25" t="n">
+      <c r="W25" t="n">
         <v>207.7723120073968</v>
       </c>
-      <c r="U25" t="n">
+      <c r="X25" t="n">
         <v>68.22140763670177</v>
       </c>
-      <c r="V25" t="n">
+      <c r="Y25" t="n">
         <v>5.427771241855226</v>
       </c>
-      <c r="W25" t="n">
+      <c r="Z25" t="n">
         <v>-29.32576298589993</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AA25" t="n">
         <v>65388.18447569914</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AB25" t="n">
         <v>64825.69923327916</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AC25" t="n">
         <v>59.06814172578129</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AD25" t="n">
         <v>41.67288524873145</v>
       </c>
-      <c r="AB25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
+      <c r="AE25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
         <v>65811.34</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AH25" t="n">
         <v>65211.34</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AI25" t="n">
         <v>65511.34</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AJ25" t="n">
         <v>65561.34</v>
       </c>
-      <c r="AH25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" s="2" t="n">
+      <c r="AK25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" s="2" t="n">
         <v>45462.30208333334</v>
       </c>
-      <c r="AK25" s="2" t="n">
+      <c r="AN25" s="2" t="n">
         <v>45463.42859953704</v>
       </c>
-      <c r="AL25" s="2" t="n">
+      <c r="AO25" s="2" t="n">
         <v>45462.23376157408</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>9.774500000001353</v>
       </c>
-      <c r="AN25" t="n">
-        <v>14.19</v>
-      </c>
-      <c r="AO25" t="inlineStr">
+      <c r="AQ25" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="AR25" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AP25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>-72.78</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>1104.58</v>
-      </c>
-      <c r="AS25" t="n">
+      <c r="AS25" t="b">
         <v>0</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>-72.22</v>
       </c>
       <c r="AU25" t="n">
+        <v>1097.56</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX25" t="n">
         <v>25</v>
       </c>
-      <c r="AV25" t="n">
+      <c r="AY25" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4209,116 +4428,125 @@
         <v>45462.20833333334</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01674443975965607</v>
+        <v>-12.21319047622092</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0008306548283420163</v>
+        <v>-140.1356054740463</v>
       </c>
       <c r="N26" t="n">
         <v>65215.59234523803</v>
       </c>
       <c r="O26" t="n">
+        <v>0.01674443975965607</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.0008306548283420163</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>65143.67876190476</v>
+      </c>
+      <c r="R26" t="n">
         <v>65146.39900142136</v>
       </c>
-      <c r="P26" t="n">
+      <c r="S26" t="n">
         <v>65051.48627484616</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="T26" t="n">
         <v>65155.0625005159</v>
       </c>
-      <c r="R26" t="n">
+      <c r="U26" t="n">
         <v>47.54488299545483</v>
       </c>
-      <c r="S26" t="n">
+      <c r="V26" t="n">
         <v>38.25074193669524</v>
       </c>
-      <c r="T26" t="n">
+      <c r="W26" t="n">
         <v>137.7952455306162</v>
       </c>
-      <c r="U26" t="n">
+      <c r="X26" t="n">
         <v>32.69346577223041</v>
       </c>
-      <c r="V26" t="n">
+      <c r="Y26" t="n">
         <v>16.17718025451904</v>
       </c>
-      <c r="W26" t="n">
+      <c r="Z26" t="n">
         <v>68.22140763670177</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AA26" t="n">
         <v>65342.58608198223</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AB26" t="n">
         <v>64969.03891904957</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AC26" t="n">
         <v>75.99116090530312</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AD26" t="n">
         <v>68.00272742058543</v>
       </c>
-      <c r="AB26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
+      <c r="AE26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
         <v>65684.84</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AH26" t="n">
         <v>65384.84</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AI26" t="n">
         <v>65384.84</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AJ26" t="n">
         <v>65434.84</v>
       </c>
-      <c r="AH26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="2" t="n">
+      <c r="AK26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="2" t="n">
         <v>45462.28125</v>
       </c>
-      <c r="AJ26" s="2" t="n">
+      <c r="AM26" s="2" t="n">
         <v>45462.28125</v>
       </c>
-      <c r="AK26" s="2" t="n">
+      <c r="AN26" s="2" t="n">
         <v>45462.30266203704</v>
       </c>
-      <c r="AL26" s="2" t="n">
+      <c r="AO26" s="2" t="n">
         <v>45462.28413194444</v>
       </c>
-      <c r="AM26" t="n">
+      <c r="AP26" t="n">
         <v>48.19925000000148</v>
       </c>
-      <c r="AN26" t="n">
-        <v>70.20999999999999</v>
-      </c>
-      <c r="AO26" t="inlineStr">
+      <c r="AQ26" t="n">
+        <v>69.58</v>
+      </c>
+      <c r="AR26" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="AP26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>1140.96</v>
-      </c>
-      <c r="AS26" t="n">
+      <c r="AS26" t="b">
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>0</v>
+        <v>36.05</v>
       </c>
       <c r="AU26" t="n">
+        <v>1133.61</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
         <v>25</v>
       </c>
-      <c r="AV26" t="n">
+      <c r="AY26" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4357,116 +4585,125 @@
         <v>45463.29166666666</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01192722979663269</v>
+        <v>44.93605952380312</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0009979634659104415</v>
+        <v>-40.77998866233247</v>
       </c>
       <c r="N27" t="n">
         <v>65186.5272142857</v>
       </c>
       <c r="O27" t="n">
+        <v>0.01192722979663269</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.0009979634659104415</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>65120.4519047619</v>
+      </c>
+      <c r="R27" t="n">
         <v>65117.26167846107</v>
       </c>
-      <c r="P27" t="n">
+      <c r="S27" t="n">
         <v>65066.00646596793</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="T27" t="n">
         <v>65139.43505022362</v>
       </c>
-      <c r="R27" t="n">
+      <c r="U27" t="n">
         <v>25.68143160434556</v>
       </c>
-      <c r="S27" t="n">
+      <c r="V27" t="n">
         <v>20.76470007238323</v>
       </c>
-      <c r="T27" t="n">
+      <c r="W27" t="n">
         <v>128.2275904680147</v>
       </c>
-      <c r="U27" t="n">
+      <c r="X27" t="n">
         <v>10.24352665979677</v>
       </c>
-      <c r="V27" t="n">
+      <c r="Y27" t="n">
         <v>-5.317066047449771</v>
       </c>
-      <c r="W27" t="n">
+      <c r="Z27" t="n">
         <v>-7.243214998277836</v>
       </c>
-      <c r="X27" t="n">
+      <c r="AA27" t="n">
         <v>65314.04229735544</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AB27" t="n">
         <v>64966.3278030918</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AC27" t="n">
         <v>55.45936218099441</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AD27" t="n">
         <v>48.22822416186875</v>
       </c>
-      <c r="AB27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
+      <c r="AE27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
         <v>65660.34</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AH27" t="n">
         <v>65360.34</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AI27" t="n">
         <v>65360.34</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AJ27" t="n">
         <v>65410.34</v>
       </c>
-      <c r="AH27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI27" s="2" t="n">
+      <c r="AK27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="2" t="n">
         <v>45463.375</v>
       </c>
-      <c r="AJ27" s="2" t="n">
+      <c r="AM27" s="2" t="n">
         <v>45463.375</v>
       </c>
-      <c r="AK27" s="2" t="n">
+      <c r="AN27" s="2" t="n">
         <v>45463.42850694444</v>
       </c>
-      <c r="AL27" s="2" t="n">
+      <c r="AO27" s="2" t="n">
         <v>45463.4108449074</v>
       </c>
-      <c r="AM27" t="n">
+      <c r="AP27" t="n">
         <v>84.84850000000006</v>
       </c>
-      <c r="AN27" t="n">
-        <v>123.51</v>
-      </c>
-      <c r="AO27" t="inlineStr">
+      <c r="AQ27" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="AR27" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="AP27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>1177.340000000001</v>
-      </c>
-      <c r="AS27" t="n">
+      <c r="AS27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>36.05</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>1169.66</v>
+      </c>
+      <c r="AV27" t="n">
         <v>2</v>
       </c>
-      <c r="AT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU27" t="n">
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
         <v>25</v>
       </c>
-      <c r="AV27" t="n">
+      <c r="AY27" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4505,116 +4742,125 @@
         <v>45463.33333333334</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00094997303408497</v>
+        <v>66.0753095238033</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0008407943486494292</v>
+        <v>-31.83928368501074</v>
       </c>
       <c r="N28" t="n">
         <v>65313.8729285714</v>
       </c>
       <c r="O28" t="n">
+        <v>0.00094997303408497</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.0008407943486494292</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>65186.5272142857</v>
+      </c>
+      <c r="R28" t="n">
         <v>65166.65797096917</v>
       </c>
-      <c r="P28" t="n">
+      <c r="S28" t="n">
         <v>65097.97002363506</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="T28" t="n">
         <v>65183.44287994496</v>
       </c>
-      <c r="R28" t="n">
+      <c r="U28" t="n">
         <v>33.22817300834868</v>
       </c>
-      <c r="S28" t="n">
+      <c r="V28" t="n">
         <v>24.59113226578776</v>
       </c>
-      <c r="T28" t="n">
+      <c r="W28" t="n">
         <v>127.8937632964131</v>
       </c>
-      <c r="U28" t="n">
+      <c r="X28" t="n">
         <v>27.57288751294254</v>
       </c>
-      <c r="V28" t="n">
+      <c r="Y28" t="n">
         <v>16.43494220839784</v>
       </c>
-      <c r="W28" t="n">
+      <c r="Z28" t="n">
         <v>10.24352665979677</v>
       </c>
-      <c r="X28" t="n">
+      <c r="AA28" t="n">
         <v>65357.59946039512</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="AB28" t="n">
         <v>65010.7862994948</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AC28" t="n">
         <v>83.48031338263426</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AD28" t="n">
         <v>68.89554282541727</v>
       </c>
-      <c r="AB28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
+      <c r="AE28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
         <v>65714.03899999999</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AH28" t="n">
         <v>65414.039</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AI28" t="n">
         <v>65414.039</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AJ28" t="n">
         <v>65464.039</v>
       </c>
-      <c r="AH28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI28" s="2" t="n">
+      <c r="AK28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="2" t="n">
         <v>45463.375</v>
       </c>
-      <c r="AJ28" s="2" t="n">
+      <c r="AM28" s="2" t="n">
         <v>45463.375</v>
       </c>
-      <c r="AK28" s="2" t="n">
+      <c r="AN28" s="2" t="n">
         <v>45463.42851851852</v>
       </c>
-      <c r="AL28" s="2" t="n">
+      <c r="AO28" s="2" t="n">
         <v>45463.40783564815</v>
       </c>
-      <c r="AM28" t="n">
+      <c r="AP28" t="n">
         <v>71.42375000000123</v>
       </c>
-      <c r="AN28" t="n">
-        <v>103.86</v>
-      </c>
-      <c r="AO28" t="inlineStr">
+      <c r="AQ28" t="n">
+        <v>102.93</v>
+      </c>
+      <c r="AR28" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="AP28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>1213.720000000001</v>
-      </c>
-      <c r="AS28" t="n">
+      <c r="AS28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>36.05</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>1205.71</v>
+      </c>
+      <c r="AV28" t="n">
         <v>3</v>
       </c>
-      <c r="AT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU28" t="n">
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
         <v>25</v>
       </c>
-      <c r="AV28" t="n">
+      <c r="AY28" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4653,114 +4899,123 @@
         <v>45463.54166666666</v>
       </c>
       <c r="L29" t="n">
-        <v>0.001438895878429144</v>
+        <v>63.63750000004075</v>
       </c>
       <c r="M29" t="n">
-        <v>0.002201018616046711</v>
+        <v>35.04545922682155</v>
       </c>
       <c r="N29" t="n">
         <v>65877.46577380957</v>
       </c>
       <c r="O29" t="n">
+        <v>0.001438895878429144</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.002201018616046711</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>65679.8129404762</v>
+      </c>
+      <c r="R29" t="n">
         <v>65728.80496297467</v>
       </c>
-      <c r="P29" t="n">
+      <c r="S29" t="n">
         <v>65584.13982867531</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="T29" t="n">
         <v>65788.77900997596</v>
       </c>
-      <c r="R29" t="n">
+      <c r="U29" t="n">
         <v>85.3472180669778</v>
       </c>
-      <c r="S29" t="n">
+      <c r="V29" t="n">
         <v>79.15121580598155</v>
       </c>
-      <c r="T29" t="n">
+      <c r="W29" t="n">
         <v>202.4098110003305</v>
       </c>
-      <c r="U29" t="n">
+      <c r="X29" t="n">
         <v>83.00170485043782</v>
       </c>
-      <c r="V29" t="n">
+      <c r="Y29" t="n">
         <v>8.648950120303198</v>
       </c>
-      <c r="W29" t="n">
+      <c r="Z29" t="n">
         <v>-5.16869659438089</v>
       </c>
-      <c r="X29" t="n">
+      <c r="AA29" t="n">
         <v>66063.53225482641</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="AB29" t="n">
         <v>65515.52576512551</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AC29" t="n">
         <v>61.62522814601319</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AD29" t="n">
         <v>55.44907764409495</v>
       </c>
-      <c r="AB29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
+      <c r="AE29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
         <v>66565.734</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AH29" t="n">
         <v>66265.734</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AI29" t="n">
         <v>66265.734</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AJ29" t="n">
         <v>66315.734</v>
       </c>
-      <c r="AH29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="2" t="n">
+      <c r="AK29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="2" t="n">
         <v>45463.59375</v>
       </c>
-      <c r="AJ29" s="2" t="n">
+      <c r="AM29" s="2" t="n">
         <v>45463.59375</v>
       </c>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" s="2" t="n">
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" s="2" t="n">
         <v>45463.59940972222</v>
       </c>
-      <c r="AM29" t="n">
+      <c r="AP29" t="n">
         <v>66.35175000000163</v>
       </c>
-      <c r="AN29" t="n">
-        <v>96.59</v>
-      </c>
-      <c r="AO29" t="inlineStr">
+      <c r="AQ29" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="AR29" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="AP29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>1250.100000000001</v>
-      </c>
-      <c r="AS29" t="n">
+      <c r="AS29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>36.05</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1241.76</v>
+      </c>
+      <c r="AV29" t="n">
         <v>4</v>
       </c>
-      <c r="AT29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU29" t="n">
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
         <v>25</v>
       </c>
-      <c r="AV29" t="n">
+      <c r="AY29" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4799,114 +5054,123 @@
         <v>45464.25</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.001425551862269916</v>
+        <v>-53.5788452380948</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.00030346827293251</v>
+        <v>-49.40413984093902</v>
       </c>
       <c r="N30" t="n">
         <v>64679.71527380952</v>
       </c>
       <c r="O30" t="n">
+        <v>-0.001425551862269916</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-0.00030346827293251</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>64817.33453571429</v>
+      </c>
+      <c r="R30" t="n">
         <v>64740.18458574587</v>
       </c>
-      <c r="P30" t="n">
+      <c r="S30" t="n">
         <v>64823.2690679192</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="T30" t="n">
         <v>64713.27525627792</v>
       </c>
-      <c r="R30" t="n">
+      <c r="U30" t="n">
         <v>-45.92677320372604</v>
       </c>
-      <c r="S30" t="n">
+      <c r="V30" t="n">
         <v>-38.1503283664669</v>
       </c>
-      <c r="T30" t="n">
+      <c r="W30" t="n">
         <v>133.4519121547224</v>
       </c>
-      <c r="U30" t="n">
+      <c r="X30" t="n">
         <v>-55.98473237017606</v>
       </c>
-      <c r="V30" t="n">
+      <c r="Y30" t="n">
         <v>-11.43602579982689</v>
       </c>
-      <c r="W30" t="n">
+      <c r="Z30" t="n">
         <v>-6.680042655607394</v>
       </c>
-      <c r="X30" t="n">
+      <c r="AA30" t="n">
         <v>64893.43533768679</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="AB30" t="n">
         <v>64531.61517486905</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AC30" t="n">
         <v>27.98993840677204</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AD30" t="n">
         <v>32.79826052411562</v>
       </c>
-      <c r="AB30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD30" t="n">
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG30" t="n">
         <v>64055.137</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AH30" t="n">
         <v>64655.137</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AI30" t="n">
         <v>64355.137</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AJ30" t="n">
         <v>64305.137</v>
       </c>
-      <c r="AH30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" s="2" t="n">
+      <c r="AK30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" s="2" t="n">
         <v>45464.45833333334</v>
       </c>
-      <c r="AK30" s="2" t="n">
+      <c r="AN30" s="2" t="n">
         <v>45464.49284722222</v>
       </c>
-      <c r="AL30" s="2" t="n">
+      <c r="AO30" s="2" t="n">
         <v>45464.38251157408</v>
       </c>
-      <c r="AM30" t="n">
+      <c r="AP30" t="n">
         <v>43.32425000000148</v>
       </c>
-      <c r="AN30" t="n">
-        <v>63.12</v>
-      </c>
-      <c r="AO30" t="inlineStr">
+      <c r="AQ30" t="n">
+        <v>62.55</v>
+      </c>
+      <c r="AR30" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AP30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>-72.78</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>1177.320000000001</v>
-      </c>
-      <c r="AS30" t="n">
+      <c r="AS30" t="b">
         <v>0</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>-72.22</v>
       </c>
       <c r="AU30" t="n">
+        <v>1169.54</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX30" t="n">
         <v>25</v>
       </c>
-      <c r="AV30" t="n">
+      <c r="AY30" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4945,114 +5209,123 @@
         <v>45464.41666666666</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0005406488869769206</v>
+        <v>-22.67840476187121</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.001060022609866159</v>
+        <v>-79.0185501566084</v>
       </c>
       <c r="N31" t="n">
         <v>64425.63247619045</v>
       </c>
       <c r="O31" t="n">
+        <v>-0.0005406488869769206</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.001060022609866159</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>64585.92347619047</v>
+      </c>
+      <c r="R31" t="n">
         <v>64538.14232204412</v>
       </c>
-      <c r="P31" t="n">
+      <c r="S31" t="n">
         <v>64626.86836157201</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="T31" t="n">
         <v>64525.16162813899</v>
       </c>
-      <c r="R31" t="n">
+      <c r="U31" t="n">
         <v>-52.40303233150189</v>
       </c>
-      <c r="S31" t="n">
+      <c r="V31" t="n">
         <v>-47.36651370046022</v>
       </c>
-      <c r="T31" t="n">
+      <c r="W31" t="n">
         <v>159.68801018662</v>
       </c>
-      <c r="U31" t="n">
+      <c r="X31" t="n">
         <v>-67.26619848635892</v>
       </c>
-      <c r="V31" t="n">
+      <c r="Y31" t="n">
         <v>-4.674175094543898</v>
       </c>
-      <c r="W31" t="n">
+      <c r="Z31" t="n">
         <v>27.01870485025574</v>
       </c>
-      <c r="X31" t="n">
+      <c r="AA31" t="n">
         <v>64740.74044189093</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="AB31" t="n">
         <v>64308.08281438706</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AC31" t="n">
         <v>40.20637714325597</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AD31" t="n">
         <v>62.06379792922805</v>
       </c>
-      <c r="AB31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD31" t="n">
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG31" t="n">
         <v>63761.238</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AH31" t="n">
         <v>64361.238</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AI31" t="n">
         <v>64061.238</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AJ31" t="n">
         <v>64011.238</v>
       </c>
-      <c r="AH31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" s="2" t="n">
+      <c r="AK31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" s="2" t="n">
         <v>45464.5</v>
       </c>
-      <c r="AK31" s="2" t="n">
+      <c r="AN31" s="2" t="n">
         <v>45464.49291666667</v>
       </c>
-      <c r="AL31" s="2" t="n">
+      <c r="AO31" s="2" t="n">
         <v>45464.97208333333</v>
       </c>
-      <c r="AM31" t="n">
+      <c r="AP31" t="n">
         <v>100</v>
       </c>
-      <c r="AN31" t="n">
-        <v>186.63</v>
-      </c>
-      <c r="AO31" t="inlineStr">
+      <c r="AQ31" t="n">
+        <v>184.95</v>
+      </c>
+      <c r="AR31" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AP31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>145.52</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>1322.840000000001</v>
-      </c>
-      <c r="AS31" t="n">
+      <c r="AS31" t="b">
         <v>1</v>
       </c>
       <c r="AT31" t="n">
-        <v>0</v>
+        <v>144.21</v>
       </c>
       <c r="AU31" t="n">
+        <v>1313.75</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
         <v>25</v>
       </c>
-      <c r="AV31" t="n">
+      <c r="AY31" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5091,114 +5364,123 @@
         <v>45464.45833333334</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.002563210834037903</v>
+        <v>-160.2910000000193</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.001060025625072568</v>
+        <v>-94.64836084761191</v>
       </c>
       <c r="N32" t="n">
         <v>64110.59740476191</v>
       </c>
       <c r="O32" t="n">
+        <v>-0.002563210834037903</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-0.001060025625072568</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>64425.63247619045</v>
+      </c>
+      <c r="R32" t="n">
         <v>64284.29467011128</v>
       </c>
-      <c r="P32" t="n">
+      <c r="S32" t="n">
         <v>64471.59620619987</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="T32" t="n">
         <v>64181.49542930854</v>
       </c>
-      <c r="R32" t="n">
+      <c r="U32" t="n">
         <v>-91.08945676688745</v>
       </c>
-      <c r="S32" t="n">
+      <c r="V32" t="n">
         <v>-63.13651475683206</v>
       </c>
-      <c r="T32" t="n">
+      <c r="W32" t="n">
         <v>255.5795091227682</v>
       </c>
-      <c r="U32" t="n">
+      <c r="X32" t="n">
         <v>-165.8607316821071</v>
       </c>
-      <c r="V32" t="n">
+      <c r="Y32" t="n">
         <v>-62.86925249404885</v>
       </c>
-      <c r="W32" t="n">
+      <c r="Z32" t="n">
         <v>-70.44380736153835</v>
       </c>
-      <c r="X32" t="n">
+      <c r="AA32" t="n">
         <v>64526.52776662428</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="AB32" t="n">
         <v>63834.9630919928</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AC32" t="n">
         <v>13.57379438683861</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AD32" t="n">
         <v>14.30442910797848</v>
       </c>
-      <c r="AB32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD32" t="n">
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="n">
         <v>63193.73</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AH32" t="n">
         <v>63793.73</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AI32" t="n">
         <v>63493.73</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AJ32" t="n">
         <v>63443.73</v>
       </c>
-      <c r="AH32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" s="2" t="n">
+      <c r="AK32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" s="2" t="n">
         <v>45467.11458333334</v>
       </c>
-      <c r="AK32" s="2" t="n">
+      <c r="AN32" s="2" t="n">
         <v>45467.10893518518</v>
       </c>
-      <c r="AL32" s="2" t="n">
+      <c r="AO32" s="2" t="n">
         <v>45464.51841435185</v>
       </c>
-      <c r="AM32" t="n">
+      <c r="AP32" t="n">
         <v>20.86225000000013</v>
       </c>
-      <c r="AN32" t="n">
-        <v>30.38</v>
-      </c>
-      <c r="AO32" t="inlineStr">
+      <c r="AQ32" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="AR32" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AP32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>-72.78</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>1250.060000000001</v>
-      </c>
-      <c r="AS32" t="n">
+      <c r="AS32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>-72.22</v>
       </c>
       <c r="AU32" t="n">
+        <v>1241.53</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX32" t="n">
         <v>25</v>
       </c>
-      <c r="AV32" t="n">
+      <c r="AY32" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5237,116 +5519,125 @@
         <v>45464.54166666666</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.002573996810375818</v>
+        <v>-67.74584523810336</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.001071243638468179</v>
+        <v>-133.6722500143369</v>
       </c>
       <c r="N33" t="n">
         <v>63930.09178571431</v>
       </c>
       <c r="O33" t="n">
+        <v>-0.002573996810375818</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-0.001071243638468179</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>64042.85155952381</v>
+      </c>
+      <c r="R33" t="n">
         <v>64056.53670862904</v>
       </c>
-      <c r="P33" t="n">
+      <c r="S33" t="n">
         <v>64266.80698416975</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="T33" t="n">
         <v>63805.62964877881</v>
       </c>
-      <c r="R33" t="n">
+      <c r="U33" t="n">
         <v>-114.2116151738155</v>
       </c>
-      <c r="S33" t="n">
+      <c r="V33" t="n">
         <v>-99.08295411027675</v>
       </c>
-      <c r="T33" t="n">
+      <c r="W33" t="n">
         <v>341.2721659026117</v>
       </c>
-      <c r="U33" t="n">
+      <c r="X33" t="n">
         <v>-42.26012383902707</v>
       </c>
-      <c r="V33" t="n">
+      <c r="Y33" t="n">
         <v>-49.28630546955537</v>
       </c>
-      <c r="W33" t="n">
+      <c r="Z33" t="n">
         <v>-30.85953525969671</v>
       </c>
-      <c r="X33" t="n">
+      <c r="AA33" t="n">
         <v>64266.34707274733</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="AB33" t="n">
         <v>63343.41222481028</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AC33" t="n">
         <v>40.00923020474097</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AD33" t="n">
         <v>43.14597983745418</v>
       </c>
-      <c r="AB33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD33" t="n">
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG33" t="n">
         <v>63477.539</v>
       </c>
-      <c r="AE33" t="n">
+      <c r="AH33" t="n">
         <v>63777.539</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="AI33" t="n">
         <v>63777.539</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="AJ33" t="n">
         <v>63727.539</v>
       </c>
-      <c r="AH33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="2" t="n">
+      <c r="AK33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL33" s="2" t="n">
         <v>45464.61458333334</v>
       </c>
-      <c r="AJ33" s="2" t="n">
+      <c r="AM33" s="2" t="n">
         <v>45464.61458333334</v>
       </c>
-      <c r="AK33" s="2" t="n">
+      <c r="AN33" s="2" t="n">
         <v>45464.68953703704</v>
       </c>
-      <c r="AL33" s="2" t="n">
+      <c r="AO33" s="2" t="n">
         <v>45464.61892361111</v>
       </c>
-      <c r="AM33" t="n">
+      <c r="AP33" t="n">
         <v>61.42475000000013</v>
       </c>
-      <c r="AN33" t="n">
-        <v>89.31</v>
-      </c>
-      <c r="AO33" t="inlineStr">
+      <c r="AQ33" t="n">
+        <v>88.51000000000001</v>
+      </c>
+      <c r="AR33" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="AP33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>1286.440000000001</v>
-      </c>
-      <c r="AS33" t="n">
+      <c r="AS33" t="b">
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>0</v>
+        <v>36.05</v>
       </c>
       <c r="AU33" t="n">
+        <v>1277.58</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
         <v>25</v>
       </c>
-      <c r="AV33" t="n">
+      <c r="AY33" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5385,116 +5676,125 @@
         <v>45464.54166666666</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.002573996810375818</v>
+        <v>-67.74584523810336</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.001071243638468179</v>
+        <v>-133.6722500143369</v>
       </c>
       <c r="N34" t="n">
         <v>63930.09178571431</v>
       </c>
       <c r="O34" t="n">
+        <v>-0.002573996810375818</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.001071243638468179</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>64042.85155952381</v>
+      </c>
+      <c r="R34" t="n">
         <v>64009.21548961013</v>
       </c>
-      <c r="P34" t="n">
+      <c r="S34" t="n">
         <v>64213.30675597543</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="T34" t="n">
         <v>63766.77311386305</v>
       </c>
-      <c r="R34" t="n">
+      <c r="U34" t="n">
         <v>-115.1295514075609</v>
       </c>
-      <c r="S34" t="n">
+      <c r="V34" t="n">
         <v>-104.6492161327095</v>
       </c>
-      <c r="T34" t="n">
+      <c r="W34" t="n">
         <v>351.7939900607859</v>
       </c>
-      <c r="U34" t="n">
+      <c r="X34" t="n">
         <v>-25.67038974887691</v>
       </c>
-      <c r="V34" t="n">
+      <c r="Y34" t="n">
         <v>-13.18614516688103</v>
       </c>
-      <c r="W34" t="n">
+      <c r="Z34" t="n">
         <v>-42.26012383902707</v>
       </c>
-      <c r="X34" t="n">
+      <c r="AA34" t="n">
         <v>64241.69500044511</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="AB34" t="n">
         <v>63290.35122728099</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AC34" t="n">
         <v>34.48385281185487</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AD34" t="n">
         <v>37.02706493576547</v>
       </c>
-      <c r="AB34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD34" t="n">
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG34" t="n">
         <v>63451.84</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="AH34" t="n">
         <v>63751.84</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AI34" t="n">
         <v>63751.84</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AJ34" t="n">
         <v>63701.84</v>
       </c>
-      <c r="AH34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="2" t="n">
+      <c r="AK34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL34" s="2" t="n">
         <v>45464.61458333334</v>
       </c>
-      <c r="AJ34" s="2" t="n">
+      <c r="AM34" s="2" t="n">
         <v>45464.61458333334</v>
       </c>
-      <c r="AK34" s="2" t="n">
+      <c r="AN34" s="2" t="n">
         <v>45464.6896875</v>
       </c>
-      <c r="AL34" s="2" t="n">
+      <c r="AO34" s="2" t="n">
         <v>45464.61849537037</v>
       </c>
-      <c r="AM34" t="n">
+      <c r="AP34" t="n">
         <v>55.00000000000001</v>
       </c>
-      <c r="AN34" t="n">
-        <v>80.03</v>
-      </c>
-      <c r="AO34" t="inlineStr">
+      <c r="AQ34" t="n">
+        <v>79.31</v>
+      </c>
+      <c r="AR34" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="AP34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>1322.820000000001</v>
-      </c>
-      <c r="AS34" t="n">
+      <c r="AS34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>36.05</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1313.63</v>
+      </c>
+      <c r="AV34" t="n">
         <v>2</v>
       </c>
-      <c r="AT34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU34" t="n">
+      <c r="AW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX34" t="n">
         <v>25</v>
       </c>
-      <c r="AV34" t="n">
+      <c r="AY34" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5533,114 +5833,123 @@
         <v>45464.66666666666</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0005682969581200777</v>
+        <v>-53.49527380947984</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.002200533017808306</v>
+        <v>-170.9771189270396</v>
       </c>
       <c r="N35" t="n">
         <v>63656.74986904764</v>
       </c>
       <c r="O35" t="n">
+        <v>-0.0005682969581200777</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-0.002200533017808306</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>63732.88127380958</v>
+      </c>
+      <c r="R35" t="n">
         <v>63759.71985665125</v>
       </c>
-      <c r="P35" t="n">
+      <c r="S35" t="n">
         <v>63946.89547420166</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="T35" t="n">
         <v>63676.88621671826</v>
       </c>
-      <c r="R35" t="n">
+      <c r="U35" t="n">
         <v>-117.0214972794856</v>
       </c>
-      <c r="S35" t="n">
+      <c r="V35" t="n">
         <v>-116.4585347810265</v>
       </c>
-      <c r="T35" t="n">
+      <c r="W35" t="n">
         <v>288.6487456314155</v>
       </c>
-      <c r="U35" t="n">
+      <c r="X35" t="n">
         <v>-59.61436979702557</v>
       </c>
-      <c r="V35" t="n">
+      <c r="Y35" t="n">
         <v>7.05603611976403</v>
       </c>
-      <c r="W35" t="n">
+      <c r="Z35" t="n">
         <v>17.58706432741019</v>
       </c>
-      <c r="X35" t="n">
+      <c r="AA35" t="n">
         <v>64066.56202332067</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="AB35" t="n">
         <v>63285.71041011585</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AC35" t="n">
         <v>28.59451408760986</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AD35" t="n">
         <v>30.26467232597754</v>
       </c>
-      <c r="AB35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD35" t="n">
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG35" t="n">
         <v>63196.438</v>
       </c>
-      <c r="AE35" t="n">
+      <c r="AH35" t="n">
         <v>63796.438</v>
       </c>
-      <c r="AF35" t="n">
+      <c r="AI35" t="n">
         <v>63496.438</v>
       </c>
-      <c r="AG35" t="n">
+      <c r="AJ35" t="n">
         <v>63446.438</v>
       </c>
-      <c r="AH35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" s="2" t="n">
+      <c r="AK35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" s="2" t="n">
         <v>45467.11458333334</v>
       </c>
-      <c r="AK35" s="2" t="n">
+      <c r="AN35" s="2" t="n">
         <v>45467.10893518518</v>
       </c>
-      <c r="AL35" s="2" t="n">
+      <c r="AO35" s="2" t="n">
         <v>45464.69099537037</v>
       </c>
-      <c r="AM35" t="n">
+      <c r="AP35" t="n">
         <v>58.32424999999967</v>
       </c>
-      <c r="AN35" t="n">
-        <v>84.95</v>
-      </c>
-      <c r="AO35" t="inlineStr">
+      <c r="AQ35" t="n">
+        <v>84.18000000000001</v>
+      </c>
+      <c r="AR35" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AP35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>-72.78</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>1250.040000000001</v>
-      </c>
-      <c r="AS35" t="n">
+      <c r="AS35" t="b">
         <v>0</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>-72.22</v>
       </c>
       <c r="AU35" t="n">
+        <v>1241.41</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX35" t="n">
         <v>25</v>
       </c>
-      <c r="AV35" t="n">
+      <c r="AY35" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5679,114 +5988,123 @@
         <v>45467.20833333334</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0032191610826787</v>
+        <v>-159.9675952380276</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.002821486232582888</v>
+        <v>-195.0502045922403</v>
       </c>
       <c r="N36" t="n">
         <v>63018.00544047616</v>
       </c>
       <c r="O36" t="n">
+        <v>-0.0032191610826787</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-0.002821486232582888</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>63227.33092857144</v>
+      </c>
+      <c r="R36" t="n">
         <v>63153.05913818618</v>
       </c>
-      <c r="P36" t="n">
+      <c r="S36" t="n">
         <v>63346.48963422044</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="T36" t="n">
         <v>62983.73187237701</v>
       </c>
-      <c r="R36" t="n">
+      <c r="U36" t="n">
         <v>-107.0121182845833</v>
       </c>
-      <c r="S36" t="n">
+      <c r="V36" t="n">
         <v>-95.39597397267777</v>
       </c>
-      <c r="T36" t="n">
+      <c r="W36" t="n">
         <v>327.3795629213652</v>
       </c>
-      <c r="U36" t="n">
+      <c r="X36" t="n">
         <v>-45.02590540080564</v>
       </c>
-      <c r="V36" t="n">
+      <c r="Y36" t="n">
         <v>-23.3079790161064</v>
       </c>
-      <c r="W36" t="n">
+      <c r="Z36" t="n">
         <v>6.681127966934582</v>
       </c>
-      <c r="X36" t="n">
+      <c r="AA36" t="n">
         <v>63425.69428232086</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="AB36" t="n">
         <v>62540.26946243317</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AC36" t="n">
         <v>28.25353665888961</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AD36" t="n">
         <v>34.77799858211392</v>
       </c>
-      <c r="AB36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD36" t="n">
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG36" t="n">
         <v>62446.84</v>
       </c>
-      <c r="AE36" t="n">
+      <c r="AH36" t="n">
         <v>63046.84</v>
       </c>
-      <c r="AF36" t="n">
+      <c r="AI36" t="n">
         <v>62746.84</v>
       </c>
-      <c r="AG36" t="n">
+      <c r="AJ36" t="n">
         <v>62696.84</v>
       </c>
-      <c r="AH36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" s="2" t="n">
+      <c r="AK36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" s="2" t="n">
         <v>45467.30208333334</v>
       </c>
-      <c r="AK36" s="2" t="n">
+      <c r="AN36" s="2" t="n">
         <v>45467.35872685185</v>
       </c>
-      <c r="AL36" s="2" t="n">
+      <c r="AO36" s="2" t="n">
         <v>45467.26145833333</v>
       </c>
-      <c r="AM36" t="n">
+      <c r="AP36" t="n">
         <v>28.75</v>
       </c>
-      <c r="AN36" t="n">
-        <v>41.84</v>
-      </c>
-      <c r="AO36" t="inlineStr">
+      <c r="AQ36" t="n">
+        <v>41.46</v>
+      </c>
+      <c r="AR36" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AP36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>-72.78</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>1177.260000000001</v>
-      </c>
-      <c r="AS36" t="n">
+      <c r="AS36" t="b">
         <v>0</v>
       </c>
       <c r="AT36" t="n">
+        <v>-72.22</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1169.19</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="n">
         <v>2</v>
       </c>
-      <c r="AU36" t="n">
+      <c r="AX36" t="n">
         <v>26</v>
       </c>
-      <c r="AV36" t="n">
+      <c r="AY36" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5825,116 +6143,125 @@
         <v>45467.33333333334</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.002060534964662271</v>
+        <v>-61.997690476157</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.001878142263851193</v>
+        <v>-232.0281376851926</v>
       </c>
       <c r="N37" t="n">
         <v>62615.63534523812</v>
       </c>
       <c r="O37" t="n">
+        <v>-0.002060534964662271</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-0.001878142263851193</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>62824.63698809528</v>
+      </c>
+      <c r="R37" t="n">
         <v>62822.06284740836</v>
       </c>
-      <c r="P37" t="n">
+      <c r="S37" t="n">
         <v>63034.69433453384</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="T37" t="n">
         <v>62672.20583522529</v>
       </c>
-      <c r="R37" t="n">
+      <c r="U37" t="n">
         <v>-125.9263912453098</v>
       </c>
-      <c r="S37" t="n">
+      <c r="V37" t="n">
         <v>-119.146893851135</v>
       </c>
-      <c r="T37" t="n">
+      <c r="W37" t="n">
         <v>231.1526387162785</v>
       </c>
-      <c r="U37" t="n">
+      <c r="X37" t="n">
         <v>-60.3967715858671</v>
       </c>
-      <c r="V37" t="n">
+      <c r="Y37" t="n">
         <v>-33.02914138282358</v>
       </c>
-      <c r="W37" t="n">
+      <c r="Z37" t="n">
         <v>-30.51480839354917</v>
       </c>
-      <c r="X37" t="n">
+      <c r="AA37" t="n">
         <v>62984.26189749226</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="AB37" t="n">
         <v>62358.64977295831</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AC37" t="n">
         <v>18.29562635582191</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AD37" t="n">
         <v>22.23784695367864</v>
       </c>
-      <c r="AB37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD37" t="n">
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG37" t="n">
         <v>62191.84</v>
       </c>
-      <c r="AE37" t="n">
+      <c r="AH37" t="n">
         <v>62491.84</v>
       </c>
-      <c r="AF37" t="n">
+      <c r="AI37" t="n">
         <v>62491.84</v>
       </c>
-      <c r="AG37" t="n">
+      <c r="AJ37" t="n">
         <v>62441.84</v>
       </c>
-      <c r="AH37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI37" s="2" t="n">
+      <c r="AK37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="2" t="n">
         <v>45467.36458333334</v>
       </c>
-      <c r="AJ37" s="2" t="n">
+      <c r="AM37" s="2" t="n">
         <v>45467.36458333334</v>
       </c>
-      <c r="AK37" s="2" t="n">
+      <c r="AN37" s="2" t="n">
         <v>45467.37846064815</v>
       </c>
-      <c r="AL37" s="2" t="n">
+      <c r="AO37" s="2" t="n">
         <v>45467.44347222222</v>
       </c>
-      <c r="AM37" t="n">
+      <c r="AP37" t="n">
         <v>100</v>
       </c>
-      <c r="AN37" t="n">
-        <v>146.26</v>
-      </c>
-      <c r="AO37" t="inlineStr">
+      <c r="AQ37" t="n">
+        <v>144.93</v>
+      </c>
+      <c r="AR37" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AP37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>145.53</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>1322.790000000001</v>
-      </c>
-      <c r="AS37" t="n">
+      <c r="AS37" t="b">
         <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>0</v>
+        <v>144.21</v>
       </c>
       <c r="AU37" t="n">
+        <v>1313.4</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX37" t="n">
         <v>26</v>
       </c>
-      <c r="AV37" t="n">
+      <c r="AY37" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5973,114 +6300,123 @@
         <v>45467.5</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.004967742286391177</v>
+        <v>31.22630952379404</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.001643942526520218</v>
+        <v>-274.0649385830839</v>
       </c>
       <c r="N38" t="n">
         <v>62084.47005952385</v>
       </c>
       <c r="O38" t="n">
+        <v>-0.004967742286391177</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-0.001643942526520218</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>62445.99760714284</v>
+      </c>
+      <c r="R38" t="n">
         <v>62244.88577540198</v>
       </c>
-      <c r="P38" t="n">
+      <c r="S38" t="n">
         <v>62483.93872308623</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="T38" t="n">
         <v>62225.05741004465</v>
       </c>
-      <c r="R38" t="n">
+      <c r="U38" t="n">
         <v>-139.5856226810793</v>
       </c>
-      <c r="S38" t="n">
+      <c r="V38" t="n">
         <v>-122.5585257457725</v>
       </c>
-      <c r="T38" t="n">
+      <c r="W38" t="n">
         <v>375.6768466917089</v>
       </c>
-      <c r="U38" t="n">
+      <c r="X38" t="n">
         <v>-234.6997395940925</v>
       </c>
-      <c r="V38" t="n">
+      <c r="Y38" t="n">
         <v>-33.65452528387686</v>
       </c>
-      <c r="W38" t="n">
+      <c r="Z38" t="n">
         <v>28.74775507402956</v>
       </c>
-      <c r="X38" t="n">
+      <c r="AA38" t="n">
         <v>62732.22115307846</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="AB38" t="n">
         <v>61716.39366701085</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AC38" t="n">
         <v>25.66695237339567</v>
       </c>
-      <c r="AA38" t="n">
+      <c r="AD38" t="n">
         <v>44.37463390608801</v>
       </c>
-      <c r="AB38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD38" t="n">
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="n">
         <v>60632.551</v>
       </c>
-      <c r="AE38" t="n">
+      <c r="AH38" t="n">
         <v>61232.551</v>
       </c>
-      <c r="AF38" t="n">
+      <c r="AI38" t="n">
         <v>60932.551</v>
       </c>
-      <c r="AG38" t="n">
+      <c r="AJ38" t="n">
         <v>60882.551</v>
       </c>
-      <c r="AH38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" s="2" t="n">
+      <c r="AK38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" s="2" t="n">
         <v>45467.60416666666</v>
       </c>
-      <c r="AK38" s="2" t="n">
+      <c r="AN38" s="2" t="n">
         <v>45467.78984953704</v>
       </c>
-      <c r="AL38" s="2" t="n">
+      <c r="AO38" s="2" t="n">
         <v>45467.53251157407</v>
       </c>
-      <c r="AM38" t="n">
+      <c r="AP38" t="n">
         <v>7.953250000000481</v>
       </c>
-      <c r="AN38" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="AO38" t="inlineStr">
+      <c r="AQ38" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="AR38" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AP38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>-72.78</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>1250.010000000001</v>
-      </c>
-      <c r="AS38" t="n">
+      <c r="AS38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>-72.22</v>
       </c>
       <c r="AU38" t="n">
+        <v>1241.18</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX38" t="n">
         <v>26</v>
       </c>
-      <c r="AV38" t="n">
+      <c r="AY38" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6119,114 +6455,123 @@
         <v>45467.79166666666</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.001258179963486587</v>
+        <v>-147.4487142857397</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.003773945159889719</v>
+        <v>-413.7558096395587</v>
       </c>
       <c r="N39" t="n">
         <v>60785.00614285714</v>
       </c>
       <c r="O39" t="n">
+        <v>-0.001258179963486587</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-0.003773945159889719</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>61023.30734523814</v>
+      </c>
+      <c r="R39" t="n">
         <v>60983.75374500817</v>
       </c>
-      <c r="P39" t="n">
+      <c r="S39" t="n">
         <v>61233.29350686439</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="T39" t="n">
         <v>60903.86574750603</v>
       </c>
-      <c r="R39" t="n">
+      <c r="U39" t="n">
         <v>-162.4868606129021</v>
       </c>
-      <c r="S39" t="n">
+      <c r="V39" t="n">
         <v>-160.299599062918</v>
       </c>
-      <c r="T39" t="n">
+      <c r="W39" t="n">
         <v>218.0719623798983</v>
       </c>
-      <c r="U39" t="n">
+      <c r="X39" t="n">
         <v>-105.5314705881901</v>
       </c>
-      <c r="V39" t="n">
+      <c r="Y39" t="n">
         <v>-63.29737392506649</v>
       </c>
-      <c r="W39" t="n">
+      <c r="Z39" t="n">
         <v>-69.14494736836787</v>
       </c>
-      <c r="X39" t="n">
+      <c r="AA39" t="n">
         <v>61198.26289671889</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="AB39" t="n">
         <v>60607.96859829317</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AC39" t="n">
         <v>20.22577115473961</v>
       </c>
-      <c r="AA39" t="n">
+      <c r="AD39" t="n">
         <v>21.37690360399036</v>
       </c>
-      <c r="AB39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD39" t="n">
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG39" t="n">
         <v>60106.738</v>
       </c>
-      <c r="AE39" t="n">
+      <c r="AH39" t="n">
         <v>60706.738</v>
       </c>
-      <c r="AF39" t="n">
+      <c r="AI39" t="n">
         <v>60406.738</v>
       </c>
-      <c r="AG39" t="n">
+      <c r="AJ39" t="n">
         <v>60356.738</v>
       </c>
-      <c r="AH39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" s="2" t="n">
+      <c r="AK39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" s="2" t="n">
         <v>45467.83333333334</v>
       </c>
-      <c r="AK39" s="2" t="n">
+      <c r="AN39" s="2" t="n">
         <v>45467.82849537037</v>
       </c>
-      <c r="AL39" s="2" t="n">
+      <c r="AO39" s="2" t="n">
         <v>45468.25278935185</v>
       </c>
-      <c r="AM39" t="n">
+      <c r="AP39" t="n">
         <v>100</v>
       </c>
-      <c r="AN39" t="n">
-        <v>160.09</v>
-      </c>
-      <c r="AO39" t="inlineStr">
+      <c r="AQ39" t="n">
+        <v>158.63</v>
+      </c>
+      <c r="AR39" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AP39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>145.53</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>1395.540000000001</v>
-      </c>
-      <c r="AS39" t="n">
+      <c r="AS39" t="b">
         <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>0</v>
+        <v>144.21</v>
       </c>
       <c r="AU39" t="n">
+        <v>1385.39</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX39" t="n">
         <v>26</v>
       </c>
-      <c r="AV39" t="n">
+      <c r="AY39" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6265,114 +6610,123 @@
         <v>45467.91666666666</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.00494449310700098</v>
+        <v>-160.5636071428598</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.003981942630685334</v>
+        <v>-476.8690123737833</v>
       </c>
       <c r="N40" t="n">
         <v>59918.55800000006</v>
       </c>
       <c r="O40" t="n">
+        <v>-0.00494449310700098</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-0.003981942630685334</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>60376.75283333334</v>
+      </c>
+      <c r="R40" t="n">
         <v>60225.50623770167</v>
       </c>
-      <c r="P40" t="n">
+      <c r="S40" t="n">
         <v>60564.5163766461</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="T40" t="n">
         <v>59915.24903783968</v>
       </c>
-      <c r="R40" t="n">
+      <c r="U40" t="n">
         <v>-210.4422872277282</v>
       </c>
-      <c r="S40" t="n">
+      <c r="V40" t="n">
         <v>-205.655176707578</v>
       </c>
-      <c r="T40" t="n">
+      <c r="W40" t="n">
         <v>543.9686174678112</v>
       </c>
-      <c r="U40" t="n">
+      <c r="X40" t="n">
         <v>-53.49576917786908</v>
       </c>
-      <c r="V40" t="n">
+      <c r="Y40" t="n">
         <v>-30.54329342965502</v>
       </c>
-      <c r="W40" t="n">
+      <c r="Z40" t="n">
         <v>-28.99897901614895</v>
       </c>
-      <c r="X40" t="n">
+      <c r="AA40" t="n">
         <v>60649.60667142122</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="AB40" t="n">
         <v>59179.39140425813</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AC40" t="n">
         <v>23.12796539896445</v>
       </c>
-      <c r="AA40" t="n">
+      <c r="AD40" t="n">
         <v>31.23390549834031</v>
       </c>
-      <c r="AB40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD40" t="n">
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG40" t="n">
         <v>59428.84</v>
       </c>
-      <c r="AE40" t="n">
+      <c r="AH40" t="n">
         <v>60028.84</v>
       </c>
-      <c r="AF40" t="n">
+      <c r="AI40" t="n">
         <v>59728.84</v>
       </c>
-      <c r="AG40" t="n">
+      <c r="AJ40" t="n">
         <v>59678.84</v>
       </c>
-      <c r="AH40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" s="2" t="n">
+      <c r="AK40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" s="2" t="n">
         <v>45467.95833333334</v>
       </c>
-      <c r="AK40" s="2" t="n">
+      <c r="AN40" s="2" t="n">
         <v>45467.9552662037</v>
       </c>
-      <c r="AL40" s="2" t="n">
+      <c r="AO40" s="2" t="n">
         <v>45468.04163194444</v>
       </c>
-      <c r="AM40" t="n">
+      <c r="AP40" t="n">
         <v>100</v>
       </c>
-      <c r="AN40" t="n">
-        <v>170.64</v>
-      </c>
-      <c r="AO40" t="inlineStr">
+      <c r="AQ40" t="n">
+        <v>169.08</v>
+      </c>
+      <c r="AR40" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AP40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>145.53</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>1541.070000000001</v>
-      </c>
-      <c r="AS40" t="n">
+      <c r="AS40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>144.21</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1529.6</v>
+      </c>
+      <c r="AV40" t="n">
         <v>2</v>
       </c>
-      <c r="AT40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU40" t="n">
+      <c r="AW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX40" t="n">
         <v>26</v>
       </c>
-      <c r="AV40" t="n">
+      <c r="AY40" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6411,112 +6765,121 @@
         <v>45468.20833333334</v>
       </c>
       <c r="L41" t="n">
-        <v>0.006107821724835747</v>
+        <v>179.5906190476089</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0005649597067057207</v>
+        <v>-481.4811184893042</v>
       </c>
       <c r="N41" t="n">
         <v>60525.39544047618</v>
       </c>
       <c r="O41" t="n">
+        <v>0.006107821724835747</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.0005649597067057207</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>60279.76319047617</v>
+      </c>
+      <c r="R41" t="n">
         <v>60389.28530143338</v>
       </c>
-      <c r="P41" t="n">
+      <c r="S41" t="n">
         <v>60290.44372698076</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="T41" t="n">
         <v>60507.45521878228</v>
       </c>
-      <c r="R41" t="n">
+      <c r="U41" t="n">
         <v>16.63517599915212</v>
       </c>
-      <c r="S41" t="n">
+      <c r="V41" t="n">
         <v>-16.4473099064622</v>
       </c>
-      <c r="T41" t="n">
+      <c r="W41" t="n">
         <v>284.1538531806746</v>
       </c>
-      <c r="U41" t="n">
+      <c r="X41" t="n">
         <v>47.5498376333926</v>
       </c>
-      <c r="V41" t="n">
+      <c r="Y41" t="n">
         <v>20.04478844156256</v>
       </c>
-      <c r="W41" t="n">
+      <c r="Z41" t="n">
         <v>14.75143859650416</v>
       </c>
-      <c r="X41" t="n">
+      <c r="AA41" t="n">
         <v>60892.56292057619</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="AB41" t="n">
         <v>60123.84751698837</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AC41" t="n">
         <v>75.85182982469001</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="AD41" t="n">
         <v>72.56193317128562</v>
       </c>
-      <c r="AB41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
+      <c r="AE41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
         <v>61025.84</v>
       </c>
-      <c r="AE41" t="n">
+      <c r="AH41" t="n">
         <v>60425.84</v>
       </c>
-      <c r="AF41" t="n">
+      <c r="AI41" t="n">
         <v>60725.84</v>
       </c>
-      <c r="AG41" t="n">
+      <c r="AJ41" t="n">
         <v>60775.84</v>
       </c>
-      <c r="AH41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" s="2" t="n">
+      <c r="AK41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" s="2" t="n">
         <v>45468.26041666666</v>
       </c>
-      <c r="AK41" s="2" t="n">
+      <c r="AN41" s="2" t="n">
         <v>45468.25450231481</v>
       </c>
-      <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="n">
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="n">
         <v>100</v>
       </c>
-      <c r="AN41" t="n">
-        <v>147.72</v>
-      </c>
-      <c r="AO41" t="inlineStr">
+      <c r="AQ41" t="n">
+        <v>146.37</v>
+      </c>
+      <c r="AR41" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AP41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>145.53</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>1686.600000000001</v>
-      </c>
-      <c r="AS41" t="n">
+      <c r="AS41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>144.21</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1673.81</v>
+      </c>
+      <c r="AV41" t="n">
         <v>3</v>
       </c>
-      <c r="AT41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU41" t="n">
+      <c r="AW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX41" t="n">
         <v>26</v>
       </c>
-      <c r="AV41" t="n">
+      <c r="AY41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6555,114 +6918,123 @@
         <v>45468.70833333334</v>
       </c>
       <c r="L42" t="n">
-        <v>0.001145422168887113</v>
+        <v>22.51319047615107</v>
       </c>
       <c r="M42" t="n">
-        <v>0.001864004974503822</v>
+        <v>-177.741251533982</v>
       </c>
       <c r="N42" t="n">
         <v>61378.94169047619</v>
       </c>
       <c r="O42" t="n">
+        <v>0.001145422168887113</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.001864004974503822</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>61163.88603571424</v>
+      </c>
+      <c r="R42" t="n">
         <v>61294.96275763254</v>
       </c>
-      <c r="P42" t="n">
+      <c r="S42" t="n">
         <v>61169.77765745153</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="T42" t="n">
         <v>61301.27873237013</v>
       </c>
-      <c r="R42" t="n">
+      <c r="U42" t="n">
         <v>67.05852893713018</v>
       </c>
-      <c r="S42" t="n">
+      <c r="V42" t="n">
         <v>52.15941485875873</v>
       </c>
-      <c r="T42" t="n">
+      <c r="W42" t="n">
         <v>261.8251065530531</v>
       </c>
-      <c r="U42" t="n">
+      <c r="X42" t="n">
         <v>178.1532817337065</v>
       </c>
-      <c r="V42" t="n">
+      <c r="Y42" t="n">
         <v>-4.01444134843041</v>
       </c>
-      <c r="W42" t="n">
+      <c r="Z42" t="n">
         <v>-28.99602923978091</v>
       </c>
-      <c r="X42" t="n">
+      <c r="AA42" t="n">
         <v>61656.24262621675</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="AB42" t="n">
         <v>60947.8148385235</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AC42" t="n">
         <v>66.01200779362489</v>
       </c>
-      <c r="AA42" t="n">
+      <c r="AD42" t="n">
         <v>54.94622586863822</v>
       </c>
-      <c r="AB42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
+      <c r="AE42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
         <v>62439.738</v>
       </c>
-      <c r="AE42" t="n">
+      <c r="AH42" t="n">
         <v>61839.738</v>
       </c>
-      <c r="AF42" t="n">
+      <c r="AI42" t="n">
         <v>62139.738</v>
       </c>
-      <c r="AG42" t="n">
+      <c r="AJ42" t="n">
         <v>62189.738</v>
       </c>
-      <c r="AH42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" s="2" t="n">
+      <c r="AK42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" s="2" t="n">
         <v>45469.21875</v>
       </c>
-      <c r="AK42" s="2" t="n">
+      <c r="AN42" s="2" t="n">
         <v>45469.2202662037</v>
       </c>
-      <c r="AL42" s="2" t="n">
+      <c r="AO42" s="2" t="n">
         <v>45468.73541666667</v>
       </c>
-      <c r="AM42" t="n">
+      <c r="AP42" t="n">
         <v>12</v>
       </c>
-      <c r="AN42" t="n">
-        <v>17.46</v>
-      </c>
-      <c r="AO42" t="inlineStr">
+      <c r="AQ42" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="AR42" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AP42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>-72.78</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>1613.820000000001</v>
-      </c>
-      <c r="AS42" t="n">
+      <c r="AS42" t="b">
         <v>0</v>
       </c>
       <c r="AT42" t="n">
-        <v>1</v>
+        <v>-72.22</v>
       </c>
       <c r="AU42" t="n">
+        <v>1601.59</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX42" t="n">
         <v>26</v>
       </c>
-      <c r="AV42" t="n">
+      <c r="AY42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6701,116 +7073,125 @@
         <v>45468.95833333334</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0003846606716878608</v>
+        <v>126.0746309523674</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0008215520834419151</v>
+        <v>-36.32108988421533</v>
       </c>
       <c r="N43" t="n">
         <v>61868.88184523809</v>
       </c>
       <c r="O43" t="n">
+        <v>0.0003846606716878608</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.0008215520834419151</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>61836.53785714282</v>
+      </c>
+      <c r="R43" t="n">
         <v>61830.78387022444</v>
       </c>
-      <c r="P43" t="n">
+      <c r="S43" t="n">
         <v>61681.98213375224</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="T43" t="n">
         <v>61956.11520364632</v>
       </c>
-      <c r="R43" t="n">
+      <c r="U43" t="n">
         <v>90.79016981481982</v>
       </c>
-      <c r="S43" t="n">
+      <c r="V43" t="n">
         <v>87.33207505126747</v>
       </c>
-      <c r="T43" t="n">
+      <c r="W43" t="n">
         <v>237.4297024845707</v>
       </c>
-      <c r="U43" t="n">
+      <c r="X43" t="n">
         <v>46.27236188505776</v>
       </c>
-      <c r="V43" t="n">
+      <c r="Y43" t="n">
         <v>37.3442418300765</v>
       </c>
-      <c r="W43" t="n">
+      <c r="Z43" t="n">
         <v>48.38302855178335</v>
       </c>
-      <c r="X43" t="n">
+      <c r="AA43" t="n">
         <v>62278.14530200049</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="AB43" t="n">
         <v>61635.58510529216</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="AC43" t="n">
         <v>64.60271273692457</v>
       </c>
-      <c r="AA43" t="n">
+      <c r="AD43" t="n">
         <v>63.43099519089275</v>
       </c>
-      <c r="AB43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
+      <c r="AE43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
         <v>62341.637</v>
       </c>
-      <c r="AE43" t="n">
+      <c r="AH43" t="n">
         <v>62041.637</v>
       </c>
-      <c r="AF43" t="n">
+      <c r="AI43" t="n">
         <v>62041.637</v>
       </c>
-      <c r="AG43" t="n">
+      <c r="AJ43" t="n">
         <v>62091.637</v>
       </c>
-      <c r="AH43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI43" s="2" t="n">
+      <c r="AK43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL43" s="2" t="n">
         <v>45469.0625</v>
       </c>
-      <c r="AJ43" s="2" t="n">
+      <c r="AM43" s="2" t="n">
         <v>45469.0625</v>
       </c>
-      <c r="AK43" s="2" t="n">
+      <c r="AN43" s="2" t="n">
         <v>45469.21556712963</v>
       </c>
-      <c r="AL43" s="2" t="n">
+      <c r="AO43" s="2" t="n">
         <v>45469.06909722222</v>
       </c>
-      <c r="AM43" t="n">
+      <c r="AP43" t="n">
         <v>43.72549999999865</v>
       </c>
-      <c r="AN43" t="n">
-        <v>63.67</v>
-      </c>
-      <c r="AO43" t="inlineStr">
+      <c r="AQ43" t="n">
+        <v>63.09</v>
+      </c>
+      <c r="AR43" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="AP43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>1650.200000000001</v>
-      </c>
-      <c r="AS43" t="n">
+      <c r="AS43" t="b">
         <v>1</v>
       </c>
       <c r="AT43" t="n">
-        <v>0</v>
+        <v>36.05</v>
       </c>
       <c r="AU43" t="n">
+        <v>1637.64</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX43" t="n">
         <v>26</v>
       </c>
-      <c r="AV43" t="n">
+      <c r="AY43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6849,116 +7230,125 @@
         <v>45469.45833333334</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.0007998400803441716</v>
+        <v>-27.69391666661977</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.001944577356658687</v>
+        <v>35.15031345972966</v>
       </c>
       <c r="N44" t="n">
         <v>61517.62604761913</v>
       </c>
       <c r="O44" t="n">
+        <v>-0.0007998400803441716</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-0.001944577356658687</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>61628.78489285714</v>
+      </c>
+      <c r="R44" t="n">
         <v>61596.93229002433</v>
       </c>
-      <c r="P44" t="n">
+      <c r="S44" t="n">
         <v>61670.23753460894</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="T44" t="n">
         <v>61535.95388613688</v>
       </c>
-      <c r="R44" t="n">
+      <c r="U44" t="n">
         <v>-35.3339460649222</v>
       </c>
-      <c r="S44" t="n">
+      <c r="V44" t="n">
         <v>-28.15205866122351</v>
       </c>
-      <c r="T44" t="n">
+      <c r="W44" t="n">
         <v>191.5570565146242</v>
       </c>
-      <c r="U44" t="n">
+      <c r="X44" t="n">
         <v>-4.853230478227488</v>
       </c>
-      <c r="V44" t="n">
+      <c r="Y44" t="n">
         <v>-3.412420364613354</v>
       </c>
-      <c r="W44" t="n">
+      <c r="Z44" t="n">
         <v>22.36411867907009</v>
       </c>
-      <c r="X44" t="n">
+      <c r="AA44" t="n">
         <v>61794.55591243162</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="AB44" t="n">
         <v>61275.85185984214</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AC44" t="n">
         <v>40.08123814948766</v>
       </c>
-      <c r="AA44" t="n">
+      <c r="AD44" t="n">
         <v>46.38689333651993</v>
       </c>
-      <c r="AB44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD44" t="n">
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG44" t="n">
         <v>61082.539</v>
       </c>
-      <c r="AE44" t="n">
+      <c r="AH44" t="n">
         <v>61382.539</v>
       </c>
-      <c r="AF44" t="n">
+      <c r="AI44" t="n">
         <v>61382.539</v>
       </c>
-      <c r="AG44" t="n">
+      <c r="AJ44" t="n">
         <v>61332.539</v>
       </c>
-      <c r="AH44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI44" s="2" t="n">
+      <c r="AK44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL44" s="2" t="n">
         <v>45469.53125</v>
       </c>
-      <c r="AJ44" s="2" t="n">
+      <c r="AM44" s="2" t="n">
         <v>45469.53125</v>
       </c>
-      <c r="AK44" s="2" t="n">
+      <c r="AN44" s="2" t="n">
         <v>45469.83603009259</v>
       </c>
-      <c r="AL44" s="2" t="n">
+      <c r="AO44" s="2" t="n">
         <v>45469.5328125</v>
       </c>
-      <c r="AM44" t="n">
+      <c r="AP44" t="n">
         <v>41.92174999999952</v>
       </c>
-      <c r="AN44" t="n">
-        <v>60.94</v>
-      </c>
-      <c r="AO44" t="inlineStr">
+      <c r="AQ44" t="n">
+        <v>60.39</v>
+      </c>
+      <c r="AR44" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="AP44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>1686.580000000001</v>
-      </c>
-      <c r="AS44" t="n">
+      <c r="AS44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>36.05</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>1673.69</v>
+      </c>
+      <c r="AV44" t="n">
         <v>2</v>
       </c>
-      <c r="AT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU44" t="n">
+      <c r="AW44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX44" t="n">
         <v>26</v>
       </c>
-      <c r="AV44" t="n">
+      <c r="AY44" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6997,114 +7387,123 @@
         <v>45469.5</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.001337536420637756</v>
+        <v>-111.1588452380092</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.001944650778349031</v>
+        <v>27.45502280834626</v>
       </c>
       <c r="N45" t="n">
         <v>61437.39645238096</v>
       </c>
       <c r="O45" t="n">
+        <v>-0.001337536420637756</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-0.001944650778349031</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>61517.62604761913</v>
+      </c>
+      <c r="R45" t="n">
         <v>61498.1892844969</v>
       </c>
-      <c r="P45" t="n">
+      <c r="S45" t="n">
         <v>61592.95756655161</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="T45" t="n">
         <v>61461.27413175095</v>
       </c>
-      <c r="R45" t="n">
+      <c r="U45" t="n">
         <v>-47.76436927255418</v>
       </c>
-      <c r="S45" t="n">
+      <c r="V45" t="n">
         <v>-38.33766252357304</v>
       </c>
-      <c r="T45" t="n">
+      <c r="W45" t="n">
         <v>138.5608692253529</v>
       </c>
-      <c r="U45" t="n">
+      <c r="X45" t="n">
         <v>-26.46519779843948</v>
       </c>
-      <c r="V45" t="n">
+      <c r="Y45" t="n">
         <v>-9.07085001716041</v>
       </c>
-      <c r="W45" t="n">
+      <c r="Z45" t="n">
         <v>-16.53361025109189</v>
       </c>
-      <c r="X45" t="n">
+      <c r="AA45" t="n">
         <v>61648.33130520517</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="AB45" t="n">
         <v>61272.71695829673</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AC45" t="n">
         <v>20.78968198398323</v>
       </c>
-      <c r="AA45" t="n">
+      <c r="AD45" t="n">
         <v>25.64379764139649</v>
       </c>
-      <c r="AB45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD45" t="n">
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG45" t="n">
         <v>60931.84</v>
       </c>
-      <c r="AE45" t="n">
+      <c r="AH45" t="n">
         <v>61531.84</v>
       </c>
-      <c r="AF45" t="n">
+      <c r="AI45" t="n">
         <v>61231.84</v>
       </c>
-      <c r="AG45" t="n">
+      <c r="AJ45" t="n">
         <v>61181.84</v>
       </c>
-      <c r="AH45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" s="2" t="n">
+      <c r="AK45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" s="2" t="n">
         <v>45469.84375</v>
       </c>
-      <c r="AK45" s="2" t="n">
+      <c r="AN45" s="2" t="n">
         <v>45469.83692129629</v>
       </c>
-      <c r="AL45" s="2" t="n">
+      <c r="AO45" s="2" t="n">
         <v>45469.59415509259</v>
       </c>
-      <c r="AM45" t="n">
+      <c r="AP45" t="n">
         <v>50</v>
       </c>
-      <c r="AN45" t="n">
-        <v>72.77</v>
-      </c>
-      <c r="AO45" t="inlineStr">
+      <c r="AQ45" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="AR45" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AP45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>-72.78</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>1613.800000000001</v>
-      </c>
-      <c r="AS45" t="n">
+      <c r="AS45" t="b">
         <v>0</v>
       </c>
       <c r="AT45" t="n">
-        <v>1</v>
+        <v>-72.22</v>
       </c>
       <c r="AU45" t="n">
+        <v>1601.47</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX45" t="n">
         <v>26</v>
       </c>
-      <c r="AV45" t="n">
+      <c r="AY45" t="n">
         <v>6</v>
       </c>
     </row>
